--- a/on_trucks/Processed_Stand_Alone/46_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/46_225-80R17.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>129</v>
       </c>
       <c r="E2">
-        <v>0.001510606695735638</v>
+        <v>0.001508937016090578</v>
       </c>
       <c r="F2">
         <v>0.5008547351541298</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>120</v>
       </c>
       <c r="E3">
-        <v>0.002609139336722994</v>
+        <v>0.002599028523474619</v>
       </c>
       <c r="F3">
         <v>0.5032293573268382</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>122</v>
       </c>
       <c r="E4">
-        <v>0.001976818385138267</v>
+        <v>0.001975553960472451</v>
       </c>
       <c r="F4">
         <v>0.5007095257552027</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.002985826475890312</v>
+        <v>0.002925223205181372</v>
       </c>
       <c r="F5">
         <v>0.5060674489674581</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>98</v>
       </c>
       <c r="E6">
-        <v>0.008225657220125299</v>
+        <v>0.0626444454130064</v>
       </c>
       <c r="F6">
         <v>0.510806450729281</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>147</v>
       </c>
       <c r="E2">
-        <v>0.001510606695735638</v>
+        <v>0.001508937016090578</v>
       </c>
       <c r="F2">
         <v>0.7295761336331565</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>146</v>
       </c>
       <c r="E3">
-        <v>0.002609139336722994</v>
+        <v>0.002599028523474619</v>
       </c>
       <c r="F3">
         <v>0.718108902741242</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>145</v>
       </c>
       <c r="E4">
-        <v>0.001976818385138267</v>
+        <v>0.001975553960472451</v>
       </c>
       <c r="F4">
         <v>0.7011367348498517</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.002985826475890312</v>
+        <v>0.002925223205181372</v>
       </c>
       <c r="F5">
         <v>0.7205683039226973</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>111</v>
       </c>
       <c r="E6">
-        <v>0.008225657220125299</v>
+        <v>0.0626444454130064</v>
       </c>
       <c r="F6">
         <v>0.7030368481833383</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.001510606695735638</v>
+        <v>0.001508937016090578</v>
       </c>
       <c r="F2">
         <v>0.8092978490846492</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>154</v>
       </c>
       <c r="E3">
-        <v>0.002609139336722994</v>
+        <v>0.002599028523474619</v>
       </c>
       <c r="F3">
         <v>0.8193040782716592</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>153</v>
       </c>
       <c r="E4">
-        <v>0.001976818385138267</v>
+        <v>0.001975553960472451</v>
       </c>
       <c r="F4">
         <v>0.8050951133510994</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>153</v>
       </c>
       <c r="E5">
-        <v>0.002985826475890312</v>
+        <v>0.002925223205181372</v>
       </c>
       <c r="F5">
         <v>0.8214025725022605</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>135</v>
       </c>
       <c r="E6">
-        <v>0.008225657220125299</v>
+        <v>0.0626444454130064</v>
       </c>
       <c r="F6">
         <v>0.8001694982956833</v>
       </c>
       <c r="G6">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>166</v>
       </c>
       <c r="E2">
-        <v>0.001510606695735638</v>
+        <v>0.001508937016090578</v>
       </c>
       <c r="F2">
         <v>0.9082816681759783</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>166</v>
       </c>
       <c r="E3">
-        <v>0.002609139336722994</v>
+        <v>0.002599028523474619</v>
       </c>
       <c r="F3">
         <v>0.9140656896306036</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>164</v>
       </c>
       <c r="E4">
-        <v>0.001976818385138267</v>
+        <v>0.001975553960472451</v>
       </c>
       <c r="F4">
         <v>0.9004033591877899</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>164</v>
       </c>
       <c r="E5">
-        <v>0.002985826475890312</v>
+        <v>0.002925223205181372</v>
       </c>
       <c r="F5">
         <v>0.9085895331821768</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>177</v>
       </c>
       <c r="E6">
-        <v>0.008225657220125299</v>
+        <v>0.0626444454130064</v>
       </c>
       <c r="F6">
         <v>0.9017096705611718</v>
       </c>
       <c r="G6">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>46</v>

--- a/on_trucks/Processed_Stand_Alone/46_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/46_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.15649711217361E-06</v>
+        <v>2.279852922075923E-06</v>
       </c>
       <c r="C2">
-        <v>2.393425764592661E-07</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.478892839911672E-09</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.877448950667719E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.92992030605886E-06</v>
+        <v>2.053196108841216E-06</v>
       </c>
       <c r="G2">
-        <v>6.993229188730016E-06</v>
+        <v>5.117586684406906E-06</v>
       </c>
       <c r="H2">
-        <v>5.716465854273321E-06</v>
+        <v>3.840372508758617E-06</v>
       </c>
       <c r="I2">
-        <v>2.399356064752705E-05</v>
+        <v>2.21239211740598E-05</v>
       </c>
       <c r="J2">
-        <v>3.802095102609173E-05</v>
+        <v>3.615626480059342E-05</v>
       </c>
       <c r="K2">
-        <v>8.979825242343346E-06</v>
+        <v>7.104884230072721E-06</v>
       </c>
       <c r="L2">
-        <v>1.149928431033734E-05</v>
+        <v>9.625232950751535E-06</v>
       </c>
       <c r="M2">
-        <v>3.314998789463645E-05</v>
+        <v>3.1283581670793E-05</v>
       </c>
       <c r="N2">
-        <v>4.585775723758782E-05</v>
+        <v>4.399583828692841E-05</v>
       </c>
       <c r="O2">
-        <v>2.35813426364023E-05</v>
+        <v>2.171155760357074E-05</v>
       </c>
       <c r="P2">
-        <v>2.218231259864593E-06</v>
+        <v>3.409026437163627E-07</v>
       </c>
       <c r="Q2">
-        <v>1.475965439832669E-05</v>
+        <v>1.288675431642551E-05</v>
       </c>
       <c r="R2">
-        <v>5.216602740783247E-05</v>
+        <v>5.0306335986711E-05</v>
       </c>
       <c r="S2">
-        <v>6.993229188730016E-06</v>
+        <v>5.117586684406906E-06</v>
       </c>
       <c r="T2">
-        <v>1.997793253915515E-07</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>3.904270105366625E-06</v>
+        <v>2.027536850740507E-06</v>
       </c>
       <c r="V2">
-        <v>2.157392058222693E-06</v>
+        <v>2.80041958987172E-07</v>
       </c>
       <c r="W2">
-        <v>9.803293264566718E-06</v>
+        <v>7.92864302921172E-06</v>
       </c>
       <c r="X2">
-        <v>9.803293264566718E-06</v>
+        <v>7.92864302921172E-06</v>
       </c>
       <c r="Y2">
-        <v>2.456781066302465E-06</v>
+        <v>5.795366850911927E-07</v>
       </c>
       <c r="Z2">
-        <v>4.303668516145403E-06</v>
+        <v>2.427076294121473E-06</v>
       </c>
       <c r="AA2">
-        <v>1.006971127175668E-05</v>
+        <v>8.195155111950833E-06</v>
       </c>
       <c r="AB2">
-        <v>1.922581851885745E-05</v>
+        <v>1.735449549567938E-05</v>
       </c>
       <c r="AC2">
-        <v>1.242876233542166E-05</v>
+        <v>1.055503918621681E-05</v>
       </c>
       <c r="AD2">
-        <v>4.970584634143826E-06</v>
+        <v>3.094227908589145E-06</v>
       </c>
       <c r="AE2">
-        <v>5.014505135329131E-07</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.548690395770405E-06</v>
+        <v>1.671831581476607E-06</v>
       </c>
       <c r="AG2">
-        <v>1.401172337814187E-05</v>
+        <v>1.213855919239054E-05</v>
       </c>
       <c r="AH2">
-        <v>1.257419933934664E-05</v>
+        <v>1.070052754577708E-05</v>
       </c>
       <c r="AI2">
-        <v>9.580520258554624E-06</v>
+        <v>7.705791359249326E-06</v>
       </c>
       <c r="AJ2">
-        <v>2.976496880328313E-07</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.476827839855943E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.446528739038245E-11</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>6.377133172103102E-06</v>
+        <v>4.501273116527716E-06</v>
       </c>
       <c r="AN2">
-        <v>8.279792223451181E-06</v>
+        <v>6.404604020717081E-06</v>
       </c>
       <c r="AO2">
-        <v>5.014505135329131E-07</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.657677271724157E-06</v>
+        <v>7.805038294897459E-07</v>
       </c>
       <c r="AQ2">
-        <v>2.521676468053831E-06</v>
+        <v>6.444550022251248E-07</v>
       </c>
       <c r="AR2">
-        <v>1.428086538540535E-05</v>
+        <v>1.240779623708185E-05</v>
       </c>
       <c r="AS2">
-        <v>2.157392058222693E-06</v>
+        <v>2.80041958987172E-07</v>
       </c>
       <c r="AT2">
-        <v>6.386103172345182E-07</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.297698235021676E-05</v>
+        <v>1.110345278439425E-05</v>
       </c>
       <c r="AV2">
-        <v>9.843913265662951E-06</v>
+        <v>7.969277373741227E-06</v>
       </c>
       <c r="AW2">
-        <v>5.517291748898102E-07</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>4.33059711687214E-06</v>
+        <v>2.454014403675815E-06</v>
       </c>
       <c r="AY2">
-        <v>2.983109280506766E-05</v>
+        <v>2.796351463762545E-05</v>
       </c>
       <c r="AZ2">
-        <v>5.422070146328307E-05</v>
+        <v>5.236173557341276E-05</v>
       </c>
       <c r="BA2">
-        <v>4.915842632666474E-05</v>
+        <v>4.72976728837741E-05</v>
       </c>
       <c r="BB2">
-        <v>6.350803771392537E-05</v>
+        <v>6.16523512992945E-05</v>
       </c>
       <c r="BC2">
-        <v>2.756760574398172E-05</v>
+        <v>2.569922831078976E-05</v>
       </c>
       <c r="BD2">
-        <v>1.475965439832669E-05</v>
+        <v>1.288675431642551E-05</v>
       </c>
       <c r="BE2">
-        <v>3.85438910402046E-05</v>
+        <v>3.667938947140243E-05</v>
       </c>
       <c r="BF2">
-        <v>5.505368748576331E-05</v>
+        <v>5.319501573373423E-05</v>
       </c>
       <c r="BG2">
-        <v>4.378314518159915E-05</v>
+        <v>4.192049365932982E-05</v>
       </c>
       <c r="BH2">
-        <v>4.33059711687214E-06</v>
+        <v>2.454014403675815E-06</v>
       </c>
       <c r="BI2">
-        <v>1.246889633650477E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>5.888837858925217E-06</v>
+        <v>4.012805380133325E-06</v>
       </c>
       <c r="BK2">
-        <v>2.190748659122906E-05</v>
+        <v>2.003711049877541E-05</v>
       </c>
       <c r="BL2">
-        <v>8.211016621595095E-05</v>
+        <v>8.026104844685813E-05</v>
       </c>
       <c r="BM2">
-        <v>6.498487175378149E-05</v>
+        <v>6.312970682782463E-05</v>
       </c>
       <c r="BN2">
-        <v>2.151367558060107E-05</v>
+        <v>1.96431604285265E-05</v>
       </c>
       <c r="BO2">
-        <v>1.242876233542166E-05</v>
+        <v>1.055503918621681E-05</v>
       </c>
       <c r="BP2">
-        <v>7.722046208398991E-06</v>
+        <v>5.846661058532055E-06</v>
       </c>
       <c r="BQ2">
-        <v>2.976496880328313E-07</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>8.398575226656841E-06</v>
+        <v>6.523428967695139E-06</v>
       </c>
       <c r="BS2">
-        <v>6.993229188730016E-06</v>
+        <v>5.117586684406906E-06</v>
       </c>
       <c r="BT2">
-        <v>2.263339261081947E-05</v>
+        <v>2.076327284491126E-05</v>
       </c>
       <c r="BU2">
-        <v>0.0001007999727203428</v>
+        <v>9.895745455699339E-05</v>
       </c>
       <c r="BV2">
-        <v>0.0001027896827740401</v>
+        <v>0.0001009478672023358</v>
       </c>
       <c r="BW2">
-        <v>4.915842632666474E-05</v>
+        <v>4.72976728837741E-05</v>
       </c>
       <c r="BX2">
-        <v>4.99517243480739E-05</v>
+        <v>4.809125102869213E-05</v>
       </c>
       <c r="BY2">
-        <v>1.642784844334713E-05</v>
+        <v>1.455553742174458E-05</v>
       </c>
       <c r="BZ2">
-        <v>4.15649711217361E-06</v>
+        <v>2.279852922075923E-06</v>
       </c>
       <c r="CA2">
-        <v>4.15649711217361E-06</v>
+        <v>2.279852922075923E-06</v>
       </c>
       <c r="CB2">
-        <v>1.476827839855943E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>5.618542151630602E-06</v>
+        <v>3.742414228024882E-06</v>
       </c>
       <c r="CD2">
-        <v>2.610390070447993E-07</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.726212446586218E-06</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>6.884875485805816E-06</v>
+        <v>5.00919472042741E-06</v>
       </c>
       <c r="CG2">
-        <v>1.726212446586218E-06</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>1.325480535771452E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>1.891333051042416E-05</v>
+        <v>1.704189714380008E-05</v>
       </c>
       <c r="CJ2">
-        <v>1.056375928508982E-05</v>
+        <v>8.689377579851255E-06</v>
       </c>
       <c r="CK2">
-        <v>1.257419933934664E-05</v>
+        <v>1.070052754577708E-05</v>
       </c>
       <c r="CL2">
-        <v>1.297698235021676E-05</v>
+        <v>1.110345278439425E-05</v>
       </c>
       <c r="CM2">
-        <v>1.669679645060537E-06</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.008847248238765419</v>
+        <v>0.008848494201491251</v>
       </c>
       <c r="CO2">
-        <v>0.05566090150215051</v>
+        <v>0.0556786779546316</v>
       </c>
       <c r="CP2">
-        <v>0.08536079230367735</v>
+        <v>0.08538905616114399</v>
       </c>
       <c r="CQ2">
-        <v>0.02521555768050574</v>
+        <v>0.02522258349916409</v>
       </c>
       <c r="CR2">
-        <v>0.00345999219337666</v>
+        <v>0.003459335848235891</v>
       </c>
       <c r="CS2">
-        <v>0.01764822447628207</v>
+        <v>0.01765257817440962</v>
       </c>
       <c r="CT2">
-        <v>1.401172337814187E-05</v>
+        <v>1.213855919239054E-05</v>
       </c>
       <c r="CU2">
-        <v>0.003651491198544746</v>
+        <v>0.003650902474111236</v>
       </c>
       <c r="CV2">
-        <v>0.04373070718018398</v>
+        <v>0.0437442709310007</v>
       </c>
       <c r="CW2">
-        <v>0.04622803724758076</v>
+        <v>0.04624248283705388</v>
       </c>
       <c r="CX2">
-        <v>0.001725994546580338</v>
+        <v>0.001724725905061529</v>
       </c>
       <c r="CY2">
-        <v>0.02920750378823852</v>
+        <v>0.0292159392132753</v>
       </c>
       <c r="CZ2">
-        <v>0.0009153131247020448</v>
+        <v>0.0009137582213770119</v>
       </c>
       <c r="DA2">
-        <v>0.0005315748143458938</v>
+        <v>0.0005298844081970939</v>
       </c>
       <c r="DB2">
-        <v>2.520332768017568E-08</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0003837920503576013</v>
+        <v>0.0003820494602561333</v>
       </c>
       <c r="DD2">
-        <v>0.0001638626744222496</v>
+        <v>0.0001620424244920278</v>
       </c>
       <c r="DE2">
-        <v>0.02121840657263249</v>
+        <v>0.0212240209469614</v>
       </c>
       <c r="DF2">
-        <v>0.01985000453570269</v>
+        <v>0.0198551357100616</v>
       </c>
       <c r="DG2">
-        <v>0.001612584643519684</v>
+        <v>0.001611275955537718</v>
       </c>
       <c r="DH2">
-        <v>8.861643639153915E-05</v>
+        <v>8.676961606827645E-05</v>
       </c>
       <c r="DI2">
-        <v>0.004009792108214403</v>
+        <v>0.004009329904338547</v>
       </c>
       <c r="DJ2">
-        <v>0.004768752628696877</v>
+        <v>0.004768558423326454</v>
       </c>
       <c r="DK2">
-        <v>0.002722005473460218</v>
+        <v>0.002721088535926788</v>
       </c>
       <c r="DL2">
-        <v>0.01601844843229843</v>
+        <v>0.01602222663600672</v>
       </c>
       <c r="DM2">
-        <v>0.01527491841223239</v>
+        <v>0.01527843406613902</v>
       </c>
       <c r="DN2">
-        <v>0.0008195456721175173</v>
+        <v>0.0008179569521004837</v>
       </c>
       <c r="DO2">
-        <v>0.002725740073561005</v>
+        <v>0.002724824454761842</v>
       </c>
       <c r="DP2">
-        <v>0.01560939442125907</v>
+        <v>0.01561302818285128</v>
       </c>
       <c r="DQ2">
-        <v>0.02876143977620036</v>
+        <v>0.02876971769042421</v>
       </c>
       <c r="DR2">
-        <v>0.001043567928163326</v>
+        <v>0.00104205831322249</v>
       </c>
       <c r="DS2">
-        <v>0.0008030631816726956</v>
+        <v>0.0008014686414809811</v>
       </c>
       <c r="DT2">
-        <v>2.854350277031877E-05</v>
+        <v>2.667546993864093E-05</v>
       </c>
       <c r="DU2">
-        <v>0.001789777748301689</v>
+        <v>0.001788531629433627</v>
       </c>
       <c r="DV2">
-        <v>0.00426896311520879</v>
+        <v>0.004268592427875167</v>
       </c>
       <c r="DW2">
-        <v>0.00217964665882329</v>
+        <v>0.002178538207571019</v>
       </c>
       <c r="DX2">
-        <v>0.002288836361770051</v>
+        <v>0.002287766466775199</v>
       </c>
       <c r="DY2">
-        <v>0.01100968329712421</v>
+        <v>0.01101169284286668</v>
       </c>
       <c r="DZ2">
-        <v>0.01970736753185327</v>
+        <v>0.01971244833929214</v>
       </c>
       <c r="EA2">
-        <v>0.02341468463190462</v>
+        <v>0.02342107453963944</v>
       </c>
       <c r="EB2">
-        <v>0.01521230741054267</v>
+        <v>0.01521580095571713</v>
       </c>
       <c r="EC2">
-        <v>0.009280283250451967</v>
+        <v>0.009281682123286823</v>
       </c>
       <c r="ED2">
-        <v>6.106236164792261E-05</v>
+        <v>5.920581163431291E-05</v>
       </c>
       <c r="EE2">
-        <v>3.732925100742446E-05</v>
+        <v>3.546432053394986E-05</v>
       </c>
       <c r="EF2">
-        <v>2.521676468053831E-06</v>
+        <v>6.444550022251248E-07</v>
       </c>
       <c r="EG2">
-        <v>0.001159473131291322</v>
+        <v>0.001158004443935482</v>
       </c>
       <c r="EH2">
-        <v>0.009114228245970551</v>
+        <v>0.009115568482694807</v>
       </c>
       <c r="EI2">
-        <v>0.0243267236565183</v>
+        <v>0.02433343561670368</v>
       </c>
       <c r="EJ2">
-        <v>0.01616690743630498</v>
+        <v>0.01617073806275478</v>
       </c>
       <c r="EK2">
-        <v>0.01974907053297873</v>
+        <v>0.0197541660662718</v>
       </c>
       <c r="EL2">
-        <v>0.01950829752648086</v>
+        <v>0.01951330803979708</v>
       </c>
       <c r="EM2">
-        <v>0.002336254363049746</v>
+        <v>0.002335201211947535</v>
       </c>
       <c r="EN2">
-        <v>0.0004424732319412617</v>
+        <v>0.0004407513629030601</v>
       </c>
       <c r="EO2">
-        <v>0.004258771514933744</v>
+        <v>0.00425839722881788</v>
       </c>
       <c r="EP2">
-        <v>0.0228789106174454</v>
+        <v>0.02288511133663714</v>
       </c>
       <c r="EQ2">
-        <v>0.03086977083309901</v>
+        <v>0.03087879322553611</v>
       </c>
       <c r="ER2">
-        <v>0.02990232880699014</v>
+        <v>0.02991100958348004</v>
       </c>
       <c r="ES2">
-        <v>0.02443873165954112</v>
+        <v>0.02444548317116112</v>
       </c>
       <c r="ET2">
-        <v>0.008690173234526352</v>
+        <v>0.008691363732092613</v>
       </c>
       <c r="EU2">
-        <v>0.004397779318685222</v>
+        <v>0.004397454117973203</v>
       </c>
       <c r="EV2">
-        <v>0.0007808641210735976</v>
+        <v>0.0007792617421143821</v>
       </c>
       <c r="EW2">
-        <v>0.002050100055327147</v>
+        <v>0.002048945859539839</v>
       </c>
       <c r="EX2">
-        <v>0.01089334329398448</v>
+        <v>0.0108953117586086</v>
       </c>
       <c r="EY2">
-        <v>0.02847072376835465</v>
+        <v>0.02847889902709972</v>
       </c>
       <c r="EZ2">
-        <v>0.02551411368856303</v>
+        <v>0.02552124493110285</v>
       </c>
       <c r="FA2">
-        <v>0.007175162593639949</v>
+        <v>0.007175818121894215</v>
       </c>
       <c r="FB2">
-        <v>0.01252328733797265</v>
+        <v>0.01252583135633895</v>
       </c>
       <c r="FC2">
-        <v>0.001551559941872778</v>
+        <v>0.001550229705301136</v>
       </c>
       <c r="FD2">
-        <v>0.0005312760643378313</v>
+        <v>0.000529585552696646</v>
       </c>
       <c r="FE2">
-        <v>0.0001535709641445017</v>
+        <v>0.0001517470800819392</v>
       </c>
       <c r="FF2">
-        <v>0.003047200482236429</v>
+        <v>0.003046398375150664</v>
       </c>
       <c r="FG2">
-        <v>0.0001730027146689168</v>
+        <v>0.0001711856922018628</v>
       </c>
       <c r="FH2">
-        <v>0.009107398245786226</v>
+        <v>0.009108736070751513</v>
       </c>
       <c r="FI2">
-        <v>0.01252789033809688</v>
+        <v>0.01253043598184041</v>
       </c>
       <c r="FJ2">
-        <v>0.01052154428395054</v>
+        <v>0.010523381461668</v>
       </c>
       <c r="FK2">
-        <v>0.01615781243605953</v>
+        <v>0.01616163985095036</v>
       </c>
       <c r="FL2">
-        <v>0.00823664122228664</v>
+        <v>0.008237671571995184</v>
       </c>
       <c r="FM2">
-        <v>0.000434485481725692</v>
+        <v>0.0004327607921124251</v>
       </c>
       <c r="FN2">
-        <v>7.449868201053576E-05</v>
+        <v>7.264687653063832E-05</v>
       </c>
       <c r="FO2">
-        <v>0.001293611434911383</v>
+        <v>0.001292190113477645</v>
       </c>
       <c r="FP2">
-        <v>0.003034057681881737</v>
+        <v>0.003033250933907866</v>
       </c>
       <c r="FQ2">
-        <v>0.001968023053112091</v>
+        <v>0.001966839874902996</v>
       </c>
       <c r="FR2">
-        <v>0.01156196331202889</v>
+        <v>0.01156416787479079</v>
       </c>
       <c r="FS2">
-        <v>0.008141139719709291</v>
+        <v>0.008142136346636126</v>
       </c>
       <c r="FT2">
-        <v>0.004243231514514358</v>
+        <v>0.004242851741028896</v>
       </c>
       <c r="FU2">
-        <v>0.004782381129064677</v>
+        <v>0.004782191736089143</v>
       </c>
       <c r="FV2">
-        <v>8.835937938460181E-07</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.000146326703948997</v>
+        <v>0.0001445002618470464</v>
       </c>
       <c r="FX2">
-        <v>3.977798107350965E-05</v>
+        <v>3.791391527741973E-05</v>
       </c>
       <c r="FY2">
-        <v>0.001969847853161337</v>
+        <v>0.001968665319312091</v>
       </c>
       <c r="FZ2">
-        <v>0.001544310641677137</v>
+        <v>0.00154297784528642</v>
       </c>
       <c r="GA2">
-        <v>0.002541371668585356</v>
+        <v>0.002540390946983545</v>
       </c>
       <c r="GB2">
-        <v>0.005454127847193465</v>
+        <v>0.005454175656432842</v>
       </c>
       <c r="GC2">
-        <v>0.001572113142427458</v>
+        <v>0.001570790163449435</v>
       </c>
       <c r="GD2">
-        <v>3.138969084713037E-05</v>
+        <v>2.952266304025972E-05</v>
       </c>
       <c r="GE2">
-        <v>2.921876578854246E-05</v>
+        <v>2.735097140072931E-05</v>
       </c>
       <c r="GF2">
-        <v>0.0005450005147082203</v>
+        <v>0.0005433148493430769</v>
       </c>
       <c r="GG2">
-        <v>0.0001597558043114153</v>
+        <v>0.0001579341041937042</v>
       </c>
       <c r="GH2">
-        <v>0.0007358700598593188</v>
+        <v>0.0007342517929311861</v>
       </c>
       <c r="GI2">
-        <v>0.0009333000251874669</v>
+        <v>0.0009317514732632214</v>
       </c>
       <c r="GJ2">
-        <v>0.001302198035143115</v>
+        <v>0.001300779745745915</v>
       </c>
       <c r="GK2">
-        <v>0.0006207738167531549</v>
+        <v>0.0006191149078939849</v>
       </c>
       <c r="GL2">
-        <v>0.0002294274661916817</v>
+        <v>0.0002276303680140598</v>
       </c>
       <c r="GM2">
-        <v>0.002642544771315769</v>
+        <v>0.002641599775209013</v>
       </c>
       <c r="GN2">
-        <v>0.004741554127962857</v>
+        <v>0.004741350318459741</v>
       </c>
       <c r="GO2">
-        <v>0.01007991227203198</v>
+        <v>0.01008159350393151</v>
       </c>
       <c r="GP2">
-        <v>0.0068123561838487</v>
+        <v>0.006812883600596554</v>
       </c>
       <c r="GQ2">
-        <v>0.004749317128172361</v>
+        <v>0.004749116059882257</v>
       </c>
       <c r="GR2">
-        <v>0.0009234627249219824</v>
+        <v>0.0009219106993232868</v>
       </c>
       <c r="GS2">
-        <v>0.0001434577738715717</v>
+        <v>0.0001416303187143275</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>8.573558375626885E-05</v>
+        <v>7.62320068019227E-05</v>
       </c>
       <c r="C3">
-        <v>0.0003058977977228598</v>
+        <v>0.0002967544539095746</v>
       </c>
       <c r="D3">
-        <v>0.0002844923792817188</v>
+        <v>0.000275314011560462</v>
       </c>
       <c r="E3">
-        <v>0.0001954761857643618</v>
+        <v>0.0001861521682405421</v>
       </c>
       <c r="F3">
-        <v>1.498208090892344E-05</v>
+        <v>5.362735875611533E-06</v>
       </c>
       <c r="G3">
-        <v>9.703168293362549E-07</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.066405631036808E-07</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.612703609728723E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.661152279025863E-05</v>
+        <v>6.994843877333659E-06</v>
       </c>
       <c r="K3">
-        <v>1.634530280964621E-05</v>
+        <v>6.728188303082799E-06</v>
       </c>
       <c r="L3">
-        <v>9.628105298829045E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.287451360589925E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7.164367978251787E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.880460098927502E-05</v>
+        <v>5.927332127434376E-05</v>
       </c>
       <c r="P3">
-        <v>8.445835384928365E-06</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.14142394404987E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.276579807032521E-05</v>
+        <v>3.14282671751894E-06</v>
       </c>
       <c r="S3">
-        <v>9.186531730986832E-05</v>
+        <v>8.237176992931731E-05</v>
       </c>
       <c r="T3">
-        <v>1.038871724343715E-05</v>
+        <v>7.618564707463464E-07</v>
       </c>
       <c r="U3">
-        <v>4.537386669562843E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>3.354488355707927E-05</v>
+        <v>2.395591129566296E-05</v>
       </c>
       <c r="W3">
-        <v>4.371290681658855E-05</v>
+        <v>3.414057164693818E-05</v>
       </c>
       <c r="X3">
-        <v>4.270702288984249E-05</v>
+        <v>3.313304187588511E-05</v>
       </c>
       <c r="Y3">
-        <v>5.522500597821493E-05</v>
+        <v>4.567150710007199E-05</v>
       </c>
       <c r="Z3">
-        <v>1.724106574441189E-05</v>
+        <v>7.625416900324444E-06</v>
       </c>
       <c r="AA3">
-        <v>3.499344745158697E-07</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>6.932226495157592E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>7.164367978251787E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.066366349515972E-05</v>
+        <v>1.105361476344454E-05</v>
       </c>
       <c r="AE3">
-        <v>3.975962010448838E-05</v>
+        <v>3.018081650020449E-05</v>
       </c>
       <c r="AF3">
-        <v>1.724106574441189E-05</v>
+        <v>7.625416900324444E-06</v>
       </c>
       <c r="AG3">
-        <v>8.445835384928365E-06</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.731714728236252E-05</v>
+        <v>2.773434726270463E-05</v>
       </c>
       <c r="AI3">
-        <v>1.745742572865538E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.753641872290268E-05</v>
+        <v>7.921253140357923E-06</v>
       </c>
       <c r="AK3">
-        <v>3.122143572628537E-07</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.652660806818823E-07</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.084635075360109E-05</v>
+        <v>2.125296310713511E-05</v>
       </c>
       <c r="AN3">
-        <v>1.951155757906233E-05</v>
+        <v>9.89962375214615E-06</v>
       </c>
       <c r="AO3">
-        <v>1.80602546847541E-07</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.912721560705221E-05</v>
+        <v>9.514652913295866E-06</v>
       </c>
       <c r="AQ3">
-        <v>2.696981003591186E-05</v>
+        <v>1.737007952790745E-05</v>
       </c>
       <c r="AR3">
-        <v>9.307931322145855E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>3.257396162778708E-06</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>6.492774527160872E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>2.420627023716784E-05</v>
+        <v>1.460201797856776E-05</v>
       </c>
       <c r="AV3">
-        <v>2.788568196921308E-05</v>
+        <v>1.828745002636841E-05</v>
       </c>
       <c r="AW3">
-        <v>4.463112974971857E-07</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>3.499344745158697E-07</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.504645890423509E-05</v>
+        <v>5.427219207288799E-06</v>
       </c>
       <c r="AZ3">
-        <v>9.159134832982024E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1.221645811033113E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>4.473049974248191E-05</v>
+        <v>3.515982957560114E-05</v>
       </c>
       <c r="BC3">
-        <v>3.58626323882882E-05</v>
+        <v>2.627745246674082E-05</v>
       </c>
       <c r="BD3">
-        <v>6.557933522415639E-05</v>
+        <v>5.604277827478789E-05</v>
       </c>
       <c r="BE3">
-        <v>8.228143400781879E-05</v>
+        <v>7.277220531518766E-05</v>
       </c>
       <c r="BF3">
-        <v>6.535178224072805E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>2.797348696281865E-05</v>
+        <v>1.837539868799075E-05</v>
       </c>
       <c r="BH3">
-        <v>9.717818292295658E-05</v>
+        <v>8.769332854304976E-05</v>
       </c>
       <c r="BI3">
-        <v>1.364784700608961E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>8.860928354699039E-07</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1.47733989241208E-08</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>6.722529510428866E-05</v>
+        <v>5.769143130233632E-05</v>
       </c>
       <c r="BM3">
-        <v>2.663029906063689E-05</v>
+        <v>1.703001303902801E-05</v>
       </c>
       <c r="BN3">
-        <v>1.504645890423509E-05</v>
+        <v>5.427219207288799E-06</v>
       </c>
       <c r="BO3">
-        <v>1.632118481140262E-06</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>9.703168293362549E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>8.607599373147833E-07</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>3.865779218472948E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>5.702647084702246E-05</v>
+        <v>4.747591955619031E-05</v>
       </c>
       <c r="BT3">
-        <v>6.122823554102712E-05</v>
+        <v>5.168455924870833E-05</v>
       </c>
       <c r="BU3">
-        <v>1.363943000670258E-05</v>
+        <v>4.017888105258118E-06</v>
       </c>
       <c r="BV3">
-        <v>9.869254281267265E-05</v>
+        <v>8.921016625405015E-05</v>
       </c>
       <c r="BW3">
-        <v>5.186614022282579E-05</v>
+        <v>4.230714551168015E-05</v>
       </c>
       <c r="BX3">
-        <v>1.781741970243866E-06</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1.991857354942122E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>2.221409638224877E-07</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>1.753641872290268E-05</v>
+        <v>7.921253140357923E-06</v>
       </c>
       <c r="CB3">
-        <v>1.475216192566739E-06</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>3.576320239552923E-05</v>
+        <v>2.61778597849447E-05</v>
       </c>
       <c r="CD3">
-        <v>1.294135555754016E-05</v>
+        <v>3.318671454866039E-06</v>
       </c>
       <c r="CE3">
-        <v>3.705856130119416E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>1.583334884692949E-06</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>8.607599373147833E-07</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>2.136513144407501E-05</v>
+        <v>1.175623046609122E-05</v>
       </c>
       <c r="CI3">
-        <v>1.331840103008165E-05</v>
+        <v>3.696333855591759E-06</v>
       </c>
       <c r="CJ3">
-        <v>5.014993934780887E-06</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>3.354488355707927E-05</v>
+        <v>2.395591129566296E-05</v>
       </c>
       <c r="CL3">
-        <v>1.010878526382332E-05</v>
+        <v>4.814664616892115E-07</v>
       </c>
       <c r="CM3">
-        <v>2.027984552311144E-09</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.001250408908938428</v>
+        <v>0.001242810990192551</v>
       </c>
       <c r="CO3">
-        <v>0.08947416348400515</v>
+        <v>0.08961091876581161</v>
       </c>
       <c r="CP3">
-        <v>0.05339706611133544</v>
+        <v>0.05347479143576287</v>
       </c>
       <c r="CQ3">
-        <v>0.0410263970122348</v>
+        <v>0.04108388123849054</v>
       </c>
       <c r="CR3">
-        <v>0.01321181503784383</v>
+        <v>0.01322378857427043</v>
       </c>
       <c r="CS3">
-        <v>0.009689995294321879</v>
+        <v>0.009696206369672158</v>
       </c>
       <c r="CT3">
-        <v>0.006576215821084223</v>
+        <v>0.006577332077755102</v>
       </c>
       <c r="CU3">
-        <v>0.007884936425776076</v>
+        <v>0.007888194033252369</v>
       </c>
       <c r="CV3">
-        <v>0.01685930877221351</v>
+        <v>0.01687725039962747</v>
       </c>
       <c r="CW3">
-        <v>0.06591809519948605</v>
+        <v>0.06601630764364433</v>
       </c>
       <c r="CX3">
-        <v>0.001458435493788801</v>
+        <v>0.001451177951662212</v>
       </c>
       <c r="CY3">
-        <v>0.06270843543323093</v>
+        <v>0.06280139617775145</v>
       </c>
       <c r="CZ3">
-        <v>0.002583180111878785</v>
+        <v>0.002577762895934269</v>
       </c>
       <c r="DA3">
-        <v>0.001202000712463775</v>
+        <v>0.001194323587407447</v>
       </c>
       <c r="DB3">
-        <v>0.002085609848114556</v>
+        <v>0.002079378499282362</v>
       </c>
       <c r="DC3">
-        <v>0.01307897504751796</v>
+        <v>0.01309073122890387</v>
       </c>
       <c r="DD3">
-        <v>0.0001282600306594075</v>
+        <v>0.000118826032924873</v>
       </c>
       <c r="DE3">
-        <v>0.003289072760471846</v>
+        <v>0.003284810538027228</v>
       </c>
       <c r="DF3">
-        <v>0.04523837270549583</v>
+        <v>0.04530274863767476</v>
       </c>
       <c r="DG3">
-        <v>0.001977003756023842</v>
+        <v>0.001970594704065451</v>
       </c>
       <c r="DH3">
-        <v>0.0002078173548656108</v>
+        <v>0.000198513530171567</v>
       </c>
       <c r="DI3">
-        <v>0.000120459891227456</v>
+        <v>0.0001110131307727541</v>
       </c>
       <c r="DJ3">
-        <v>0.008226795400880048</v>
+        <v>0.008230612363797872</v>
       </c>
       <c r="DK3">
-        <v>5.47387160136292E-05</v>
+        <v>4.518442145961504E-05</v>
       </c>
       <c r="DL3">
-        <v>0.005628732590085102</v>
+        <v>0.005628298558655875</v>
       </c>
       <c r="DM3">
-        <v>0.01143650916713125</v>
+        <v>0.01144557791804253</v>
       </c>
       <c r="DN3">
-        <v>1.038871724343715E-05</v>
+        <v>7.618564707463464E-07</v>
       </c>
       <c r="DO3">
-        <v>0.00191073366084999</v>
+        <v>0.001904216176640157</v>
       </c>
       <c r="DP3">
-        <v>0.01065600122397208</v>
+        <v>0.01066379289457552</v>
       </c>
       <c r="DQ3">
-        <v>0.02333029330096125</v>
+        <v>0.02335882286279206</v>
       </c>
       <c r="DR3">
-        <v>0.005168241623620557</v>
+        <v>0.005167054129077515</v>
       </c>
       <c r="DS3">
-        <v>1.295208005675914E-06</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0008715288665305314</v>
+        <v>0.0008633110178461657</v>
       </c>
       <c r="DU3">
-        <v>6.434597531397637E-05</v>
+        <v>5.480740032024641E-05</v>
       </c>
       <c r="DV3">
-        <v>0.002245295636485369</v>
+        <v>0.002239325568243023</v>
       </c>
       <c r="DW3">
-        <v>0.0007107839982368463</v>
+        <v>0.0007023031360781355</v>
       </c>
       <c r="DX3">
-        <v>0.003007324180990309</v>
+        <v>0.003002600956750935</v>
       </c>
       <c r="DY3">
-        <v>0.003661378033358553</v>
+        <v>0.003657724983103245</v>
       </c>
       <c r="DZ3">
-        <v>0.01436673895373599</v>
+        <v>0.01438060219622255</v>
       </c>
       <c r="EA3">
-        <v>0.029998804815324</v>
+        <v>0.03003824550856896</v>
       </c>
       <c r="EB3">
-        <v>0.01430130795850103</v>
+        <v>0.01431506414168568</v>
       </c>
       <c r="EC3">
-        <v>0.003984347209838182</v>
+        <v>0.003981222607216157</v>
       </c>
       <c r="ED3">
-        <v>9.679926795055123E-05</v>
+        <v>8.731379358355286E-05</v>
       </c>
       <c r="EE3">
-        <v>0.0004441599276538601</v>
+        <v>0.0004352428106778575</v>
       </c>
       <c r="EF3">
-        <v>0.0007787781432851431</v>
+        <v>0.0007704085342974612</v>
       </c>
       <c r="EG3">
-        <v>3.921015714450325E-05</v>
+        <v>2.963045449962377E-05</v>
       </c>
       <c r="EH3">
-        <v>0.003542307042029949</v>
+        <v>0.003538459165803178</v>
       </c>
       <c r="EI3">
-        <v>0.01695026376558967</v>
+        <v>0.01696835421510335</v>
       </c>
       <c r="EJ3">
-        <v>0.0180754856836449</v>
+        <v>0.01809541724030693</v>
       </c>
       <c r="EK3">
-        <v>0.0210419684676095</v>
+        <v>0.02106675383361473</v>
       </c>
       <c r="EL3">
-        <v>0.02509199117266483</v>
+        <v>0.02512340325437265</v>
       </c>
       <c r="EM3">
-        <v>0.001650761879782548</v>
+        <v>0.001643819025344129</v>
       </c>
       <c r="EN3">
-        <v>0.001051820223400735</v>
+        <v>0.001043897370486176</v>
       </c>
       <c r="EO3">
-        <v>0.004367071381966128</v>
+        <v>0.004364572999112708</v>
       </c>
       <c r="EP3">
-        <v>0.01640753880511385</v>
+        <v>0.01642474123886078</v>
       </c>
       <c r="EQ3">
-        <v>0.02695999703662649</v>
+        <v>0.02699446558114767</v>
       </c>
       <c r="ER3">
-        <v>0.02519514816515238</v>
+        <v>0.02522672903407739</v>
       </c>
       <c r="ES3">
-        <v>0.02517086616692073</v>
+        <v>0.02520240730522923</v>
       </c>
       <c r="ET3">
-        <v>0.009991421272370401</v>
+        <v>0.009998125546008041</v>
       </c>
       <c r="EU3">
-        <v>0.007009954189497038</v>
+        <v>0.007011780136227973</v>
       </c>
       <c r="EV3">
-        <v>0.002396680225460721</v>
+        <v>0.002390957855245263</v>
       </c>
       <c r="EW3">
-        <v>0.0006436747531241062</v>
+        <v>0.0006350840856826194</v>
       </c>
       <c r="EX3">
-        <v>0.006407130533397933</v>
+        <v>0.006407970129859083</v>
       </c>
       <c r="EY3">
-        <v>0.02438030022449404</v>
+        <v>0.02441054782542604</v>
       </c>
       <c r="EZ3">
-        <v>0.02607801410085728</v>
+        <v>0.0261110395299701</v>
       </c>
       <c r="FA3">
-        <v>0.009091069337938922</v>
+        <v>0.009096300440501666</v>
       </c>
       <c r="FB3">
-        <v>0.01020945125649227</v>
+        <v>0.01021651227448041</v>
       </c>
       <c r="FC3">
-        <v>0.002767735798438437</v>
+        <v>0.002762620555632146</v>
       </c>
       <c r="FD3">
-        <v>0.001067475722260617</v>
+        <v>0.001059578485138285</v>
       </c>
       <c r="FE3">
-        <v>0.000180492776855535</v>
+        <v>0.0001711442432244426</v>
       </c>
       <c r="FF3">
-        <v>0.003190774267630477</v>
+        <v>0.003186351207528025</v>
       </c>
       <c r="FG3">
-        <v>0.0004500581372243205</v>
+        <v>0.000441150670998653</v>
       </c>
       <c r="FH3">
-        <v>0.006027541561041665</v>
+        <v>0.006027760067601145</v>
       </c>
       <c r="FI3">
-        <v>0.01220167711140756</v>
+        <v>0.01221199784306086</v>
       </c>
       <c r="FJ3">
-        <v>0.00841977038682656</v>
+        <v>0.008423903098682774</v>
       </c>
       <c r="FK3">
-        <v>0.0150775509019708</v>
+        <v>0.0150925771869986</v>
       </c>
       <c r="FL3">
-        <v>0.008299844395560224</v>
+        <v>0.008303780882479605</v>
       </c>
       <c r="FM3">
-        <v>0.0008057029913243293</v>
+        <v>0.0007973774372287516</v>
       </c>
       <c r="FN3">
-        <v>0.0003861825718760863</v>
+        <v>0.0003771705913692083</v>
       </c>
       <c r="FO3">
-        <v>0.001212056511731458</v>
+        <v>0.0012043958401441</v>
       </c>
       <c r="FP3">
-        <v>0.002403363224974028</v>
+        <v>0.002397651789595494</v>
       </c>
       <c r="FQ3">
-        <v>0.00179685806914303</v>
+        <v>0.001790154259762534</v>
       </c>
       <c r="FR3">
-        <v>0.00955754830396739</v>
+        <v>0.009563542667310193</v>
       </c>
       <c r="FS3">
-        <v>0.008368176390583916</v>
+        <v>0.008372224683470174</v>
       </c>
       <c r="FT3">
-        <v>0.004122464199779752</v>
+        <v>0.004119565586514503</v>
       </c>
       <c r="FU3">
-        <v>0.005544160996244065</v>
+        <v>0.005543588587341497</v>
       </c>
       <c r="FV3">
-        <v>0.0003043703378340978</v>
+        <v>0.0002952244947650881</v>
       </c>
       <c r="FW3">
-        <v>0.0001277060706997499</v>
+        <v>0.0001182711665665528</v>
       </c>
       <c r="FX3">
-        <v>1.745742572865538E-06</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001022784625515265</v>
+        <v>0.001014814264063976</v>
       </c>
       <c r="FZ3">
-        <v>0.000901468534350162</v>
+        <v>0.0008932996734570556</v>
       </c>
       <c r="GA3">
-        <v>0.001539682287871968</v>
+        <v>0.001532557683125079</v>
       </c>
       <c r="GB3">
-        <v>0.004063389004081929</v>
+        <v>0.004060393730981545</v>
       </c>
       <c r="GC3">
-        <v>0.002470007020120664</v>
+        <v>0.002464404628447793</v>
       </c>
       <c r="GD3">
-        <v>0.0006727020510101806</v>
+        <v>0.0006641588785248247</v>
       </c>
       <c r="GE3">
-        <v>0.0009737487890863211</v>
+        <v>0.0009656981943694635</v>
       </c>
       <c r="GF3">
-        <v>4.302763086649407E-05</v>
+        <v>3.345417443673485E-05</v>
       </c>
       <c r="GG3">
-        <v>8.254338398874217E-07</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.000254278921482027</v>
+        <v>0.0002450511179897112</v>
       </c>
       <c r="GI3">
-        <v>0.0003077204475901246</v>
+        <v>0.0002985800860274032</v>
       </c>
       <c r="GJ3">
-        <v>0.001751518472444906</v>
+        <v>0.001744740477648853</v>
       </c>
       <c r="GK3">
-        <v>0.0007258766071377205</v>
+        <v>0.0007174204397611579</v>
       </c>
       <c r="GL3">
-        <v>3.721572028974899E-05</v>
+        <v>2.763275431352898E-05</v>
       </c>
       <c r="GM3">
-        <v>0.002007486153803948</v>
+        <v>0.002001126977660765</v>
       </c>
       <c r="GN3">
-        <v>0.003792481423810892</v>
+        <v>0.003789042887142159</v>
       </c>
       <c r="GO3">
-        <v>0.01017634525890323</v>
+        <v>0.01018335210829775</v>
       </c>
       <c r="GP3">
-        <v>0.005476007301207388</v>
+        <v>0.0054753233780754</v>
       </c>
       <c r="GQ3">
-        <v>0.004820683648931618</v>
+        <v>0.004818927474147461</v>
       </c>
       <c r="GR3">
-        <v>0.001945289158333471</v>
+        <v>0.001938828214413523</v>
       </c>
       <c r="GS3">
-        <v>2.159207242754794E-05</v>
+        <v>1.198354277424261E-05</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.633727837090957E-05</v>
+        <v>1.94441956915066E-05</v>
       </c>
       <c r="C4">
-        <v>1.254334465290692E-05</v>
+        <v>5.633827217582478E-06</v>
       </c>
       <c r="D4">
-        <v>7.033934366130768E-05</v>
+        <v>6.349868715835824E-05</v>
       </c>
       <c r="E4">
-        <v>7.777983404860052E-06</v>
+        <v>8.627882889993417E-07</v>
       </c>
       <c r="F4">
-        <v>6.484043837507833E-07</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.045661254428822E-09</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.742978194829723E-05</v>
+        <v>3.054991541104626E-05</v>
       </c>
       <c r="I4">
-        <v>9.911905515935093E-06</v>
+        <v>2.999252857488483E-06</v>
       </c>
       <c r="J4">
-        <v>6.022174013466558E-05</v>
+        <v>5.336902903236328E-05</v>
       </c>
       <c r="K4">
-        <v>3.886716202311582E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.107007109674059E-05</v>
+        <v>1.417071281331425E-05</v>
       </c>
       <c r="M4">
-        <v>1.714085989221705E-07</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.011749304715694E-05</v>
+        <v>1.321699981643702E-05</v>
       </c>
       <c r="O4">
-        <v>2.383689924075969E-07</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.038471954054604E-05</v>
+        <v>3.472630215463903E-06</v>
       </c>
       <c r="Q4">
-        <v>6.91622186000359E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2.019873105138554E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>9.98547351976446E-06</v>
+        <v>3.072908513775176E-06</v>
       </c>
       <c r="T4">
-        <v>7.951225413877656E-05</v>
+        <v>7.268252668245505E-05</v>
       </c>
       <c r="U4">
-        <v>5.587663990849417E-05</v>
+        <v>4.901875184484557E-05</v>
       </c>
       <c r="V4">
-        <v>4.46211223226213E-05</v>
+        <v>3.774982389409236E-05</v>
       </c>
       <c r="W4">
-        <v>7.744599403122346E-05</v>
+        <v>7.061380473325243E-05</v>
       </c>
       <c r="X4">
-        <v>7.956405414147286E-06</v>
+        <v>1.041422878847973E-06</v>
       </c>
       <c r="Y4">
-        <v>4.175782017358053E-07</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>7.956405414147286E-06</v>
+        <v>1.041422878847973E-06</v>
       </c>
       <c r="AA4">
-        <v>1.03701545397879E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>4.9123666556988E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>3.479917881136892E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.271698470298643E-07</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.869102497290634E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.804333645971341E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>2.8435301480116E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.623573284510333E-05</v>
+        <v>9.33061469862184E-06</v>
       </c>
       <c r="AI4">
-        <v>6.787164353285881E-05</v>
+        <v>6.102804689331546E-05</v>
       </c>
       <c r="AJ4">
-        <v>7.567416993899638E-07</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>6.163687320832618E-07</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>2.515385430930991E-05</v>
+        <v>1.825936164157427E-05</v>
       </c>
       <c r="AM4">
-        <v>1.987570303457127E-07</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.347778310154636E-08</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>5.586876290808415E-09</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>4.005588808499146E-05</v>
+        <v>3.317915041686969E-05</v>
       </c>
       <c r="AQ4">
-        <v>1.17308616106155E-05</v>
+        <v>4.820376143925725E-06</v>
       </c>
       <c r="AR4">
-        <v>1.045661254428822E-09</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.555104680946401E-05</v>
+        <v>8.64511289511611E-06</v>
       </c>
       <c r="AT4">
-        <v>2.383689924075969E-07</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>5.242860272901673E-05</v>
+        <v>4.556660650807151E-05</v>
       </c>
       <c r="AV4">
-        <v>7.249146377332996E-06</v>
+        <v>3.333211796082344E-07</v>
       </c>
       <c r="AW4">
-        <v>3.339359173820521E-05</v>
+        <v>2.650891628985523E-05</v>
       </c>
       <c r="AX4">
-        <v>3.625857188733333E-05</v>
+        <v>2.937730991409737E-05</v>
       </c>
       <c r="AY4">
-        <v>1.086854956573038E-05</v>
+        <v>3.957036699005523E-06</v>
       </c>
       <c r="AZ4">
-        <v>2.988354155549988E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>3.277159470582898E-05</v>
+        <v>2.588617818030552E-05</v>
       </c>
       <c r="BB4">
-        <v>3.228784168064865E-05</v>
+        <v>2.540184878850942E-05</v>
       </c>
       <c r="BC4">
-        <v>1.307454368055692E-05</v>
+        <v>6.165659141297057E-06</v>
       </c>
       <c r="BD4">
-        <v>1.264188465803613E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1.193675962133292E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>3.463017180257175E-05</v>
+        <v>2.774696967517217E-05</v>
       </c>
       <c r="BG4">
-        <v>1.701977088591412E-06</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>4.363512427129807E-05</v>
+        <v>3.676265107727845E-05</v>
       </c>
       <c r="BI4">
-        <v>0.0001151315559928346</v>
+        <v>0.0001083442670855182</v>
       </c>
       <c r="BJ4">
-        <v>1.452740775618149E-07</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1.539257480121522E-05</v>
+        <v>8.486452075696463E-06</v>
       </c>
       <c r="BL4">
-        <v>5.47726188510276E-05</v>
+        <v>4.79134154036036E-05</v>
       </c>
       <c r="BM4">
-        <v>8.559557445542591E-06</v>
+        <v>1.645293534576421E-06</v>
       </c>
       <c r="BN4">
-        <v>2.14221611150676E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>2.664095638671664E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>5.537334288229652E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>8.380593936227172E-06</v>
+        <v>1.466116799530432E-06</v>
       </c>
       <c r="BR4">
-        <v>1.898315598811236E-05</v>
+        <v>1.208131125367499E-05</v>
       </c>
       <c r="BS4">
-        <v>3.479917881136892E-06</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>2.029860205658403E-05</v>
+        <v>1.339832460784669E-05</v>
       </c>
       <c r="BU4">
-        <v>3.313676772483699E-05</v>
+        <v>2.625178628400795E-05</v>
       </c>
       <c r="BV4">
-        <v>5.002066960367885E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>4.169618217037215E-05</v>
+        <v>3.482139882749826E-05</v>
       </c>
       <c r="BX4">
-        <v>4.11502971419577E-05</v>
+        <v>3.427486340541175E-05</v>
       </c>
       <c r="BY4">
-        <v>5.827949303356763E-05</v>
+        <v>5.142446784467492E-05</v>
       </c>
       <c r="BZ4">
-        <v>0.0001244122764759152</v>
+        <v>0.0001176360450652515</v>
       </c>
       <c r="CA4">
-        <v>7.230916376384087E-05</v>
+        <v>6.54708541992816E-05</v>
       </c>
       <c r="CB4">
-        <v>1.284553866863674E-05</v>
+        <v>5.936381281793825E-06</v>
       </c>
       <c r="CC4">
-        <v>1.880802597899648E-05</v>
+        <v>1.190597258624502E-05</v>
       </c>
       <c r="CD4">
-        <v>5.046669562689544E-05</v>
+        <v>4.360236189548922E-05</v>
       </c>
       <c r="CE4">
-        <v>8.130909423230579E-07</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>3.040049458240834E-05</v>
+        <v>2.351225301418202E-05</v>
       </c>
       <c r="CG4">
-        <v>1.165111160646435E-05</v>
+        <v>4.7405311217848E-06</v>
       </c>
       <c r="CH4">
-        <v>5.745685099074741E-05</v>
+        <v>5.060084566656764E-05</v>
       </c>
       <c r="CI4">
-        <v>5.120751266545648E-05</v>
+        <v>4.434406157909265E-05</v>
       </c>
       <c r="CJ4">
-        <v>3.499298882145713E-05</v>
+        <v>2.811021897170014E-05</v>
       </c>
       <c r="CK4">
-        <v>2.201588914597236E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>1.214617163223325E-06</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>4.980750259258307E-08</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.001314018068397346</v>
+        <v>0.001308659190530109</v>
       </c>
       <c r="CO4">
-        <v>0.1199079762414571</v>
+        <v>0.1200439159080211</v>
       </c>
       <c r="CP4">
-        <v>0.04155428516298611</v>
+        <v>0.04159687047431352</v>
       </c>
       <c r="CQ4">
-        <v>0.03669145890986599</v>
+        <v>0.03672825041616343</v>
       </c>
       <c r="CR4">
-        <v>0.001568974281668342</v>
+        <v>0.001563919170893323</v>
       </c>
       <c r="CS4">
-        <v>0.01062007155279659</v>
+        <v>0.01062580035453801</v>
       </c>
       <c r="CT4">
-        <v>0.003330236473345666</v>
+        <v>0.003327279815037194</v>
       </c>
       <c r="CU4">
-        <v>0.006502925338490654</v>
+        <v>0.006503748774256825</v>
       </c>
       <c r="CV4">
-        <v>0.01696711288317316</v>
+        <v>0.016980403855157</v>
       </c>
       <c r="CW4">
-        <v>0.1020845903137131</v>
+        <v>0.1021992943412343</v>
       </c>
       <c r="CX4">
-        <v>0.001411855173489969</v>
+        <v>0.001406612863454297</v>
       </c>
       <c r="CY4">
-        <v>0.01294877467401039</v>
+        <v>0.01295727800462755</v>
       </c>
       <c r="CZ4">
-        <v>0.0002993671355826759</v>
+        <v>0.0002927993538039647</v>
       </c>
       <c r="DA4">
-        <v>0.001969696102526738</v>
+        <v>0.001965118430998046</v>
       </c>
       <c r="DB4">
-        <v>0.0004659342742528385</v>
+        <v>0.0004595649485726229</v>
       </c>
       <c r="DC4">
-        <v>0.0003317504172682924</v>
+        <v>0.0003252212184885516</v>
       </c>
       <c r="DD4">
-        <v>0.0004600485839464761</v>
+        <v>0.0004536722457718125</v>
       </c>
       <c r="DE4">
-        <v>0.02185274613748044</v>
+        <v>0.02187185808785216</v>
       </c>
       <c r="DF4">
-        <v>0.02647526137809187</v>
+        <v>0.02649988081539777</v>
       </c>
       <c r="DG4">
-        <v>0.0007728094402263227</v>
+        <v>0.0007668057403751303</v>
       </c>
       <c r="DH4">
-        <v>0.0003557278985163697</v>
+        <v>0.0003492272676607599</v>
       </c>
       <c r="DI4">
-        <v>0.008301873432129608</v>
+        <v>0.008304840221158072</v>
       </c>
       <c r="DJ4">
-        <v>0.005952360909832642</v>
+        <v>0.005952528376664278</v>
       </c>
       <c r="DK4">
-        <v>0.001716764289361116</v>
+        <v>0.001711885262707837</v>
       </c>
       <c r="DL4">
-        <v>0.01296832567502806</v>
+        <v>0.01297685229964795</v>
       </c>
       <c r="DM4">
-        <v>0.01851186596358074</v>
+        <v>0.01852699742866499</v>
       </c>
       <c r="DN4">
-        <v>0.0004545618236608789</v>
+        <v>0.0004481789482961768</v>
       </c>
       <c r="DO4">
-        <v>0.006050922714962987</v>
+        <v>0.006051207613068661</v>
       </c>
       <c r="DP4">
-        <v>0.006415841933957784</v>
+        <v>0.006416561614368334</v>
       </c>
       <c r="DQ4">
-        <v>0.02659235438418681</v>
+        <v>0.02661711333173065</v>
       </c>
       <c r="DR4">
-        <v>0.001962081102130362</v>
+        <v>0.001957494357724026</v>
       </c>
       <c r="DS4">
-        <v>0.001920134699946965</v>
+        <v>0.00191549797858005</v>
       </c>
       <c r="DT4">
-        <v>0.0001167297160760221</v>
+        <v>0.0001099443312934773</v>
       </c>
       <c r="DU4">
-        <v>0.002581160634354726</v>
+        <v>0.002577311491071905</v>
       </c>
       <c r="DV4">
-        <v>0.005578870690391707</v>
+        <v>0.005578593163016393</v>
       </c>
       <c r="DW4">
-        <v>0.0009426979090693674</v>
+        <v>0.0009368966225091468</v>
       </c>
       <c r="DX4">
-        <v>0.002554298732956509</v>
+        <v>0.002550417585112692</v>
       </c>
       <c r="DY4">
-        <v>0.007026022665718949</v>
+        <v>0.007027469344794238</v>
       </c>
       <c r="DZ4">
-        <v>0.0153821618006732</v>
+        <v>0.01539356438572399</v>
       </c>
       <c r="EA4">
-        <v>0.0231826352067039</v>
+        <v>0.02320333165086123</v>
       </c>
       <c r="EB4">
-        <v>0.009644915502037714</v>
+        <v>0.009649482455969277</v>
       </c>
       <c r="EC4">
-        <v>0.01773827792331389</v>
+        <v>0.01775248769840851</v>
       </c>
       <c r="ED4">
-        <v>0.001560586381231735</v>
+        <v>0.001555521276708798</v>
       </c>
       <c r="EE4">
-        <v>0.0006271459326442373</v>
+        <v>0.0006209686822857917</v>
       </c>
       <c r="EF4">
-        <v>3.015547356965449E-05</v>
+        <v>2.326694007161159E-05</v>
       </c>
       <c r="EG4">
-        <v>0.0009498730494428482</v>
+        <v>0.0009440803116898896</v>
       </c>
       <c r="EH4">
-        <v>0.01232666464162828</v>
+        <v>0.01233442676043832</v>
       </c>
       <c r="EI4">
-        <v>0.02824592747025869</v>
+        <v>0.02827265656429037</v>
       </c>
       <c r="EJ4">
-        <v>0.01291260667212777</v>
+        <v>0.01292106691044833</v>
       </c>
       <c r="EK4">
-        <v>0.008635537449497507</v>
+        <v>0.008638901781880705</v>
       </c>
       <c r="EL4">
-        <v>0.02183989713681162</v>
+        <v>0.02185899377826609</v>
       </c>
       <c r="EM4">
-        <v>0.005354686878722478</v>
+        <v>0.005354142247973924</v>
       </c>
       <c r="EN4">
-        <v>0.001750223891102758</v>
+        <v>0.001745384729827919</v>
       </c>
       <c r="EO4">
-        <v>0.0004438212431018096</v>
+        <v>0.0004374255708929619</v>
       </c>
       <c r="EP4">
-        <v>0.02100231209321359</v>
+        <v>0.02102041079557133</v>
       </c>
       <c r="EQ4">
-        <v>0.03045459458522436</v>
+        <v>0.03048395519146193</v>
       </c>
       <c r="ER4">
-        <v>0.03089280960803436</v>
+        <v>0.03092269232472195</v>
       </c>
       <c r="ES4">
-        <v>0.02549769532720755</v>
+        <v>0.02552115004531355</v>
       </c>
       <c r="ET4">
-        <v>0.007167137173064248</v>
+        <v>0.007168751982749167</v>
       </c>
       <c r="EU4">
-        <v>0.003247546869041502</v>
+        <v>0.003244491690362282</v>
       </c>
       <c r="EV4">
-        <v>0.0006367406831436637</v>
+        <v>0.0006305748644323326</v>
       </c>
       <c r="EW4">
-        <v>0.000702510976567143</v>
+        <v>0.0006964235197460019</v>
       </c>
       <c r="EX4">
-        <v>0.005359343278964854</v>
+        <v>0.005358804196075454</v>
       </c>
       <c r="EY4">
-        <v>0.02053751306901985</v>
+        <v>0.02055505798747001</v>
       </c>
       <c r="EZ4">
-        <v>0.02552784032877666</v>
+        <v>0.02555133096308707</v>
       </c>
       <c r="FA4">
-        <v>0.008301873432129608</v>
+        <v>0.008304840221158072</v>
       </c>
       <c r="FB4">
-        <v>0.01121804258392222</v>
+        <v>0.01122448383710392</v>
       </c>
       <c r="FC4">
-        <v>0.004936485256954223</v>
+        <v>0.00493544236068401</v>
       </c>
       <c r="FD4">
-        <v>0.0004027807609655681</v>
+        <v>0.0003963361911528463</v>
       </c>
       <c r="FE4">
-        <v>4.61135724003064E-07</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.002364111523056873</v>
+        <v>0.002360003777025911</v>
       </c>
       <c r="FG4">
-        <v>0.0001400096072877884</v>
+        <v>0.0001332519592870613</v>
       </c>
       <c r="FH4">
-        <v>0.005115517266273207</v>
+        <v>0.005114687677347762</v>
       </c>
       <c r="FI4">
-        <v>0.01676361087258047</v>
+        <v>0.01677665938248337</v>
       </c>
       <c r="FJ4">
-        <v>0.009951349517988234</v>
+        <v>0.009956281572141469</v>
       </c>
       <c r="FK4">
-        <v>0.01085517356503414</v>
+        <v>0.01086118247861796</v>
       </c>
       <c r="FL4">
-        <v>0.00854140944459795</v>
+        <v>0.008544661628349907</v>
       </c>
       <c r="FM4">
-        <v>0.0003434773978787059</v>
+        <v>0.0003369621711875635</v>
       </c>
       <c r="FN4">
-        <v>1.798050593592236E-05</v>
+        <v>1.107746659599977E-05</v>
       </c>
       <c r="FO4">
-        <v>0.0003585328986623757</v>
+        <v>0.00035203560981882</v>
       </c>
       <c r="FP4">
-        <v>0.002971982154697791</v>
+        <v>0.002968598654967202</v>
       </c>
       <c r="FQ4">
-        <v>0.001981855103159639</v>
+        <v>0.001977291918448975</v>
       </c>
       <c r="FR4">
-        <v>0.008665119451037312</v>
+        <v>0.008668519028839614</v>
       </c>
       <c r="FS4">
-        <v>0.007125730070908923</v>
+        <v>0.007127295546181248</v>
       </c>
       <c r="FT4">
-        <v>0.002573625133962488</v>
+        <v>0.002569767012522151</v>
       </c>
       <c r="FU4">
-        <v>0.002381567923965515</v>
+        <v>0.002377480976329997</v>
       </c>
       <c r="FV4">
-        <v>1.165111160646435E-05</v>
+        <v>4.7405311217848E-06</v>
       </c>
       <c r="FW4">
-        <v>5.152664968206822E-05</v>
+        <v>4.466357883089188E-05</v>
       </c>
       <c r="FX4">
-        <v>0.0001551776580773166</v>
+        <v>0.0001484380820216653</v>
       </c>
       <c r="FY4">
-        <v>0.001394381272580416</v>
+        <v>0.001389118143298957</v>
       </c>
       <c r="FZ4">
-        <v>0.002027520105536596</v>
+        <v>0.002023011328305594</v>
       </c>
       <c r="GA4">
-        <v>0.002540492632237873</v>
+        <v>0.002536595035141784</v>
       </c>
       <c r="GB4">
-        <v>0.005541081788424718</v>
+        <v>0.005540759237534497</v>
       </c>
       <c r="GC4">
-        <v>0.002284377418906549</v>
+        <v>0.002280174673829838</v>
       </c>
       <c r="GD4">
-        <v>2.788279745135702E-05</v>
+        <v>2.099155617770374E-05</v>
       </c>
       <c r="GE4">
-        <v>5.339544277934275E-06</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0006207370623106423</v>
+        <v>0.0006145521761159068</v>
       </c>
       <c r="GG4">
-        <v>9.846814512546973E-05</v>
+        <v>9.166100262917553E-05</v>
       </c>
       <c r="GH4">
-        <v>0.0007110230870102158</v>
+        <v>0.0007049457719267668</v>
       </c>
       <c r="GI4">
-        <v>0.001831064095310657</v>
+        <v>0.001826321250942362</v>
       </c>
       <c r="GJ4">
-        <v>0.0009272022182627847</v>
+        <v>0.0009213824693914173</v>
       </c>
       <c r="GK4">
-        <v>0.0004169899517051857</v>
+        <v>0.0004105623114055688</v>
       </c>
       <c r="GL4">
-        <v>3.14499316370337E-05</v>
+        <v>2.456294041857709E-05</v>
       </c>
       <c r="GM4">
-        <v>0.002164281812655325</v>
+        <v>0.002159935979898455</v>
       </c>
       <c r="GN4">
-        <v>0.003332562173466723</v>
+        <v>0.003329608286109209</v>
       </c>
       <c r="GO4">
-        <v>0.008385158436464764</v>
+        <v>0.008388224455252205</v>
       </c>
       <c r="GP4">
-        <v>0.004920110856101902</v>
+        <v>0.004919048450583141</v>
       </c>
       <c r="GQ4">
-        <v>0.004699537744620617</v>
+        <v>0.004698212537690442</v>
       </c>
       <c r="GR4">
-        <v>0.001585732882540662</v>
+        <v>0.00158069773876857</v>
       </c>
       <c r="GS4">
-        <v>6.50882683879784E-05</v>
+        <v>5.824135550144711E-05</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.109265224674264E-05</v>
+        <v>1.89110042236805E-05</v>
       </c>
       <c r="C5">
-        <v>3.090996336158592E-05</v>
+        <v>2.873234483593606E-05</v>
       </c>
       <c r="D5">
-        <v>3.010594035218042E-05</v>
+        <v>2.79279918167552E-05</v>
       </c>
       <c r="E5">
-        <v>5.562805765073912E-05</v>
+        <v>5.346058462173389E-05</v>
       </c>
       <c r="F5">
-        <v>8.505199099494141E-07</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.940854022704183E-05</v>
+        <v>1.722620096327783E-05</v>
       </c>
       <c r="H5">
-        <v>6.526380076345841E-07</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.018939647013708E-05</v>
+        <v>3.801558667085446E-05</v>
       </c>
       <c r="J5">
-        <v>5.232677461212058E-05</v>
+        <v>5.015794657752312E-05</v>
       </c>
       <c r="K5">
-        <v>1.580178518484988E-05</v>
+        <v>1.361796553506783E-05</v>
       </c>
       <c r="L5">
-        <v>2.189406825611763E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.688047643142921E-06</v>
+        <v>1.499255931916914E-06</v>
       </c>
       <c r="N5">
-        <v>4.809199456258198E-07</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.419358828301751E-07</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3.615764042297344E-05</v>
+        <v>3.398217579678669E-05</v>
       </c>
       <c r="Q5">
-        <v>0.000107317567255405</v>
+        <v>0.0001051713100911878</v>
       </c>
       <c r="R5">
-        <v>1.919019622448764E-05</v>
+        <v>1.700776734182668E-05</v>
       </c>
       <c r="S5">
-        <v>3.479521040703569E-05</v>
+        <v>3.261918657393787E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001393514116301381</v>
+        <v>0.0001372183026988233</v>
       </c>
       <c r="U5">
-        <v>2.419358828301751E-07</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.622644242377829E-08</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>3.703827043327508E-05</v>
+        <v>3.486316726006728E-05</v>
       </c>
       <c r="X5">
-        <v>5.605227065570158E-06</v>
+        <v>3.417222257135678E-06</v>
       </c>
       <c r="Y5">
-        <v>1.176241413759717E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>6.011858070326943E-05</v>
+        <v>5.795295080124758E-05</v>
       </c>
       <c r="AA5">
-        <v>2.886388033765076E-05</v>
+        <v>2.668542200096163E-05</v>
       </c>
       <c r="AB5">
-        <v>1.084347912684743E-05</v>
+        <v>8.657624349401976E-06</v>
       </c>
       <c r="AC5">
-        <v>9.905963115880331E-06</v>
+        <v>7.719723536700883E-06</v>
       </c>
       <c r="AD5">
-        <v>1.397555016348651E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>2.938123234370276E-05</v>
+        <v>2.720298635319939E-05</v>
       </c>
       <c r="AF5">
-        <v>3.309903738719379E-05</v>
+        <v>3.092231736297863E-05</v>
       </c>
       <c r="AG5">
-        <v>2.588484130280185E-05</v>
+        <v>2.370516022498314E-05</v>
       </c>
       <c r="AH5">
-        <v>6.855593580196993E-05</v>
+        <v>6.639376899693452E-05</v>
       </c>
       <c r="AI5">
-        <v>8.608210100699166E-05</v>
+        <v>8.392712778444691E-05</v>
       </c>
       <c r="AJ5">
-        <v>1.380271116146463E-05</v>
+        <v>1.161807099540171E-05</v>
       </c>
       <c r="AK5">
-        <v>1.820119221291823E-05</v>
+        <v>1.601835739536749E-05</v>
       </c>
       <c r="AL5">
-        <v>1.946446722769607E-05</v>
+        <v>1.728215091906732E-05</v>
       </c>
       <c r="AM5">
-        <v>2.027730523720468E-08</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>3.338560039054602E-05</v>
+        <v>3.120899798559207E-05</v>
       </c>
       <c r="AO5">
-        <v>5.384189062984447E-05</v>
+        <v>5.167368447184859E-05</v>
       </c>
       <c r="AP5">
-        <v>4.754035055612881E-06</v>
+        <v>2.565680876972919E-06</v>
       </c>
       <c r="AQ5">
-        <v>4.063291847532541E-07</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>4.809199456258198E-07</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.360951327618498E-05</v>
+        <v>2.142889829413444E-05</v>
       </c>
       <c r="AT5">
-        <v>1.116146413056723E-05</v>
+        <v>8.97573986948564E-06</v>
       </c>
       <c r="AU5">
-        <v>2.41009902819343E-06</v>
+        <v>2.207827852930432E-07</v>
       </c>
       <c r="AV5">
-        <v>3.675342642994297E-07</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>2.738726732037729E-05</v>
+        <v>2.520820291057277E-05</v>
       </c>
       <c r="AX5">
-        <v>8.608210100699166E-05</v>
+        <v>8.392712778444691E-05</v>
       </c>
       <c r="AY5">
-        <v>8.959011104802849E-05</v>
+        <v>8.743657768179645E-05</v>
       </c>
       <c r="AZ5">
-        <v>0.0001206326614111654</v>
+        <v>0.0001184918694030197</v>
       </c>
       <c r="BA5">
-        <v>4.418780451691061E-05</v>
+        <v>4.201563585690628E-05</v>
       </c>
       <c r="BB5">
-        <v>5.04418705900709E-07</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.314551715377676E-05</v>
+        <v>1.096060724363397E-05</v>
       </c>
       <c r="BD5">
-        <v>1.296593115167595E-05</v>
+        <v>1.078094753078668E-05</v>
       </c>
       <c r="BE5">
-        <v>1.961504022945748E-06</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>5.384189062984447E-05</v>
+        <v>5.167368447184859E-05</v>
       </c>
       <c r="BG5">
-        <v>3.558347541625684E-05</v>
+        <v>3.3407775125092E-05</v>
       </c>
       <c r="BH5">
-        <v>0.0002256516526396816</v>
+        <v>0.0002235539654846312</v>
       </c>
       <c r="BI5">
-        <v>0.0001262677514770849</v>
+        <v>0.0001241292723813623</v>
       </c>
       <c r="BJ5">
-        <v>6.421719475121517E-05</v>
+        <v>6.205324711784173E-05</v>
       </c>
       <c r="BK5">
-        <v>5.834495468252148E-06</v>
+        <v>3.64658476261471E-06</v>
       </c>
       <c r="BL5">
-        <v>2.588484130280185E-05</v>
+        <v>2.370516022498314E-05</v>
       </c>
       <c r="BM5">
-        <v>3.150125436850286E-06</v>
+        <v>9.611129364374124E-07</v>
       </c>
       <c r="BN5">
-        <v>3.345893539140389E-05</v>
+        <v>3.128236308666708E-05</v>
       </c>
       <c r="BO5">
-        <v>0.0001536954417979351</v>
+        <v>0.0001515682203475983</v>
       </c>
       <c r="BP5">
-        <v>0.0001725451120184392</v>
+        <v>0.0001704256273808088</v>
       </c>
       <c r="BQ5">
-        <v>0.0002030115423748367</v>
+        <v>0.0002009045626278883</v>
       </c>
       <c r="BR5">
-        <v>7.098772083041703E-05</v>
+        <v>6.882655214710403E-05</v>
       </c>
       <c r="BS5">
-        <v>3.653375542737325E-05</v>
+        <v>3.435844517690296E-05</v>
       </c>
       <c r="BT5">
-        <v>3.593216042033577E-06</v>
+        <v>1.404385407350139E-06</v>
       </c>
       <c r="BU5">
-        <v>3.413788839934631E-06</v>
+        <v>1.224884559683878E-06</v>
       </c>
       <c r="BV5">
-        <v>2.294962326846556E-06</v>
+        <v>1.055988262974399E-07</v>
       </c>
       <c r="BW5">
-        <v>1.779449020816062E-05</v>
+        <v>1.5611488460515E-05</v>
       </c>
       <c r="BX5">
-        <v>1.697551619858023E-06</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.675292331295671E-06</v>
+        <v>4.86084936502073E-07</v>
       </c>
       <c r="BZ5">
-        <v>3.874452445323491E-06</v>
+        <v>1.685737243608005E-06</v>
       </c>
       <c r="CA5">
-        <v>1.036942412130191E-05</v>
+        <v>8.183374768845466E-06</v>
       </c>
       <c r="CB5">
-        <v>1.509804817661754E-05</v>
+        <v>1.291393967926609E-05</v>
       </c>
       <c r="CC5">
-        <v>3.026244535401123E-06</v>
+        <v>8.371811882985617E-07</v>
       </c>
       <c r="CD5">
-        <v>1.140209913338219E-06</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>4.646283754352402E-06</v>
+        <v>2.457885349387683E-06</v>
       </c>
       <c r="CF5">
-        <v>4.026985347107826E-05</v>
+        <v>3.80960766952247E-05</v>
       </c>
       <c r="CG5">
-        <v>1.19387801396603E-05</v>
+        <v>9.753374926514602E-06</v>
       </c>
       <c r="CH5">
-        <v>1.77980872082027E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>5.403356363208667E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>2.027730523720468E-08</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>3.413788839934631E-06</v>
+        <v>1.224884559683878E-06</v>
       </c>
       <c r="CL5">
-        <v>6.060327070893935E-05</v>
+        <v>5.843783974704487E-05</v>
       </c>
       <c r="CM5">
-        <v>0.002661621731135752</v>
+        <v>0.002660523883449257</v>
       </c>
       <c r="CN5">
-        <v>0.05825555768147572</v>
+        <v>0.058277278263238</v>
       </c>
       <c r="CO5">
-        <v>0.08221638096177034</v>
+        <v>0.08224793621967508</v>
       </c>
       <c r="CP5">
-        <v>0.01584562518536272</v>
+        <v>0.01584993868780876</v>
       </c>
       <c r="CQ5">
-        <v>0.001201978914060795</v>
+        <v>0.001200281958646587</v>
       </c>
       <c r="CR5">
-        <v>0.005126946059975209</v>
+        <v>0.005126860100155698</v>
       </c>
       <c r="CS5">
-        <v>0.001000014111698203</v>
+        <v>0.0009982342601998254</v>
       </c>
       <c r="CT5">
-        <v>0.004891469057220589</v>
+        <v>0.00489128644629548</v>
       </c>
       <c r="CU5">
-        <v>0.1132336713246118</v>
+        <v>0.1132779575726819</v>
       </c>
       <c r="CV5">
-        <v>0.01127851713193652</v>
+        <v>0.01128095607322547</v>
       </c>
       <c r="CW5">
-        <v>0.0005692934566596163</v>
+        <v>0.0005673368166552422</v>
       </c>
       <c r="CX5">
-        <v>0.0125585081469099</v>
+        <v>0.01256147245817259</v>
       </c>
       <c r="CY5">
-        <v>0.002556057629900859</v>
+        <v>0.002554916453621862</v>
       </c>
       <c r="CZ5">
-        <v>0.0004227012749447755</v>
+        <v>0.0004206844664472192</v>
       </c>
       <c r="DA5">
-        <v>0.000105601041235325</v>
+        <v>0.0001034540795261387</v>
       </c>
       <c r="DB5">
-        <v>0.0006924140080998853</v>
+        <v>0.0006905079027009265</v>
       </c>
       <c r="DC5">
-        <v>0.003141325436747344</v>
+        <v>0.003140424482570468</v>
       </c>
       <c r="DD5">
-        <v>0.03744897043807947</v>
+        <v>0.03746215099411831</v>
       </c>
       <c r="DE5">
-        <v>0.01307313515293003</v>
+        <v>0.01307631069190719</v>
       </c>
       <c r="DF5">
-        <v>0.003129680636611122</v>
+        <v>0.003128774902847304</v>
       </c>
       <c r="DG5">
-        <v>0.0037097076433963</v>
+        <v>0.003709039980657792</v>
       </c>
       <c r="DH5">
-        <v>0.007112173483198475</v>
+        <v>0.007112902356348104</v>
       </c>
       <c r="DI5">
-        <v>0.004423820051750014</v>
+        <v>0.004423445495144935</v>
       </c>
       <c r="DJ5">
-        <v>0.003621087242359615</v>
+        <v>0.003620383205539398</v>
       </c>
       <c r="DK5">
-        <v>0.02144653025088232</v>
+        <v>0.02145314263458046</v>
       </c>
       <c r="DL5">
-        <v>0.01566031218319492</v>
+        <v>0.01566454962425776</v>
       </c>
       <c r="DM5">
-        <v>0.005959961069719849</v>
+        <v>0.005960217019389291</v>
       </c>
       <c r="DN5">
-        <v>0.002559622529942561</v>
+        <v>0.002558482816870274</v>
       </c>
       <c r="DO5">
-        <v>0.01780695520830643</v>
+        <v>0.01781207373507732</v>
       </c>
       <c r="DP5">
-        <v>0.02383440527881577</v>
+        <v>0.02384199776145683</v>
       </c>
       <c r="DQ5">
-        <v>2.520785529488244E-06</v>
+        <v>3.315147176601062E-07</v>
       </c>
       <c r="DR5">
-        <v>0.002303961726951831</v>
+        <v>0.002302717078370012</v>
       </c>
       <c r="DS5">
-        <v>8.76286110250828E-06</v>
+        <v>6.576152339195725E-06</v>
       </c>
       <c r="DT5">
-        <v>0.003137118936698136</v>
+        <v>0.003136216255971</v>
       </c>
       <c r="DU5">
-        <v>0.003530793141303351</v>
+        <v>0.00353005204343431</v>
       </c>
       <c r="DV5">
-        <v>0.00181891702127776</v>
+        <v>0.001817473286982603</v>
       </c>
       <c r="DW5">
-        <v>0.002421604528328021</v>
+        <v>0.002420408166019111</v>
       </c>
       <c r="DX5">
-        <v>0.01431389916744453</v>
+        <v>0.01431758397574476</v>
       </c>
       <c r="DY5">
-        <v>0.02113097224719091</v>
+        <v>0.02113745511068292</v>
       </c>
       <c r="DZ5">
-        <v>0.01656297619375432</v>
+        <v>0.01656758413161126</v>
       </c>
       <c r="EA5">
-        <v>0.01143055013371501</v>
+        <v>0.0114330514766718</v>
       </c>
       <c r="EB5">
-        <v>0.01068711212501824</v>
+        <v>0.01068930832520251</v>
       </c>
       <c r="EC5">
-        <v>0.0002803512632795597</v>
+        <v>0.0002782760274797682</v>
       </c>
       <c r="ED5">
-        <v>8.121173695001797E-05</v>
+        <v>7.905476469544347E-05</v>
       </c>
       <c r="EE5">
-        <v>4.079945047727351E-05</v>
+        <v>3.862589107354364E-05</v>
       </c>
       <c r="EF5">
-        <v>0.004114080048126664</v>
+        <v>0.004113578359302948</v>
       </c>
       <c r="EG5">
-        <v>0.01070946112527968</v>
+        <v>0.01071166649857028</v>
       </c>
       <c r="EH5">
-        <v>0.02989527634971607</v>
+        <v>0.02990535650581585</v>
       </c>
       <c r="EI5">
-        <v>0.008762565102504817</v>
+        <v>0.008763971375879566</v>
       </c>
       <c r="EJ5">
-        <v>0.01872026021899031</v>
+        <v>0.01872575361013436</v>
       </c>
       <c r="EK5">
-        <v>0.01490554417436562</v>
+        <v>0.01490947182227808</v>
       </c>
       <c r="EL5">
-        <v>0.002046461023939578</v>
+        <v>0.002045110684664624</v>
       </c>
       <c r="EM5">
-        <v>0.0006706985078458565</v>
+        <v>0.0006687834893594895</v>
       </c>
       <c r="EN5">
-        <v>0.004449598552051572</v>
+        <v>0.004449234576184849</v>
       </c>
       <c r="EO5">
-        <v>0.02492406229156262</v>
+        <v>0.02493210202193391</v>
       </c>
       <c r="EP5">
-        <v>0.03508887441047098</v>
+        <v>0.03510108626940684</v>
       </c>
       <c r="EQ5">
-        <v>0.03057001735760922</v>
+        <v>0.03058037445992303</v>
       </c>
       <c r="ER5">
-        <v>0.0198657422323902</v>
+        <v>0.01987170578453402</v>
       </c>
       <c r="ES5">
-        <v>0.00650087747604751</v>
+        <v>0.006501355443867753</v>
       </c>
       <c r="ET5">
-        <v>0.002720533631824905</v>
+        <v>0.002719459964420425</v>
       </c>
       <c r="EU5">
-        <v>0.0001165564013634812</v>
+        <v>0.0001144139362618456</v>
       </c>
       <c r="EV5">
-        <v>0.00224977302631793</v>
+        <v>0.00224850613608293</v>
       </c>
       <c r="EW5">
-        <v>0.01266593814816662</v>
+        <v>0.01266894655387707</v>
       </c>
       <c r="EX5">
-        <v>0.02614483030584321</v>
+        <v>0.0261533710982158</v>
       </c>
       <c r="EY5">
-        <v>0.02495818829196183</v>
+        <v>0.02496624202928764</v>
       </c>
       <c r="EZ5">
-        <v>0.007383033086366999</v>
+        <v>0.007383873133345927</v>
       </c>
       <c r="FA5">
-        <v>0.01551851818153621</v>
+        <v>0.01552269742351011</v>
       </c>
       <c r="FB5">
-        <v>0.0006050673570781009</v>
+        <v>0.0006031254004057999</v>
       </c>
       <c r="FC5">
-        <v>0.000731811108560754</v>
+        <v>0.0007299211736297067</v>
       </c>
       <c r="FD5">
-        <v>0.0005229463061174457</v>
+        <v>0.0005209706430098011</v>
       </c>
       <c r="FE5">
-        <v>0.002452001028683601</v>
+        <v>0.002450817142562731</v>
       </c>
       <c r="FF5">
-        <v>0.0001612629118864596</v>
+        <v>0.000159138796490396</v>
       </c>
       <c r="FG5">
-        <v>0.01283644215016119</v>
+        <v>0.01283952053892776</v>
       </c>
       <c r="FH5">
-        <v>0.01107539412956038</v>
+        <v>0.01107774969938408</v>
       </c>
       <c r="FI5">
-        <v>0.01094229612800339</v>
+        <v>0.01094459706799551</v>
       </c>
       <c r="FJ5">
-        <v>0.01418233866590553</v>
+        <v>0.01418596947543824</v>
       </c>
       <c r="FK5">
-        <v>0.006797613679518742</v>
+        <v>0.006798213442171605</v>
       </c>
       <c r="FL5">
-        <v>0.0002789602132632871</v>
+        <v>0.0002768844065095577</v>
       </c>
       <c r="FM5">
-        <v>2.189406825611763E-06</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0009534763611538025</v>
+        <v>0.0009516774083207318</v>
       </c>
       <c r="FO5">
-        <v>0.002043639523906573</v>
+        <v>0.002042288026552084</v>
       </c>
       <c r="FP5">
-        <v>0.002536528529672406</v>
+        <v>0.002535379337709898</v>
       </c>
       <c r="FQ5">
-        <v>0.01112883913018558</v>
+        <v>0.01113121663641215</v>
       </c>
       <c r="FR5">
-        <v>0.005400597663176396</v>
+        <v>0.005400624023157496</v>
       </c>
       <c r="FS5">
-        <v>0.002462711428808891</v>
+        <v>0.002461531938752187</v>
       </c>
       <c r="FT5">
-        <v>0.002514582029415676</v>
+        <v>0.00251342382955223</v>
       </c>
       <c r="FU5">
-        <v>0.0003266917838216529</v>
+        <v>0.0003246355684038605</v>
       </c>
       <c r="FV5">
-        <v>7.123953383336276E-06</v>
+        <v>4.936571933344432E-06</v>
       </c>
       <c r="FW5">
-        <v>2.43221302845212E-05</v>
+        <v>2.214180779481988E-05</v>
       </c>
       <c r="FX5">
-        <v>0.00233199542727977</v>
+        <v>0.002330762285079037</v>
       </c>
       <c r="FY5">
-        <v>0.001473146817232927</v>
+        <v>0.001471561162189192</v>
       </c>
       <c r="FZ5">
-        <v>0.002620593930655807</v>
+        <v>0.002619479243183557</v>
       </c>
       <c r="GA5">
-        <v>0.004273811049995203</v>
+        <v>0.004273374922469399</v>
       </c>
       <c r="GB5">
-        <v>0.0004683360754786131</v>
+        <v>0.0004663379977015678</v>
       </c>
       <c r="GC5">
-        <v>0.0001374894816083571</v>
+        <v>0.0001353556084512664</v>
       </c>
       <c r="GD5">
-        <v>4.906964057401851E-05</v>
+        <v>4.689947565470541E-05</v>
       </c>
       <c r="GE5">
-        <v>0.0005056812059154778</v>
+        <v>0.0005036984563789961</v>
       </c>
       <c r="GF5">
-        <v>5.803895467894188E-06</v>
+        <v>3.615972202542505E-06</v>
       </c>
       <c r="GG5">
-        <v>0.001793825020984233</v>
+        <v>0.001792370987723395</v>
       </c>
       <c r="GH5">
-        <v>0.001679447019646235</v>
+        <v>0.0016779460401437</v>
       </c>
       <c r="GI5">
-        <v>0.0008666814601384725</v>
+        <v>0.0008648468824968417</v>
       </c>
       <c r="GJ5">
-        <v>0.0003855054445096572</v>
+        <v>0.0003834733690514503</v>
       </c>
       <c r="GK5">
-        <v>0.0004889862657201798</v>
+        <v>0.0004869966637759942</v>
       </c>
       <c r="GL5">
-        <v>0.002481322529026604</v>
+        <v>0.002480150677861984</v>
       </c>
       <c r="GM5">
-        <v>0.005244334061348417</v>
+        <v>0.005244296283219619</v>
       </c>
       <c r="GN5">
-        <v>0.008419488098491489</v>
+        <v>0.008420753556536691</v>
       </c>
       <c r="GO5">
-        <v>0.00480803805624461</v>
+        <v>0.004807821201217566</v>
       </c>
       <c r="GP5">
-        <v>0.003972595646471574</v>
+        <v>0.00397203588563367</v>
       </c>
       <c r="GQ5">
-        <v>0.0006366733074478284</v>
+        <v>0.0006347443233801172</v>
       </c>
       <c r="GR5">
-        <v>8.947008104662439E-05</v>
+        <v>8.731649841429755E-05</v>
       </c>
       <c r="GS5">
-        <v>1.855780321708988E-05</v>
+        <v>1.637511476987432E-05</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>9.604078504586718E-05</v>
+        <v>8.647000883636804E-05</v>
       </c>
       <c r="C6">
-        <v>5.863370197546051E-05</v>
+        <v>4.899547017797314E-05</v>
       </c>
       <c r="D6">
-        <v>4.440241770956189E-05</v>
+        <v>3.473852286729292E-05</v>
       </c>
       <c r="E6">
-        <v>9.411897514500113E-07</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3.505943119150709E-09</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.456820424851907E-05</v>
+        <v>4.850509851567014E-06</v>
       </c>
       <c r="H6">
-        <v>4.017101792783287E-05</v>
+        <v>3.049949267076379E-05</v>
       </c>
       <c r="I6">
-        <v>9.726425498275616E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.824753399538046E-05</v>
+        <v>4.860860582741936E-05</v>
       </c>
       <c r="K6">
-        <v>5.37554632270978E-05</v>
+        <v>4.410843458056184E-05</v>
       </c>
       <c r="L6">
-        <v>4.842984050181278E-05</v>
+        <v>3.877320824593735E-05</v>
       </c>
       <c r="M6">
-        <v>3.482633320353113E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.512659821971508E-05</v>
+        <v>5.409910765581454E-06</v>
       </c>
       <c r="O6">
-        <v>7.25298362586474E-05</v>
+        <v>6.29166631353975E-05</v>
       </c>
       <c r="P6">
-        <v>7.700473602781579E-05</v>
+        <v>6.739963241895571E-05</v>
       </c>
       <c r="Q6">
-        <v>0.0001348284530450583</v>
+        <v>0.0001253276220100239</v>
       </c>
       <c r="R6">
-        <v>3.3330745280679E-05</v>
+        <v>2.364688507055984E-05</v>
       </c>
       <c r="S6">
-        <v>4.495595368100849E-05</v>
+        <v>3.529305702120557E-05</v>
       </c>
       <c r="T6">
-        <v>2.654500563071211E-05</v>
+        <v>1.684890880601486E-05</v>
       </c>
       <c r="U6">
-        <v>8.558852558503272E-05</v>
+        <v>7.59989009850721E-05</v>
       </c>
       <c r="V6">
-        <v>3.866844800534089E-05</v>
+        <v>2.899421318822875E-05</v>
       </c>
       <c r="W6">
-        <v>2.002980496678985E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.914777101228836E-05</v>
+        <v>9.438334874024916E-06</v>
       </c>
       <c r="Y6">
-        <v>1.524571821357043E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.292326233337115E-05</v>
+        <v>3.202601639263984E-06</v>
       </c>
       <c r="AA6">
-        <v>3.505943119150709E-09</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>8.564967558187838E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>4.770069753942462E-07</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.515500767074055E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>4.195392983586379E-05</v>
+        <v>3.228561967500686E-05</v>
       </c>
       <c r="AF6">
-        <v>8.564967558187838E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>3.209458834444447E-05</v>
+        <v>2.240849899251219E-05</v>
       </c>
       <c r="AH6">
-        <v>2.011638496232374E-05</v>
+        <v>1.040869550993286E-05</v>
       </c>
       <c r="AI6">
-        <v>3.599504914324452E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.615880716646999E-08</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>2.497739471157518E-07</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>4.39291277339759E-05</v>
+        <v>3.426437941554758E-05</v>
       </c>
       <c r="AM6">
-        <v>3.472677820866654E-05</v>
+        <v>2.504543544215108E-05</v>
       </c>
       <c r="AN6">
-        <v>2.575733967134279E-05</v>
+        <v>1.60598224613584E-05</v>
       </c>
       <c r="AO6">
-        <v>4.044537291368064E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>4.215263582561381E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.240753435997428E-05</v>
+        <v>2.685943661952557E-06</v>
       </c>
       <c r="AR6">
-        <v>2.575733967134279E-05</v>
+        <v>1.60598224613584E-05</v>
       </c>
       <c r="AS6">
-        <v>0.006965877140674735</v>
+        <v>0.006968694629272727</v>
       </c>
       <c r="AT6">
-        <v>0.02176747687715442</v>
+        <v>0.02179698585119947</v>
       </c>
       <c r="AU6">
-        <v>0.02215269285728358</v>
+        <v>0.02218289648507624</v>
       </c>
       <c r="AV6">
-        <v>0.0104986184584431</v>
+        <v>0.01050780648233121</v>
       </c>
       <c r="AW6">
-        <v>0.009571806006251451</v>
+        <v>0.009579322724232075</v>
       </c>
       <c r="AX6">
-        <v>0.005685725406709615</v>
+        <v>0.005686234418387172</v>
       </c>
       <c r="AY6">
-        <v>0.0002672581362138538</v>
+        <v>0.0002579961134849479</v>
       </c>
       <c r="AZ6">
-        <v>0.01099652743275914</v>
+        <v>0.01100661332784891</v>
       </c>
       <c r="BA6">
-        <v>0.03008422644814624</v>
+        <v>0.03012873288220191</v>
       </c>
       <c r="BB6">
-        <v>0.05055930239196739</v>
+        <v>0.05064073119936863</v>
       </c>
       <c r="BC6">
-        <v>0.00813429958040326</v>
+        <v>0.00813922406629217</v>
       </c>
       <c r="BD6">
-        <v>0.002953146247665981</v>
+        <v>0.002948727643534768</v>
       </c>
       <c r="BE6">
-        <v>0.002598352565967529</v>
+        <v>0.002593294168127503</v>
       </c>
       <c r="BF6">
-        <v>0.002108341391244087</v>
+        <v>0.002102399364176688</v>
       </c>
       <c r="BG6">
-        <v>1.903455001812872E-06</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0001536045620765183</v>
+        <v>0.0001441375896952706</v>
       </c>
       <c r="BI6">
-        <v>2.081316692638119E-05</v>
+        <v>1.110673396963839E-05</v>
       </c>
       <c r="BJ6">
-        <v>0.03240975232818716</v>
+        <v>0.03245845234545606</v>
       </c>
       <c r="BK6">
-        <v>0.01773305708526445</v>
+        <v>0.01775529085533968</v>
       </c>
       <c r="BL6">
-        <v>0.0002662437162661813</v>
+        <v>0.000256979864250188</v>
       </c>
       <c r="BM6">
-        <v>0.0005901129695598279</v>
+        <v>0.0005814331457309861</v>
       </c>
       <c r="BN6">
-        <v>0.01383250228646925</v>
+        <v>0.01384770224915196</v>
       </c>
       <c r="BO6">
-        <v>0.003476241420682831</v>
+        <v>0.003472766105618109</v>
       </c>
       <c r="BP6">
-        <v>0.005222551230601823</v>
+        <v>0.005222225007777628</v>
       </c>
       <c r="BQ6">
-        <v>0.0133248423126562</v>
+        <v>0.01333912682031754</v>
       </c>
       <c r="BR6">
-        <v>0.0103022634685718</v>
+        <v>0.01031109740868195</v>
       </c>
       <c r="BS6">
-        <v>2.14795718920056E-05</v>
+        <v>1.177434065256083E-05</v>
       </c>
       <c r="BT6">
-        <v>0.005764740202633745</v>
+        <v>0.005765391700415038</v>
       </c>
       <c r="BU6">
-        <v>0.01555071019783784</v>
+        <v>0.01556900857706186</v>
       </c>
       <c r="BV6">
-        <v>0.0132304673175244</v>
+        <v>0.01324458164028317</v>
       </c>
       <c r="BW6">
-        <v>0.001046248546030697</v>
+        <v>0.001038391264110704</v>
       </c>
       <c r="BX6">
-        <v>0.0003380924625599618</v>
+        <v>0.0003289581742262888</v>
       </c>
       <c r="BY6">
-        <v>4.049181791128484E-05</v>
+        <v>3.082087114763824E-05</v>
       </c>
       <c r="BZ6">
-        <v>0.002587220766541748</v>
+        <v>0.00258214229490783</v>
       </c>
       <c r="CA6">
-        <v>0.008020797586258104</v>
+        <v>0.008025517395836422</v>
       </c>
       <c r="CB6">
-        <v>0.00745452021546875</v>
+        <v>0.007458218866221635</v>
       </c>
       <c r="CC6">
-        <v>6.682805655276591E-05</v>
+        <v>5.720460150237629E-05</v>
       </c>
       <c r="CD6">
-        <v>0.004461069769881805</v>
+        <v>0.004459370379853464</v>
       </c>
       <c r="CE6">
-        <v>0.0129522803318743</v>
+        <v>0.01296589300454042</v>
       </c>
       <c r="CF6">
-        <v>0.01680271613325482</v>
+        <v>0.0168232722345359</v>
       </c>
       <c r="CG6">
-        <v>0.01494880822888613</v>
+        <v>0.01496602120802294</v>
       </c>
       <c r="CH6">
-        <v>0.01015151947634772</v>
+        <v>0.01016008158225438</v>
       </c>
       <c r="CI6">
-        <v>0.002806021255255223</v>
+        <v>0.002801337343004365</v>
       </c>
       <c r="CJ6">
-        <v>0.001971430298306459</v>
+        <v>0.001965241381679164</v>
       </c>
       <c r="CK6">
-        <v>1.803127906988108E-06</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.003025589343929103</v>
+        <v>0.003021301375261899</v>
       </c>
       <c r="CM6">
-        <v>0.008682876552105664</v>
+        <v>0.008688790277976569</v>
       </c>
       <c r="CN6">
-        <v>0.02229602284989009</v>
+        <v>0.02232648494234063</v>
       </c>
       <c r="CO6">
-        <v>0.01364081279635729</v>
+        <v>0.01365566708848231</v>
       </c>
       <c r="CP6">
-        <v>0.0108632844396323</v>
+        <v>0.01087313005978725</v>
       </c>
       <c r="CQ6">
-        <v>0.01773426808520199</v>
+        <v>0.01775650403905382</v>
       </c>
       <c r="CR6">
-        <v>0.005870538697176274</v>
+        <v>0.005871380979671901</v>
       </c>
       <c r="CS6">
-        <v>0.003568393015929317</v>
+        <v>0.003565083876346113</v>
       </c>
       <c r="CT6">
-        <v>0.00322411263368855</v>
+        <v>0.003220182658859435</v>
       </c>
       <c r="CU6">
-        <v>0.02074598792984653</v>
+        <v>0.02077365486939147</v>
       </c>
       <c r="CV6">
-        <v>0.03971704795125029</v>
+        <v>0.03977892509654946</v>
       </c>
       <c r="CW6">
-        <v>0.03306527829437275</v>
+        <v>0.03311516041101592</v>
       </c>
       <c r="CX6">
-        <v>0.02531819269399558</v>
+        <v>0.02535410461645427</v>
       </c>
       <c r="CY6">
-        <v>0.006546554662304913</v>
+        <v>0.006548615993458553</v>
       </c>
       <c r="CZ6">
-        <v>0.002908939849946308</v>
+        <v>0.002904441529132952</v>
       </c>
       <c r="DA6">
-        <v>0.0002625407564571934</v>
+        <v>0.0002532702269536574</v>
       </c>
       <c r="DB6">
-        <v>0.000708695963442886</v>
+        <v>0.0007002299784092995</v>
       </c>
       <c r="DC6">
-        <v>0.008579014557463243</v>
+        <v>0.008584740990678769</v>
       </c>
       <c r="DD6">
-        <v>0.0217919208758935</v>
+        <v>0.0218214739294062</v>
       </c>
       <c r="DE6">
-        <v>0.02375348577470886</v>
+        <v>0.02378657608648298</v>
       </c>
       <c r="DF6">
-        <v>0.01277485834102637</v>
+        <v>0.0127881510714855</v>
       </c>
       <c r="DG6">
-        <v>0.01256744735172538</v>
+        <v>0.01258036606130157</v>
       </c>
       <c r="DH6">
-        <v>0.004236420381470036</v>
+        <v>0.004234315884832395</v>
       </c>
       <c r="DI6">
-        <v>0.002280946682340479</v>
+        <v>0.002275315911603301</v>
       </c>
       <c r="DJ6">
-        <v>3.274527831087951E-07</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0008729830549683605</v>
+        <v>0.0008648133261902235</v>
       </c>
       <c r="DL6">
-        <v>0.0005994842190764248</v>
+        <v>0.0005908212942702931</v>
       </c>
       <c r="DM6">
-        <v>0.008221470575906661</v>
+        <v>0.008226552255842115</v>
       </c>
       <c r="DN6">
-        <v>0.009058329532738434</v>
+        <v>0.009064920306897836</v>
       </c>
       <c r="DO6">
-        <v>0.01415716226972211</v>
+        <v>0.01417294768650252</v>
       </c>
       <c r="DP6">
-        <v>0.0120678543774962</v>
+        <v>0.01207987217914092</v>
       </c>
       <c r="DQ6">
-        <v>0.006873842645422209</v>
+        <v>0.006876494169703208</v>
       </c>
       <c r="DR6">
-        <v>0.0007652028205280569</v>
+        <v>0.0007568387333960757</v>
       </c>
       <c r="DS6">
-        <v>0.000105932704535606</v>
+        <v>9.637976626455979E-05</v>
       </c>
       <c r="DT6">
-        <v>0.0009209956524916963</v>
+        <v>0.000912912504054258</v>
       </c>
       <c r="DU6">
-        <v>0.002659324162822393</v>
+        <v>0.002654375714076999</v>
       </c>
       <c r="DV6">
-        <v>0.003017623244340024</v>
+        <v>0.00301332091053425</v>
       </c>
       <c r="DW6">
-        <v>0.01349371230394527</v>
+        <v>0.01350830133213109</v>
       </c>
       <c r="DX6">
-        <v>0.008717636550312617</v>
+        <v>0.008723612958326183</v>
       </c>
       <c r="DY6">
-        <v>0.004005195793397441</v>
+        <v>0.004002674333199278</v>
       </c>
       <c r="DZ6">
-        <v>0.003013075844574595</v>
+        <v>0.003008765310516361</v>
       </c>
       <c r="EA6">
-        <v>0.0001142819841049198</v>
+        <v>0.0001047441019547041</v>
       </c>
       <c r="EB6">
-        <v>7.192458628986838E-05</v>
+        <v>6.231032172913733E-05</v>
       </c>
       <c r="EC6">
-        <v>0.0001463637624500251</v>
+        <v>0.0001368837328519024</v>
       </c>
       <c r="ED6">
-        <v>0.0006682625655285876</v>
+        <v>0.0006597236676023935</v>
       </c>
       <c r="EE6">
-        <v>0.002450657373586184</v>
+        <v>0.002445332639394126</v>
       </c>
       <c r="EF6">
-        <v>0.002850059952983547</v>
+        <v>0.002845455455004149</v>
       </c>
       <c r="EG6">
-        <v>0.004737637755615422</v>
+        <v>0.004736437096163355</v>
       </c>
       <c r="EH6">
-        <v>0.002000955296783452</v>
+        <v>0.00199481962210846</v>
       </c>
       <c r="EI6">
-        <v>1.708762811855802E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>5.926953294266204E-05</v>
+        <v>4.963244772887575E-05</v>
       </c>
       <c r="EK6">
-        <v>0.0002242753684310612</v>
+        <v>0.00021493583557209</v>
       </c>
       <c r="EL6">
-        <v>5.126130135575574E-06</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.001089928243777539</v>
+        <v>0.001082149728750146</v>
       </c>
       <c r="EN6">
-        <v>0.0005793795301134978</v>
+        <v>0.0005706803508468736</v>
       </c>
       <c r="EO6">
-        <v>0.001364364729621108</v>
+        <v>0.001357081101470704</v>
       </c>
       <c r="EP6">
-        <v>0.0006736251652519653</v>
+        <v>0.0006650959376151334</v>
       </c>
       <c r="EQ6">
-        <v>0.0001034837646619312</v>
+        <v>9.39264102572128E-05</v>
       </c>
       <c r="ER6">
-        <v>0.001617914816542072</v>
+        <v>0.001611088411163236</v>
       </c>
       <c r="ES6">
-        <v>0.003679310010207815</v>
+        <v>0.003676200885446747</v>
       </c>
       <c r="ET6">
-        <v>0.007544162610844669</v>
+        <v>0.007548022912279522</v>
       </c>
       <c r="EU6">
-        <v>0.0059901109910083</v>
+        <v>0.005991168896287783</v>
       </c>
       <c r="EV6">
-        <v>0.003934755797030993</v>
+        <v>0.003932107313526472</v>
       </c>
       <c r="EW6">
-        <v>0.001567515819141836</v>
+        <v>0.001560598530065994</v>
       </c>
       <c r="EX6">
-        <v>0.0005375267722724152</v>
+        <v>0.0005287521206043801</v>
       </c>
       <c r="EY6">
-        <v>8.558852558503272E-05</v>
+        <v>7.59989009850721E-05</v>
       </c>
       <c r="EZ6">
-        <v>0.0003350539327167002</v>
+        <v>0.0003259141650512972</v>
       </c>
       <c r="FA6">
-        <v>0.002442465074008773</v>
+        <v>0.002437125566775365</v>
       </c>
       <c r="FB6">
-        <v>0.004412803772371541</v>
+        <v>0.004411017345050403</v>
       </c>
       <c r="FC6">
-        <v>0.008813700545357288</v>
+        <v>0.008819850184019658</v>
       </c>
       <c r="FD6">
-        <v>0.009003242035580047</v>
+        <v>0.009009733471346648</v>
       </c>
       <c r="FE6">
-        <v>0.004422435771874687</v>
+        <v>0.004420666713782493</v>
       </c>
       <c r="FF6">
-        <v>0.001107082642892653</v>
+        <v>0.001099335062115779</v>
       </c>
       <c r="FG6">
-        <v>9.984338484971526E-05</v>
+        <v>9.02794658069503E-05</v>
       </c>
       <c r="FH6">
-        <v>3.551691616790835E-05</v>
+        <v>2.583699824439742E-05</v>
       </c>
       <c r="FI6">
-        <v>0.0005921264194559668</v>
+        <v>0.0005834502264487631</v>
       </c>
       <c r="FJ6">
-        <v>0.002591434766324374</v>
+        <v>0.00258636389372812</v>
       </c>
       <c r="FK6">
-        <v>0.004456148770135648</v>
+        <v>0.004454440506148043</v>
       </c>
       <c r="FL6">
-        <v>0.007315746622627195</v>
+        <v>0.007319195025204226</v>
       </c>
       <c r="FM6">
-        <v>0.005624136709886584</v>
+        <v>0.005624534659663116</v>
       </c>
       <c r="FN6">
-        <v>0.003239931832872538</v>
+        <v>0.003236030384549498</v>
       </c>
       <c r="FO6">
-        <v>0.001421884126654048</v>
+        <v>0.001414704222302164</v>
       </c>
       <c r="FP6">
-        <v>0.0001191035198562075</v>
+        <v>0.0001095743323034427</v>
       </c>
       <c r="FQ6">
-        <v>0.0005377955722585493</v>
+        <v>0.0005290214053131825</v>
       </c>
       <c r="FR6">
-        <v>0.0002092085892082604</v>
+        <v>0.0001998418866699627</v>
       </c>
       <c r="FS6">
-        <v>0.001868029803640232</v>
+        <v>0.001861654426573003</v>
       </c>
       <c r="FT6">
-        <v>0.001624216516217008</v>
+        <v>0.00161740147459129</v>
       </c>
       <c r="FU6">
-        <v>0.002128886190184311</v>
+        <v>0.00212298121122061</v>
       </c>
       <c r="FV6">
-        <v>0.003342739127569364</v>
+        <v>0.003339023069978346</v>
       </c>
       <c r="FW6">
-        <v>0.003870811600329467</v>
+        <v>0.003868047807289079</v>
       </c>
       <c r="FX6">
-        <v>0.003797739804098775</v>
+        <v>0.003794844241869895</v>
       </c>
       <c r="FY6">
-        <v>0.001942124399818164</v>
+        <v>0.001935882636338033</v>
       </c>
       <c r="FZ6">
-        <v>0.0009038358533768611</v>
+        <v>0.0008957217609511714</v>
       </c>
       <c r="GA6">
-        <v>8.616409055534299E-05</v>
+        <v>7.657550386238583E-05</v>
       </c>
       <c r="GB6">
-        <v>0.0009260290022320578</v>
+        <v>0.0009179549303528116</v>
       </c>
       <c r="GC6">
-        <v>0.002464451672874624</v>
+        <v>0.002459151813719404</v>
       </c>
       <c r="GD6">
-        <v>0.00710130663368879</v>
+        <v>0.007104368340101493</v>
       </c>
       <c r="GE6">
-        <v>0.01091080843718084</v>
+        <v>0.01092073975659205</v>
       </c>
       <c r="GF6">
-        <v>0.01132335641590011</v>
+        <v>0.01133403167641001</v>
       </c>
       <c r="GG6">
-        <v>0.00818666457770208</v>
+        <v>0.008191683492543822</v>
       </c>
       <c r="GH6">
-        <v>0.004396919773190895</v>
+        <v>0.004395104702510896</v>
       </c>
       <c r="GI6">
-        <v>0.0007427146616880779</v>
+        <v>0.0007343100220229181</v>
       </c>
       <c r="GJ6">
-        <v>0.0006030377688931198</v>
+        <v>0.0005943812521459078</v>
       </c>
       <c r="GK6">
-        <v>0.00527655212781626</v>
+        <v>0.005276323283936759</v>
       </c>
       <c r="GL6">
-        <v>0.01145052040934053</v>
+        <v>0.01146142498262342</v>
       </c>
       <c r="GM6">
-        <v>0.01038438046433591</v>
+        <v>0.0103933624846966</v>
       </c>
       <c r="GN6">
-        <v>0.006649135257013433</v>
+        <v>0.006651381570094673</v>
       </c>
       <c r="GO6">
-        <v>0.002888875350981308</v>
+        <v>0.002884340848181433</v>
       </c>
       <c r="GP6">
-        <v>0.002021381295729805</v>
+        <v>0.002015282454928403</v>
       </c>
       <c r="GQ6">
-        <v>0.001070874444760404</v>
+        <v>0.001063061570325363</v>
       </c>
       <c r="GR6">
-        <v>0.0001152934580527443</v>
+        <v>0.0001057573998771421</v>
       </c>
       <c r="GS6">
-        <v>0.001177351939267907</v>
+        <v>0.001169731073976857</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.15649711217361E-06</v>
+        <v>2.279852922075923E-06</v>
       </c>
       <c r="C2">
-        <v>4.395839688632876E-06</v>
+        <v>2.279852922075923E-06</v>
       </c>
       <c r="D2">
-        <v>4.397318581472788E-06</v>
+        <v>2.279852922075923E-06</v>
       </c>
       <c r="E2">
-        <v>6.274767532140507E-06</v>
+        <v>2.279852922075923E-06</v>
       </c>
       <c r="F2">
-        <v>1.020468783819937E-05</v>
+        <v>4.333049030917139E-06</v>
       </c>
       <c r="G2">
-        <v>1.719791702692938E-05</v>
+        <v>9.450635715324045E-06</v>
       </c>
       <c r="H2">
-        <v>2.29143828812027E-05</v>
+        <v>1.329100822408266E-05</v>
       </c>
       <c r="I2">
-        <v>4.690794352872976E-05</v>
+        <v>3.541492939814246E-05</v>
       </c>
       <c r="J2">
-        <v>8.492889455482149E-05</v>
+        <v>7.157119419873588E-05</v>
       </c>
       <c r="K2">
-        <v>9.390871979716483E-05</v>
+        <v>7.86760784288086E-05</v>
       </c>
       <c r="L2">
-        <v>0.0001054080041075022</v>
+        <v>8.830131137956014E-05</v>
       </c>
       <c r="M2">
-        <v>0.0001385579920021386</v>
+        <v>0.0001195848930503531</v>
       </c>
       <c r="N2">
-        <v>0.0001844157492397264</v>
+        <v>0.0001635807313372816</v>
       </c>
       <c r="O2">
-        <v>0.0002079970918761287</v>
+        <v>0.0001852922889408523</v>
       </c>
       <c r="P2">
-        <v>0.0002102153231359933</v>
+        <v>0.0001856331915845686</v>
       </c>
       <c r="Q2">
-        <v>0.00022497497753432</v>
+        <v>0.0001985199459009942</v>
       </c>
       <c r="R2">
-        <v>0.0002771410049421525</v>
+        <v>0.0002488262818877052</v>
       </c>
       <c r="S2">
-        <v>0.0002841342341308825</v>
+        <v>0.0002539438685721121</v>
       </c>
       <c r="T2">
-        <v>0.000284334013456274</v>
+        <v>0.0002539438685721121</v>
       </c>
       <c r="U2">
-        <v>0.0002882382835616407</v>
+        <v>0.0002559714054228526</v>
       </c>
       <c r="V2">
-        <v>0.0002903956756198634</v>
+        <v>0.0002562514473818398</v>
       </c>
       <c r="W2">
-        <v>0.0003001989688844301</v>
+        <v>0.0002641800904110515</v>
       </c>
       <c r="X2">
-        <v>0.0003100022621489968</v>
+        <v>0.0002721087334402632</v>
       </c>
       <c r="Y2">
-        <v>0.0003124590432152993</v>
+        <v>0.0002726882701253544</v>
       </c>
       <c r="Z2">
-        <v>0.0003167627117314447</v>
+        <v>0.0002751153464194759</v>
       </c>
       <c r="AA2">
-        <v>0.0003268324230032014</v>
+        <v>0.0002833105015314267</v>
       </c>
       <c r="AB2">
-        <v>0.0003460582415220589</v>
+        <v>0.0003006649970271061</v>
       </c>
       <c r="AC2">
-        <v>0.0003584870038574805</v>
+        <v>0.0003112200362133229</v>
       </c>
       <c r="AD2">
-        <v>0.0003634575884916243</v>
+        <v>0.0003143142641219121</v>
       </c>
       <c r="AE2">
-        <v>0.0003639590390051572</v>
+        <v>0.0003143142641219121</v>
       </c>
       <c r="AF2">
-        <v>0.0003675077294009277</v>
+        <v>0.0003159860957033887</v>
       </c>
       <c r="AG2">
-        <v>0.0003815194527790695</v>
+        <v>0.0003281246548957793</v>
       </c>
       <c r="AH2">
-        <v>0.0003940936521184162</v>
+        <v>0.0003388251824415563</v>
       </c>
       <c r="AI2">
-        <v>0.0004036741723769708</v>
+        <v>0.0003465309738008057</v>
       </c>
       <c r="AJ2">
-        <v>0.0004039718220650036</v>
+        <v>0.0003465309738008057</v>
       </c>
       <c r="AK2">
-        <v>0.0004054486499048596</v>
+        <v>0.0003465309738008057</v>
       </c>
       <c r="AL2">
-        <v>0.0004054486643701469</v>
+        <v>0.0003465309738008057</v>
       </c>
       <c r="AM2">
-        <v>0.00041182579754225</v>
+        <v>0.0003510322469173334</v>
       </c>
       <c r="AN2">
-        <v>0.0004201055897657012</v>
+        <v>0.0003574368509380505</v>
       </c>
       <c r="AO2">
-        <v>0.0004206070402792341</v>
+        <v>0.0003574368509380505</v>
       </c>
       <c r="AP2">
-        <v>0.0004232647175509582</v>
+        <v>0.0003582173547675402</v>
       </c>
       <c r="AQ2">
-        <v>0.0004257863940190121</v>
+        <v>0.0003588618097697654</v>
       </c>
       <c r="AR2">
-        <v>0.0004400672594044174</v>
+        <v>0.0003712696060068472</v>
       </c>
       <c r="AS2">
-        <v>0.0004422246514626401</v>
+        <v>0.0003715496479658344</v>
       </c>
       <c r="AT2">
-        <v>0.0004428632617798747</v>
+        <v>0.0003715496479658344</v>
       </c>
       <c r="AU2">
-        <v>0.0004558402441300915</v>
+        <v>0.0003826531007502286</v>
       </c>
       <c r="AV2">
-        <v>0.0004656841573957544</v>
+        <v>0.0003906223781239699</v>
       </c>
       <c r="AW2">
-        <v>0.0004662358865706442</v>
+        <v>0.0003906223781239699</v>
       </c>
       <c r="AX2">
-        <v>0.0004705664836875164</v>
+        <v>0.0003930763925276457</v>
       </c>
       <c r="AY2">
-        <v>0.000500397576492584</v>
+        <v>0.0004210399071652712</v>
       </c>
       <c r="AZ2">
-        <v>0.0005546182779558671</v>
+        <v>0.0004734016427386839</v>
       </c>
       <c r="BA2">
-        <v>0.0006037767042825318</v>
+        <v>0.000520699315622458</v>
       </c>
       <c r="BB2">
-        <v>0.0006672847419964572</v>
+        <v>0.0005823516669217525</v>
       </c>
       <c r="BC2">
-        <v>0.0006948523477404389</v>
+        <v>0.0006080508952325422</v>
       </c>
       <c r="BD2">
-        <v>0.0007096120021387656</v>
+        <v>0.0006209376495489678</v>
       </c>
       <c r="BE2">
-        <v>0.0007481558931789702</v>
+        <v>0.0006576170390203703</v>
       </c>
       <c r="BF2">
-        <v>0.0008032095806647335</v>
+        <v>0.0007108120547541045</v>
       </c>
       <c r="BG2">
-        <v>0.0008469927258463327</v>
+        <v>0.0007527325484134343</v>
       </c>
       <c r="BH2">
-        <v>0.0008513233229632048</v>
+        <v>0.0007551865628171101</v>
       </c>
       <c r="BI2">
-        <v>0.0008525702125968552</v>
+        <v>0.0007551865628171101</v>
       </c>
       <c r="BJ2">
-        <v>0.0008584590504557805</v>
+        <v>0.0007591993681972434</v>
       </c>
       <c r="BK2">
-        <v>0.0008803665370470096</v>
+        <v>0.0007792364786960188</v>
       </c>
       <c r="BL2">
-        <v>0.0009624767032629605</v>
+        <v>0.000859497527142877</v>
       </c>
       <c r="BM2">
-        <v>0.001027461575016742</v>
+        <v>0.0009226272339707016</v>
       </c>
       <c r="BN2">
-        <v>0.001048975250597343</v>
+        <v>0.0009422703943992282</v>
       </c>
       <c r="BO2">
-        <v>0.001061404012932765</v>
+        <v>0.0009528254335854449</v>
       </c>
       <c r="BP2">
-        <v>0.001069126059141164</v>
+        <v>0.0009586720946439769</v>
       </c>
       <c r="BQ2">
-        <v>0.001069423708829197</v>
+        <v>0.0009586720946439769</v>
       </c>
       <c r="BR2">
-        <v>0.001077822284055853</v>
+        <v>0.0009651955236116721</v>
       </c>
       <c r="BS2">
-        <v>0.001084815513244584</v>
+        <v>0.000970313110296079</v>
       </c>
       <c r="BT2">
-        <v>0.001107448905855403</v>
+        <v>0.0009910763831409903</v>
       </c>
       <c r="BU2">
-        <v>0.001208248878575746</v>
+        <v>0.001090033837697984</v>
       </c>
       <c r="BV2">
-        <v>0.001311038561349786</v>
+        <v>0.00119098170490032</v>
       </c>
       <c r="BW2">
-        <v>0.001360196987676451</v>
+        <v>0.001238279377784094</v>
       </c>
       <c r="BX2">
-        <v>0.001410148712024525</v>
+        <v>0.001286370628812786</v>
       </c>
       <c r="BY2">
-        <v>0.001426576560467872</v>
+        <v>0.00130092616623453</v>
       </c>
       <c r="BZ2">
-        <v>0.001430733057580045</v>
+        <v>0.001303206019156606</v>
       </c>
       <c r="CA2">
-        <v>0.001434889554692219</v>
+        <v>0.001305485872078682</v>
       </c>
       <c r="CB2">
-        <v>0.001436366382532075</v>
+        <v>0.001305485872078682</v>
       </c>
       <c r="CC2">
-        <v>0.001441984924683706</v>
+        <v>0.001309228286306707</v>
       </c>
       <c r="CD2">
-        <v>0.00144224596369075</v>
+        <v>0.001309228286306707</v>
       </c>
       <c r="CE2">
-        <v>0.001443972176137337</v>
+        <v>0.001309228286306707</v>
       </c>
       <c r="CF2">
-        <v>0.001450857051623142</v>
+        <v>0.001314237481027134</v>
       </c>
       <c r="CG2">
-        <v>0.001452583264069729</v>
+        <v>0.001314237481027134</v>
       </c>
       <c r="CH2">
-        <v>0.0014539087446055</v>
+        <v>0.001314237481027134</v>
       </c>
       <c r="CI2">
-        <v>0.001472822075115924</v>
+        <v>0.001331279378170934</v>
       </c>
       <c r="CJ2">
-        <v>0.001483385834401014</v>
+        <v>0.001339968755750785</v>
       </c>
       <c r="CK2">
-        <v>0.001495960033740361</v>
+        <v>0.001350669283296562</v>
       </c>
       <c r="CL2">
-        <v>0.001508937016090578</v>
+        <v>0.001361772736080957</v>
       </c>
       <c r="CM2">
-        <v>0.001510606695735638</v>
+        <v>0.001361772736080957</v>
       </c>
       <c r="CN2">
-        <v>0.01035785493450106</v>
+        <v>0.01021026693757221</v>
       </c>
       <c r="CO2">
-        <v>0.06601875643665157</v>
+        <v>0.0658889448922038</v>
       </c>
       <c r="CP2">
-        <v>0.1513795487403289</v>
+        <v>0.1512780010533478</v>
       </c>
       <c r="CQ2">
-        <v>0.1765951064208347</v>
+        <v>0.1765005845525119</v>
       </c>
       <c r="CR2">
-        <v>0.1800550986142113</v>
+        <v>0.1799599204007478</v>
       </c>
       <c r="CS2">
-        <v>0.1977033230904934</v>
+        <v>0.1976124985751574</v>
       </c>
       <c r="CT2">
-        <v>0.1977173348138716</v>
+        <v>0.1976246371343498</v>
       </c>
       <c r="CU2">
-        <v>0.2013688260124163</v>
+        <v>0.201275539608461</v>
       </c>
       <c r="CV2">
-        <v>0.2450995331926003</v>
+        <v>0.2450198105394617</v>
       </c>
       <c r="CW2">
-        <v>0.2913275704401811</v>
+        <v>0.2912622933765156</v>
       </c>
       <c r="CX2">
-        <v>0.2930535649867614</v>
+        <v>0.2929870192815771</v>
       </c>
       <c r="CY2">
-        <v>0.3222610687749999</v>
+        <v>0.3222029584948524</v>
       </c>
       <c r="CZ2">
-        <v>0.323176381899702</v>
+        <v>0.3231167167162294</v>
       </c>
       <c r="DA2">
-        <v>0.3237079567140479</v>
+        <v>0.3236466011244265</v>
       </c>
       <c r="DB2">
-        <v>0.3237079819173756</v>
+        <v>0.3236466011244265</v>
       </c>
       <c r="DC2">
-        <v>0.3240917739677332</v>
+        <v>0.3240286505846826</v>
       </c>
       <c r="DD2">
-        <v>0.3242556366421555</v>
+        <v>0.3241906930091746</v>
       </c>
       <c r="DE2">
-        <v>0.3454740432147879</v>
+        <v>0.345414713956136</v>
       </c>
       <c r="DF2">
-        <v>0.3653240477504906</v>
+        <v>0.3652698496661976</v>
       </c>
       <c r="DG2">
-        <v>0.3669366323940103</v>
+        <v>0.3668811256217354</v>
       </c>
       <c r="DH2">
-        <v>0.3670252488304018</v>
+        <v>0.3669678952378037</v>
       </c>
       <c r="DI2">
-        <v>0.3710350409386162</v>
+        <v>0.3709772251421422</v>
       </c>
       <c r="DJ2">
-        <v>0.3758037935673131</v>
+        <v>0.3757457835654687</v>
       </c>
       <c r="DK2">
-        <v>0.3785257990407733</v>
+        <v>0.3784668721013955</v>
       </c>
       <c r="DL2">
-        <v>0.3945442474730718</v>
+        <v>0.3944890987374022</v>
       </c>
       <c r="DM2">
-        <v>0.4098191658853041</v>
+        <v>0.4097675328035412</v>
       </c>
       <c r="DN2">
-        <v>0.4106387115574217</v>
+        <v>0.4105854897556416</v>
       </c>
       <c r="DO2">
-        <v>0.4133644516309827</v>
+        <v>0.4133103142104035</v>
       </c>
       <c r="DP2">
-        <v>0.4289738460522418</v>
+        <v>0.4289233423932547</v>
       </c>
       <c r="DQ2">
-        <v>0.4577352858284421</v>
+        <v>0.4576930600836789</v>
       </c>
       <c r="DR2">
-        <v>0.4587788537566055</v>
+        <v>0.4587351183969015</v>
       </c>
       <c r="DS2">
-        <v>0.4595819169382782</v>
+        <v>0.4595365870383825</v>
       </c>
       <c r="DT2">
-        <v>0.4596104604410485</v>
+        <v>0.4595632625083211</v>
       </c>
       <c r="DU2">
-        <v>0.4614002381893502</v>
+        <v>0.4613517941377547</v>
       </c>
       <c r="DV2">
-        <v>0.465669201304559</v>
+        <v>0.4656203865656299</v>
       </c>
       <c r="DW2">
-        <v>0.4678488479633823</v>
+        <v>0.4677989247732009</v>
       </c>
       <c r="DX2">
-        <v>0.4701376843251523</v>
+        <v>0.4700866912399761</v>
       </c>
       <c r="DY2">
-        <v>0.4811473676222766</v>
+        <v>0.4810983840828428</v>
       </c>
       <c r="DZ2">
-        <v>0.5008547351541298</v>
+        <v>0.5008108324221349</v>
       </c>
       <c r="EA2">
-        <v>0.5242694197860345</v>
+        <v>0.5242319069617744</v>
       </c>
       <c r="EB2">
-        <v>0.5394817271965772</v>
+        <v>0.5394477079174915</v>
       </c>
       <c r="EC2">
-        <v>0.5487620104470291</v>
+        <v>0.5487293900407784</v>
       </c>
       <c r="ED2">
-        <v>0.548823072808677</v>
+        <v>0.5487885958524127</v>
       </c>
       <c r="EE2">
-        <v>0.5488604020596844</v>
+        <v>0.5488240601729466</v>
       </c>
       <c r="EF2">
-        <v>0.5488629237361525</v>
+        <v>0.5488247046279489</v>
       </c>
       <c r="EG2">
-        <v>0.5500223968674438</v>
+        <v>0.5499827090718843</v>
       </c>
       <c r="EH2">
-        <v>0.5591366251134143</v>
+        <v>0.5590982775545791</v>
       </c>
       <c r="EI2">
-        <v>0.5834633487699327</v>
+        <v>0.5834317131712827</v>
       </c>
       <c r="EJ2">
-        <v>0.5996302562062377</v>
+        <v>0.5996024512340375</v>
       </c>
       <c r="EK2">
-        <v>0.6193793267392164</v>
+        <v>0.6193566173003093</v>
       </c>
       <c r="EL2">
-        <v>0.6388876242656972</v>
+        <v>0.6388699253401064</v>
       </c>
       <c r="EM2">
-        <v>0.641223878628747</v>
+        <v>0.641205126552054</v>
       </c>
       <c r="EN2">
-        <v>0.6416663518606882</v>
+        <v>0.6416458779149571</v>
       </c>
       <c r="EO2">
-        <v>0.6459251233756219</v>
+        <v>0.645904275143775</v>
       </c>
       <c r="EP2">
-        <v>0.6688040339930673</v>
+        <v>0.6687893864804122</v>
       </c>
       <c r="EQ2">
-        <v>0.6996738048261664</v>
+        <v>0.6996681797059483</v>
       </c>
       <c r="ER2">
-        <v>0.7295761336331565</v>
+        <v>0.7295791892894283</v>
       </c>
       <c r="ES2">
-        <v>0.7540148652926977</v>
+        <v>0.7540246724605895</v>
       </c>
       <c r="ET2">
-        <v>0.762705038527224</v>
+        <v>0.762716036192682</v>
       </c>
       <c r="EU2">
-        <v>0.7671028178459093</v>
+        <v>0.7671134903106552</v>
       </c>
       <c r="EV2">
-        <v>0.7678836819669829</v>
+        <v>0.7678927520527696</v>
       </c>
       <c r="EW2">
-        <v>0.76993378202231</v>
+        <v>0.7699416979123095</v>
       </c>
       <c r="EX2">
-        <v>0.7808271253162945</v>
+        <v>0.7808370096709181</v>
       </c>
       <c r="EY2">
-        <v>0.8092978490846492</v>
+        <v>0.8093159086980178</v>
       </c>
       <c r="EZ2">
-        <v>0.8348119627732122</v>
+        <v>0.8348371536291207</v>
       </c>
       <c r="FA2">
-        <v>0.8419871253668522</v>
+        <v>0.8420129717510149</v>
       </c>
       <c r="FB2">
-        <v>0.8545104127048249</v>
+        <v>0.8545388031073539</v>
       </c>
       <c r="FC2">
-        <v>0.8560619726466976</v>
+        <v>0.856089032812655</v>
       </c>
       <c r="FD2">
-        <v>0.8565932487110354</v>
+        <v>0.8566186183653517</v>
       </c>
       <c r="FE2">
-        <v>0.8567468196751798</v>
+        <v>0.8567703654454336</v>
       </c>
       <c r="FF2">
-        <v>0.8597940201574162</v>
+        <v>0.8598167638205843</v>
       </c>
       <c r="FG2">
-        <v>0.8599670228720852</v>
+        <v>0.8599879495127861</v>
       </c>
       <c r="FH2">
-        <v>0.8690744211178714</v>
+        <v>0.8690966855835376</v>
       </c>
       <c r="FI2">
-        <v>0.8816023114559682</v>
+        <v>0.881627121565378</v>
       </c>
       <c r="FJ2">
-        <v>0.8921238557399188</v>
+        <v>0.892150503027046</v>
       </c>
       <c r="FK2">
-        <v>0.9082816681759783</v>
+        <v>0.9083121428779963</v>
       </c>
       <c r="FL2">
-        <v>0.916518309398265</v>
+        <v>0.9165498144499915</v>
       </c>
       <c r="FM2">
-        <v>0.9169527948799906</v>
+        <v>0.9169825752421039</v>
       </c>
       <c r="FN2">
-        <v>0.9170272935620011</v>
+        <v>0.9170552221186345</v>
       </c>
       <c r="FO2">
-        <v>0.9183209049969124</v>
+        <v>0.9183474122321122</v>
       </c>
       <c r="FP2">
-        <v>0.9213549626787941</v>
+        <v>0.9213806631660201</v>
       </c>
       <c r="FQ2">
-        <v>0.9233229857319062</v>
+        <v>0.9233475030409231</v>
       </c>
       <c r="FR2">
-        <v>0.934884949043935</v>
+        <v>0.9349116709157138</v>
       </c>
       <c r="FS2">
-        <v>0.9430260887636444</v>
+        <v>0.9430538072623499</v>
       </c>
       <c r="FT2">
-        <v>0.9472693202781587</v>
+        <v>0.9472966590033788</v>
       </c>
       <c r="FU2">
-        <v>0.9520517014072234</v>
+        <v>0.952078850739468</v>
       </c>
       <c r="FV2">
-        <v>0.9520525850010172</v>
+        <v>0.952078850739468</v>
       </c>
       <c r="FW2">
-        <v>0.9521989117049662</v>
+        <v>0.9522233510013151</v>
       </c>
       <c r="FX2">
-        <v>0.9522386896860396</v>
+        <v>0.9522612649165925</v>
       </c>
       <c r="FY2">
-        <v>0.954208537539201</v>
+        <v>0.9542299302359045</v>
       </c>
       <c r="FZ2">
-        <v>0.9557528481808781</v>
+        <v>0.955772908081191</v>
       </c>
       <c r="GA2">
-        <v>0.9582942198494635</v>
+        <v>0.9583132990281745</v>
       </c>
       <c r="GB2">
-        <v>0.963748347696657</v>
+        <v>0.9637674746846073</v>
       </c>
       <c r="GC2">
-        <v>0.9653204608390844</v>
+        <v>0.9653382648480567</v>
       </c>
       <c r="GD2">
-        <v>0.9653518505299316</v>
+        <v>0.965367787511097</v>
       </c>
       <c r="GE2">
-        <v>0.9653810692957201</v>
+        <v>0.9653951384824977</v>
       </c>
       <c r="GF2">
-        <v>0.9659260698104283</v>
+        <v>0.9659384533318408</v>
       </c>
       <c r="GG2">
-        <v>0.9660858256147397</v>
+        <v>0.9660963874360345</v>
       </c>
       <c r="GH2">
-        <v>0.966821695674599</v>
+        <v>0.9668306392289657</v>
       </c>
       <c r="GI2">
-        <v>0.9677549956997864</v>
+        <v>0.9677623907022289</v>
       </c>
       <c r="GJ2">
-        <v>0.9690571937349295</v>
+        <v>0.9690631704479749</v>
       </c>
       <c r="GK2">
-        <v>0.9696779675516827</v>
+        <v>0.9696822853558689</v>
       </c>
       <c r="GL2">
-        <v>0.9699073950178744</v>
+        <v>0.969909915723883</v>
       </c>
       <c r="GM2">
-        <v>0.9725499397891901</v>
+        <v>0.972551515499092</v>
       </c>
       <c r="GN2">
-        <v>0.977291493917153</v>
+        <v>0.9772928658175518</v>
       </c>
       <c r="GO2">
-        <v>0.987371406189185</v>
+        <v>0.9873744593214833</v>
       </c>
       <c r="GP2">
-        <v>0.9941837623730336</v>
+        <v>0.9941873429220798</v>
       </c>
       <c r="GQ2">
-        <v>0.998933079501206</v>
+        <v>0.998936458981962</v>
       </c>
       <c r="GR2">
-        <v>0.999856542226128</v>
+        <v>0.9998583696812853</v>
       </c>
       <c r="GS2">
         <v>0.9999999999999996</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>8.573558375626885E-05</v>
+        <v>7.62320068019227E-05</v>
       </c>
       <c r="C3">
-        <v>0.0003916333814791287</v>
+        <v>0.0003729864607114973</v>
       </c>
       <c r="D3">
-        <v>0.0006761257607608474</v>
+        <v>0.0006483004722719594</v>
       </c>
       <c r="E3">
-        <v>0.0008716019465252092</v>
+        <v>0.0008344526405125015</v>
       </c>
       <c r="F3">
-        <v>0.0008865840274341326</v>
+        <v>0.000839815376388113</v>
       </c>
       <c r="G3">
-        <v>0.0008875543442634689</v>
+        <v>0.000839815376388113</v>
       </c>
       <c r="H3">
-        <v>0.0008880609848265726</v>
+        <v>0.000839815376388113</v>
       </c>
       <c r="I3">
-        <v>0.0008906736884363013</v>
+        <v>0.000839815376388113</v>
       </c>
       <c r="J3">
-        <v>0.0009072852112265599</v>
+        <v>0.0008468102202654466</v>
       </c>
       <c r="K3">
-        <v>0.0009236305140362061</v>
+        <v>0.0008535384085685294</v>
       </c>
       <c r="L3">
-        <v>0.0009332586193350351</v>
+        <v>0.0008535384085685294</v>
       </c>
       <c r="M3">
-        <v>0.000936546070695625</v>
+        <v>0.0008535384085685294</v>
       </c>
       <c r="N3">
-        <v>0.0009437104386738768</v>
+        <v>0.0008535384085685294</v>
       </c>
       <c r="O3">
-        <v>0.001012515039663152</v>
+        <v>0.0009128117298428732</v>
       </c>
       <c r="P3">
-        <v>0.00102096087504808</v>
+        <v>0.0009128117298428732</v>
       </c>
       <c r="Q3">
-        <v>0.00102310229899213</v>
+        <v>0.0009128117298428732</v>
       </c>
       <c r="R3">
-        <v>0.001035868097062455</v>
+        <v>0.0009159545565603921</v>
       </c>
       <c r="S3">
-        <v>0.001127733414372323</v>
+        <v>0.0009983263264897095</v>
       </c>
       <c r="T3">
-        <v>0.00113812213161576</v>
+        <v>0.0009990881829604558</v>
       </c>
       <c r="U3">
-        <v>0.001142659518285323</v>
+        <v>0.0009990881829604558</v>
       </c>
       <c r="V3">
-        <v>0.001176204401842403</v>
+        <v>0.001023044094256119</v>
       </c>
       <c r="W3">
-        <v>0.001219917308658991</v>
+        <v>0.001057184665903057</v>
       </c>
       <c r="X3">
-        <v>0.001262624331548834</v>
+        <v>0.001090317707778942</v>
       </c>
       <c r="Y3">
-        <v>0.001317849337527049</v>
+        <v>0.001135989214879014</v>
       </c>
       <c r="Z3">
-        <v>0.001335090403271461</v>
+        <v>0.001143614631779339</v>
       </c>
       <c r="AA3">
-        <v>0.001335440337745977</v>
+        <v>0.001143614631779339</v>
       </c>
       <c r="AB3">
-        <v>0.001342372564241134</v>
+        <v>0.001143614631779339</v>
       </c>
       <c r="AC3">
-        <v>0.001349536932219386</v>
+        <v>0.001143614631779339</v>
       </c>
       <c r="AD3">
-        <v>0.001370200595714546</v>
+        <v>0.001154668246542783</v>
       </c>
       <c r="AE3">
-        <v>0.001409960215819034</v>
+        <v>0.001184849063042988</v>
       </c>
       <c r="AF3">
-        <v>0.001427201281563446</v>
+        <v>0.001192474479943312</v>
       </c>
       <c r="AG3">
-        <v>0.001435647116948374</v>
+        <v>0.001192474479943312</v>
       </c>
       <c r="AH3">
-        <v>0.001472964264230737</v>
+        <v>0.001220208827206017</v>
       </c>
       <c r="AI3">
-        <v>0.001474710006803602</v>
+        <v>0.001220208827206017</v>
       </c>
       <c r="AJ3">
-        <v>0.001492246425526505</v>
+        <v>0.001228130080346375</v>
       </c>
       <c r="AK3">
-        <v>0.001492558639883768</v>
+        <v>0.001228130080346375</v>
       </c>
       <c r="AL3">
-        <v>0.00149282390596445</v>
+        <v>0.001228130080346375</v>
       </c>
       <c r="AM3">
-        <v>0.001523670256718051</v>
+        <v>0.00124938304345351</v>
       </c>
       <c r="AN3">
-        <v>0.001543181814297113</v>
+        <v>0.001259282667205656</v>
       </c>
       <c r="AO3">
-        <v>0.001543362416843961</v>
+        <v>0.001259282667205656</v>
       </c>
       <c r="AP3">
-        <v>0.001562489632451013</v>
+        <v>0.001268797320118952</v>
       </c>
       <c r="AQ3">
-        <v>0.001589459442486925</v>
+        <v>0.001286167399646859</v>
       </c>
       <c r="AR3">
-        <v>0.001598767373809071</v>
+        <v>0.001286167399646859</v>
       </c>
       <c r="AS3">
-        <v>0.001602024769971849</v>
+        <v>0.001286167399646859</v>
       </c>
       <c r="AT3">
-        <v>0.00160851754449901</v>
+        <v>0.001286167399646859</v>
       </c>
       <c r="AU3">
-        <v>0.001632723814736178</v>
+        <v>0.001300769417625427</v>
       </c>
       <c r="AV3">
-        <v>0.001660609496705391</v>
+        <v>0.001319056867651796</v>
       </c>
       <c r="AW3">
-        <v>0.001661055808002888</v>
+        <v>0.001319056867651796</v>
       </c>
       <c r="AX3">
-        <v>0.001661405742477404</v>
+        <v>0.001319056867651796</v>
       </c>
       <c r="AY3">
-        <v>0.001676452201381639</v>
+        <v>0.001324484086859084</v>
       </c>
       <c r="AZ3">
-        <v>0.001685611336214621</v>
+        <v>0.001324484086859084</v>
       </c>
       <c r="BA3">
-        <v>0.001686832982025654</v>
+        <v>0.001324484086859084</v>
       </c>
       <c r="BB3">
-        <v>0.001731563481768136</v>
+        <v>0.001359643916434686</v>
       </c>
       <c r="BC3">
-        <v>0.001767426114156425</v>
+        <v>0.001385921368901426</v>
       </c>
       <c r="BD3">
-        <v>0.001833005449380581</v>
+        <v>0.001441964147176214</v>
       </c>
       <c r="BE3">
-        <v>0.0019152868833884</v>
+        <v>0.001514736352491402</v>
       </c>
       <c r="BF3">
-        <v>0.001921822061612473</v>
+        <v>0.001514736352491402</v>
       </c>
       <c r="BG3">
-        <v>0.001949795548575292</v>
+        <v>0.001533111751179393</v>
       </c>
       <c r="BH3">
-        <v>0.002046973731498248</v>
+        <v>0.001620805079722443</v>
       </c>
       <c r="BI3">
-        <v>0.002048338516198857</v>
+        <v>0.001620805079722443</v>
       </c>
       <c r="BJ3">
-        <v>0.002049224609034327</v>
+        <v>0.001620805079722443</v>
       </c>
       <c r="BK3">
-        <v>0.002049239382433251</v>
+        <v>0.001620805079722443</v>
       </c>
       <c r="BL3">
-        <v>0.00211646467753754</v>
+        <v>0.001678496511024779</v>
       </c>
       <c r="BM3">
-        <v>0.002143094976598177</v>
+        <v>0.001695526524063807</v>
       </c>
       <c r="BN3">
-        <v>0.002158141435502412</v>
+        <v>0.001700953743271096</v>
       </c>
       <c r="BO3">
-        <v>0.002159773553983553</v>
+        <v>0.001700953743271096</v>
       </c>
       <c r="BP3">
-        <v>0.002160743870812889</v>
+        <v>0.001700953743271096</v>
       </c>
       <c r="BQ3">
-        <v>0.002161604630750204</v>
+        <v>0.001700953743271096</v>
       </c>
       <c r="BR3">
-        <v>0.002165470409968677</v>
+        <v>0.001700953743271096</v>
       </c>
       <c r="BS3">
-        <v>0.002222496880815699</v>
+        <v>0.001748429662827286</v>
       </c>
       <c r="BT3">
-        <v>0.002283725116356726</v>
+        <v>0.001800114222075994</v>
       </c>
       <c r="BU3">
-        <v>0.002297364546363429</v>
+        <v>0.001804132110181253</v>
       </c>
       <c r="BV3">
-        <v>0.002396057089176101</v>
+        <v>0.001893342276435303</v>
       </c>
       <c r="BW3">
-        <v>0.002447923229398927</v>
+        <v>0.001935649421946983</v>
       </c>
       <c r="BX3">
-        <v>0.002449704971369171</v>
+        <v>0.001935649421946983</v>
       </c>
       <c r="BY3">
-        <v>0.002451696828724113</v>
+        <v>0.001935649421946983</v>
       </c>
       <c r="BZ3">
-        <v>0.002451918969687935</v>
+        <v>0.001935649421946983</v>
       </c>
       <c r="CA3">
-        <v>0.002469455388410838</v>
+        <v>0.001943570675087341</v>
       </c>
       <c r="CB3">
-        <v>0.002470930604603405</v>
+        <v>0.001943570675087341</v>
       </c>
       <c r="CC3">
-        <v>0.002506693806998934</v>
+        <v>0.001969748534872286</v>
       </c>
       <c r="CD3">
-        <v>0.002519635162556474</v>
+        <v>0.001973067206327152</v>
       </c>
       <c r="CE3">
-        <v>0.002523341018686594</v>
+        <v>0.001973067206327152</v>
       </c>
       <c r="CF3">
-        <v>0.002524924353571287</v>
+        <v>0.001973067206327152</v>
       </c>
       <c r="CG3">
-        <v>0.002525785113508602</v>
+        <v>0.001973067206327152</v>
       </c>
       <c r="CH3">
-        <v>0.002547150244952677</v>
+        <v>0.001984823436793243</v>
       </c>
       <c r="CI3">
-        <v>0.002560468645982758</v>
+        <v>0.001988519770648834</v>
       </c>
       <c r="CJ3">
-        <v>0.002565483639917539</v>
+        <v>0.001988519770648834</v>
       </c>
       <c r="CK3">
-        <v>0.002599028523474619</v>
+        <v>0.002012475681944498</v>
       </c>
       <c r="CL3">
-        <v>0.002609137308738442</v>
+        <v>0.002012957148406187</v>
       </c>
       <c r="CM3">
-        <v>0.002609139336722994</v>
+        <v>0.002012957148406187</v>
       </c>
       <c r="CN3">
-        <v>0.003859548245661422</v>
+        <v>0.003255768138598738</v>
       </c>
       <c r="CO3">
-        <v>0.09333371172966658</v>
+        <v>0.09286668690441034</v>
       </c>
       <c r="CP3">
-        <v>0.146730777841002</v>
+        <v>0.1463414783401732</v>
       </c>
       <c r="CQ3">
-        <v>0.1877571748532368</v>
+        <v>0.1874253595786638</v>
       </c>
       <c r="CR3">
-        <v>0.2009689898910806</v>
+        <v>0.2006491481529342</v>
       </c>
       <c r="CS3">
-        <v>0.2106589851854025</v>
+        <v>0.2103453545226064</v>
       </c>
       <c r="CT3">
-        <v>0.2172352010064867</v>
+        <v>0.2169226866003615</v>
       </c>
       <c r="CU3">
-        <v>0.2251201374322628</v>
+        <v>0.2248108806336138</v>
       </c>
       <c r="CV3">
-        <v>0.2419794462044763</v>
+        <v>0.2416881310332413</v>
       </c>
       <c r="CW3">
-        <v>0.3078975414039624</v>
+        <v>0.3077044386768856</v>
       </c>
       <c r="CX3">
-        <v>0.3093559768977512</v>
+        <v>0.3091556166285478</v>
       </c>
       <c r="CY3">
-        <v>0.3720644123309822</v>
+        <v>0.3719570128062993</v>
       </c>
       <c r="CZ3">
-        <v>0.374647592442861</v>
+        <v>0.3745347757022335</v>
       </c>
       <c r="DA3">
-        <v>0.3758495931553248</v>
+        <v>0.375729099289641</v>
       </c>
       <c r="DB3">
-        <v>0.3779352030034394</v>
+        <v>0.3778084777889233</v>
       </c>
       <c r="DC3">
-        <v>0.3910141780509573</v>
+        <v>0.3908992090178272</v>
       </c>
       <c r="DD3">
-        <v>0.3911424380816168</v>
+        <v>0.3910180350507521</v>
       </c>
       <c r="DE3">
-        <v>0.3944315108420886</v>
+        <v>0.3943028455887793</v>
       </c>
       <c r="DF3">
-        <v>0.4396698835475845</v>
+        <v>0.439605594226454</v>
       </c>
       <c r="DG3">
-        <v>0.4416468873036083</v>
+        <v>0.4415761889305195</v>
       </c>
       <c r="DH3">
-        <v>0.4418547046584739</v>
+        <v>0.4417747024606911</v>
       </c>
       <c r="DI3">
-        <v>0.4419751645497014</v>
+        <v>0.4418857155914638</v>
       </c>
       <c r="DJ3">
-        <v>0.4502019599505814</v>
+        <v>0.4501163279552617</v>
       </c>
       <c r="DK3">
-        <v>0.4502566986665951</v>
+        <v>0.4501615123767213</v>
       </c>
       <c r="DL3">
-        <v>0.4558854312566802</v>
+        <v>0.4557898109353772</v>
       </c>
       <c r="DM3">
-        <v>0.4673219404238114</v>
+        <v>0.4672353888534197</v>
       </c>
       <c r="DN3">
-        <v>0.4673323291410549</v>
+        <v>0.4672361507098904</v>
       </c>
       <c r="DO3">
-        <v>0.4692430628019049</v>
+        <v>0.4691403668865306</v>
       </c>
       <c r="DP3">
-        <v>0.479899064025877</v>
+        <v>0.4798041597811061</v>
       </c>
       <c r="DQ3">
-        <v>0.5032293573268382</v>
+        <v>0.5031629826438982</v>
       </c>
       <c r="DR3">
-        <v>0.5083975989504587</v>
+        <v>0.5083300367729757</v>
       </c>
       <c r="DS3">
-        <v>0.5083988941584643</v>
+        <v>0.5083300367729757</v>
       </c>
       <c r="DT3">
-        <v>0.5092704230249948</v>
+        <v>0.5091933477908219</v>
       </c>
       <c r="DU3">
-        <v>0.5093347690003088</v>
+        <v>0.5092481551911422</v>
       </c>
       <c r="DV3">
-        <v>0.5115800646367942</v>
+        <v>0.5114874807593852</v>
       </c>
       <c r="DW3">
-        <v>0.512290848635031</v>
+        <v>0.5121897838954633</v>
       </c>
       <c r="DX3">
-        <v>0.5152981728160213</v>
+        <v>0.5151923848522143</v>
       </c>
       <c r="DY3">
-        <v>0.5189595508493798</v>
+        <v>0.5188501098353175</v>
       </c>
       <c r="DZ3">
-        <v>0.5333262898031158</v>
+        <v>0.53323071203154</v>
       </c>
       <c r="EA3">
-        <v>0.5633250946184398</v>
+        <v>0.563268957540109</v>
       </c>
       <c r="EB3">
-        <v>0.5776264025769409</v>
+        <v>0.5775840216817947</v>
       </c>
       <c r="EC3">
-        <v>0.5816107497867791</v>
+        <v>0.5815652442890108</v>
       </c>
       <c r="ED3">
-        <v>0.5817075490547297</v>
+        <v>0.5816525580825943</v>
       </c>
       <c r="EE3">
-        <v>0.5821517089823836</v>
+        <v>0.5820878008932722</v>
       </c>
       <c r="EF3">
-        <v>0.5829304871256688</v>
+        <v>0.5828582094275696</v>
       </c>
       <c r="EG3">
-        <v>0.5829696972828132</v>
+        <v>0.5828878398820693</v>
       </c>
       <c r="EH3">
-        <v>0.5865120043248432</v>
+        <v>0.5864262990478725</v>
       </c>
       <c r="EI3">
-        <v>0.6034622680904329</v>
+        <v>0.6033946532629758</v>
       </c>
       <c r="EJ3">
-        <v>0.6215377537740778</v>
+        <v>0.6214900705032828</v>
       </c>
       <c r="EK3">
-        <v>0.6425797222416874</v>
+        <v>0.6425568243368975</v>
       </c>
       <c r="EL3">
-        <v>0.6676717134143522</v>
+        <v>0.6676802275912702</v>
       </c>
       <c r="EM3">
-        <v>0.6693224752941347</v>
+        <v>0.6693240466166144</v>
       </c>
       <c r="EN3">
-        <v>0.6703742955175355</v>
+        <v>0.6703679439871005</v>
       </c>
       <c r="EO3">
-        <v>0.6747413668995016</v>
+        <v>0.6747325169862133</v>
       </c>
       <c r="EP3">
-        <v>0.6911489057046154</v>
+        <v>0.691157258225074</v>
       </c>
       <c r="EQ3">
-        <v>0.718108902741242</v>
+        <v>0.7181517238062217</v>
       </c>
       <c r="ER3">
-        <v>0.7433040509063943</v>
+        <v>0.7433784528402991</v>
       </c>
       <c r="ES3">
-        <v>0.7684749170733151</v>
+        <v>0.7685808601455284</v>
       </c>
       <c r="ET3">
-        <v>0.7784663383456855</v>
+        <v>0.7785789856915364</v>
       </c>
       <c r="EU3">
-        <v>0.7854762925351825</v>
+        <v>0.7855907658277643</v>
       </c>
       <c r="EV3">
-        <v>0.7878729727606432</v>
+        <v>0.7879817236830096</v>
       </c>
       <c r="EW3">
-        <v>0.7885166475137673</v>
+        <v>0.7886168077686921</v>
       </c>
       <c r="EX3">
-        <v>0.7949237780471652</v>
+        <v>0.7950247778985512</v>
       </c>
       <c r="EY3">
-        <v>0.8193040782716592</v>
+        <v>0.8194353257239773</v>
       </c>
       <c r="EZ3">
-        <v>0.8453820923725165</v>
+        <v>0.8455463652539473</v>
       </c>
       <c r="FA3">
-        <v>0.8544731617104554</v>
+        <v>0.854642665694449</v>
       </c>
       <c r="FB3">
-        <v>0.8646826129669477</v>
+        <v>0.8648591779689294</v>
       </c>
       <c r="FC3">
-        <v>0.8674503487653862</v>
+        <v>0.8676217985245616</v>
       </c>
       <c r="FD3">
-        <v>0.8685178244876468</v>
+        <v>0.8686813770096998</v>
       </c>
       <c r="FE3">
-        <v>0.8686983172645023</v>
+        <v>0.8688525212529242</v>
       </c>
       <c r="FF3">
-        <v>0.8718890915321328</v>
+        <v>0.8720388724604522</v>
       </c>
       <c r="FG3">
-        <v>0.8723391496693571</v>
+        <v>0.8724800231314509</v>
       </c>
       <c r="FH3">
-        <v>0.8783666912303988</v>
+        <v>0.8785077831990521</v>
       </c>
       <c r="FI3">
-        <v>0.8905683683418063</v>
+        <v>0.8907197810421129</v>
       </c>
       <c r="FJ3">
-        <v>0.8989881387286328</v>
+        <v>0.8991436841407957</v>
       </c>
       <c r="FK3">
-        <v>0.9140656896306036</v>
+        <v>0.9142362613277943</v>
       </c>
       <c r="FL3">
-        <v>0.9223655340261638</v>
+        <v>0.922540042210274</v>
       </c>
       <c r="FM3">
-        <v>0.9231712370174882</v>
+        <v>0.9233374196475027</v>
       </c>
       <c r="FN3">
-        <v>0.9235574195893642</v>
+        <v>0.9237145902388719</v>
       </c>
       <c r="FO3">
-        <v>0.9247694761010957</v>
+        <v>0.924918986079016</v>
       </c>
       <c r="FP3">
-        <v>0.9271728393260698</v>
+        <v>0.9273166378686115</v>
       </c>
       <c r="FQ3">
-        <v>0.9289696973952127</v>
+        <v>0.9291067921283741</v>
       </c>
       <c r="FR3">
-        <v>0.9385272456991801</v>
+        <v>0.9386703347956843</v>
       </c>
       <c r="FS3">
-        <v>0.9468954220897641</v>
+        <v>0.9470425594791545</v>
       </c>
       <c r="FT3">
-        <v>0.9510178862895439</v>
+        <v>0.951162125065669</v>
       </c>
       <c r="FU3">
-        <v>0.956562047285788</v>
+        <v>0.9567057136530105</v>
       </c>
       <c r="FV3">
-        <v>0.9568664176236221</v>
+        <v>0.9570009381477755</v>
       </c>
       <c r="FW3">
-        <v>0.9569941236943219</v>
+        <v>0.9571192093143421</v>
       </c>
       <c r="FX3">
-        <v>0.9569958694368947</v>
+        <v>0.9571192093143421</v>
       </c>
       <c r="FY3">
-        <v>0.95801865406241</v>
+        <v>0.9581340235784062</v>
       </c>
       <c r="FZ3">
-        <v>0.9589201225967602</v>
+        <v>0.9590273232518632</v>
       </c>
       <c r="GA3">
-        <v>0.9604598048846321</v>
+        <v>0.9605598809349883</v>
       </c>
       <c r="GB3">
-        <v>0.964523193888714</v>
+        <v>0.9646202746659699</v>
       </c>
       <c r="GC3">
-        <v>0.9669932009088347</v>
+        <v>0.9670846792944177</v>
       </c>
       <c r="GD3">
-        <v>0.9676659029598449</v>
+        <v>0.9677488381729424</v>
       </c>
       <c r="GE3">
-        <v>0.9686396517489312</v>
+        <v>0.9687145363673119</v>
       </c>
       <c r="GF3">
-        <v>0.9686826793797977</v>
+        <v>0.9687479905417486</v>
       </c>
       <c r="GG3">
-        <v>0.9686835048136375</v>
+        <v>0.9687479905417486</v>
       </c>
       <c r="GH3">
-        <v>0.9689377837351195</v>
+        <v>0.9689930416597383</v>
       </c>
       <c r="GI3">
-        <v>0.9692455041827096</v>
+        <v>0.9692916217457658</v>
       </c>
       <c r="GJ3">
-        <v>0.9709970226551545</v>
+        <v>0.9710363622234146</v>
       </c>
       <c r="GK3">
-        <v>0.9717228992622923</v>
+        <v>0.9717537826631758</v>
       </c>
       <c r="GL3">
-        <v>0.971760114982582</v>
+        <v>0.9717814154174893</v>
       </c>
       <c r="GM3">
-        <v>0.9737676011363859</v>
+        <v>0.9737825423951501</v>
       </c>
       <c r="GN3">
-        <v>0.9775600825601969</v>
+        <v>0.9775715852822923</v>
       </c>
       <c r="GO3">
-        <v>0.9877364278191001</v>
+        <v>0.9877549373905901</v>
       </c>
       <c r="GP3">
-        <v>0.9932124351203074</v>
+        <v>0.9932302607686655</v>
       </c>
       <c r="GQ3">
-        <v>0.9980331187692391</v>
+        <v>0.998049188242813</v>
       </c>
       <c r="GR3">
-        <v>0.9999784079275725</v>
+        <v>0.9999880164572265</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.633727837090957E-05</v>
+        <v>1.94441956915066E-05</v>
       </c>
       <c r="C4">
-        <v>3.888062302381649E-05</v>
+        <v>2.507802290908908E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001092199666851242</v>
+        <v>8.857671006744732E-05</v>
       </c>
       <c r="E4">
-        <v>0.0001169979500899842</v>
+        <v>8.943949835644665E-05</v>
       </c>
       <c r="F4">
-        <v>0.000117646354473735</v>
+        <v>8.943949835644665E-05</v>
       </c>
       <c r="G4">
-        <v>0.0001176474001349894</v>
+        <v>8.943949835644665E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001550771820832867</v>
+        <v>0.0001199894137674929</v>
       </c>
       <c r="I4">
-        <v>0.0001649890875992218</v>
+        <v>0.0001229886666249814</v>
       </c>
       <c r="J4">
-        <v>0.0002252108277338873</v>
+        <v>0.0001763576956573446</v>
       </c>
       <c r="K4">
-        <v>0.0002290975439361989</v>
+        <v>0.0001763576956573446</v>
       </c>
       <c r="L4">
-        <v>0.0002501676150329395</v>
+        <v>0.0001905284084706589</v>
       </c>
       <c r="M4">
-        <v>0.0002503390236318616</v>
+        <v>0.0001905284084706589</v>
       </c>
       <c r="N4">
-        <v>0.0002704565166790186</v>
+        <v>0.0002037454082870959</v>
       </c>
       <c r="O4">
-        <v>0.0002706948856714262</v>
+        <v>0.0002037454082870959</v>
       </c>
       <c r="P4">
-        <v>0.0002810796052119722</v>
+        <v>0.0002072180385025598</v>
       </c>
       <c r="Q4">
-        <v>0.0002879958270719758</v>
+        <v>0.0002072180385025598</v>
       </c>
       <c r="R4">
-        <v>0.0002900157001771143</v>
+        <v>0.0002072180385025598</v>
       </c>
       <c r="S4">
-        <v>0.0003000011736968788</v>
+        <v>0.000210290947016335</v>
       </c>
       <c r="T4">
-        <v>0.0003795134278356554</v>
+        <v>0.00028297347369879</v>
       </c>
       <c r="U4">
-        <v>0.0004353900677441495</v>
+        <v>0.0003319922255436356</v>
       </c>
       <c r="V4">
-        <v>0.0004800111900667708</v>
+        <v>0.0003697420494377279</v>
       </c>
       <c r="W4">
-        <v>0.0005574571840979943</v>
+        <v>0.0004403558541709804</v>
       </c>
       <c r="X4">
-        <v>0.0005654135895121415</v>
+        <v>0.0004413972770498283</v>
       </c>
       <c r="Y4">
-        <v>0.0005658311677138773</v>
+        <v>0.0004413972770498283</v>
       </c>
       <c r="Z4">
-        <v>0.0005737875731280246</v>
+        <v>0.0004424386999286763</v>
       </c>
       <c r="AA4">
-        <v>0.0005748245885820034</v>
+        <v>0.0004424386999286763</v>
       </c>
       <c r="AB4">
-        <v>0.0005797369552377022</v>
+        <v>0.0004424386999286763</v>
       </c>
       <c r="AC4">
-        <v>0.0005832168731188391</v>
+        <v>0.0004424386999286763</v>
       </c>
       <c r="AD4">
-        <v>0.0005835440429658689</v>
+        <v>0.0004424386999286763</v>
       </c>
       <c r="AE4">
-        <v>0.0005854131454631595</v>
+        <v>0.0004424386999286763</v>
       </c>
       <c r="AF4">
-        <v>0.0005882174791091309</v>
+        <v>0.0004424386999286763</v>
       </c>
       <c r="AG4">
-        <v>0.0005910610092571425</v>
+        <v>0.0004424386999286763</v>
       </c>
       <c r="AH4">
-        <v>0.0006072967421022459</v>
+        <v>0.0004517693146272982</v>
       </c>
       <c r="AI4">
-        <v>0.0006751683856351047</v>
+        <v>0.0005127973615206136</v>
       </c>
       <c r="AJ4">
-        <v>0.0006759251273344946</v>
+        <v>0.0005127973615206136</v>
       </c>
       <c r="AK4">
-        <v>0.0006765414960665778</v>
+        <v>0.0005127973615206136</v>
       </c>
       <c r="AL4">
-        <v>0.0007016953503758877</v>
+        <v>0.0005310567231621879</v>
       </c>
       <c r="AM4">
-        <v>0.0007018941074062334</v>
+        <v>0.0005310567231621879</v>
       </c>
       <c r="AN4">
-        <v>0.000701907585189335</v>
+        <v>0.0005310567231621879</v>
       </c>
       <c r="AO4">
-        <v>0.0007019131720656258</v>
+        <v>0.0005310567231621879</v>
       </c>
       <c r="AP4">
-        <v>0.0007419690601506173</v>
+        <v>0.0005642358735790576</v>
       </c>
       <c r="AQ4">
-        <v>0.0007536999217612328</v>
+        <v>0.0005690562497229833</v>
       </c>
       <c r="AR4">
-        <v>0.0007537009674224872</v>
+        <v>0.0005690562497229833</v>
       </c>
       <c r="AS4">
-        <v>0.0007692520142319512</v>
+        <v>0.0005777013626180994</v>
       </c>
       <c r="AT4">
-        <v>0.0007694903832243588</v>
+        <v>0.0005777013626180994</v>
       </c>
       <c r="AU4">
-        <v>0.0008219189859533755</v>
+        <v>0.000623267969126171</v>
       </c>
       <c r="AV4">
-        <v>0.0008291681323307085</v>
+        <v>0.0006236012903057792</v>
       </c>
       <c r="AW4">
-        <v>0.0008625617240689137</v>
+        <v>0.0006501102065956344</v>
       </c>
       <c r="AX4">
-        <v>0.0008988202959562471</v>
+        <v>0.0006794875165097318</v>
       </c>
       <c r="AY4">
-        <v>0.0009096888455219775</v>
+        <v>0.0006834445532087373</v>
       </c>
       <c r="AZ4">
-        <v>0.0009126771996775275</v>
+        <v>0.0006834445532087373</v>
       </c>
       <c r="BA4">
-        <v>0.0009454487943833565</v>
+        <v>0.0007093307313890428</v>
       </c>
       <c r="BB4">
-        <v>0.0009777366360640052</v>
+        <v>0.0007347325801775523</v>
       </c>
       <c r="BC4">
-        <v>0.0009908111797445622</v>
+        <v>0.0007408982393188493</v>
       </c>
       <c r="BD4">
-        <v>0.0009920753682103659</v>
+        <v>0.0007408982393188493</v>
       </c>
       <c r="BE4">
-        <v>0.0009932690441724992</v>
+        <v>0.0007408982393188493</v>
       </c>
       <c r="BF4">
-        <v>0.001027899215975071</v>
+        <v>0.0007686452089940214</v>
       </c>
       <c r="BG4">
-        <v>0.001029601193063662</v>
+        <v>0.0007686452089940214</v>
       </c>
       <c r="BH4">
-        <v>0.00107323631733496</v>
+        <v>0.0008054078600712998</v>
       </c>
       <c r="BI4">
-        <v>0.001188367873327795</v>
+        <v>0.000913752127156818</v>
       </c>
       <c r="BJ4">
-        <v>0.001188513147405357</v>
+        <v>0.000913752127156818</v>
       </c>
       <c r="BK4">
-        <v>0.001203905722206572</v>
+        <v>0.0009222385792325145</v>
       </c>
       <c r="BL4">
-        <v>0.0012586783410576</v>
+        <v>0.0009701519946361181</v>
       </c>
       <c r="BM4">
-        <v>0.001267237898503142</v>
+        <v>0.0009717972881706945</v>
       </c>
       <c r="BN4">
-        <v>0.001269380114614649</v>
+        <v>0.0009717972881706945</v>
       </c>
       <c r="BO4">
-        <v>0.001272044210253321</v>
+        <v>0.0009717972881706945</v>
       </c>
       <c r="BP4">
-        <v>0.00127758154454155</v>
+        <v>0.0009717972881706945</v>
       </c>
       <c r="BQ4">
-        <v>0.001285962138477777</v>
+        <v>0.0009732634049702249</v>
       </c>
       <c r="BR4">
-        <v>0.00130494529446589</v>
+        <v>0.0009853447162238998</v>
       </c>
       <c r="BS4">
-        <v>0.001308425212347026</v>
+        <v>0.0009853447162238998</v>
       </c>
       <c r="BT4">
-        <v>0.00132872381440361</v>
+        <v>0.0009987430408317465</v>
       </c>
       <c r="BU4">
-        <v>0.001361860582128448</v>
+        <v>0.001024994827115754</v>
       </c>
       <c r="BV4">
-        <v>0.001366862649088815</v>
+        <v>0.001024994827115754</v>
       </c>
       <c r="BW4">
-        <v>0.001408558831259188</v>
+        <v>0.001059816225943253</v>
       </c>
       <c r="BX4">
-        <v>0.001449709128401145</v>
+        <v>0.001094091089348664</v>
       </c>
       <c r="BY4">
-        <v>0.001507988621434713</v>
+        <v>0.001145515557193339</v>
       </c>
       <c r="BZ4">
-        <v>0.001632400897910628</v>
+        <v>0.001263151602258591</v>
       </c>
       <c r="CA4">
-        <v>0.001704710061674469</v>
+        <v>0.001328622456457872</v>
       </c>
       <c r="CB4">
-        <v>0.001717555600343106</v>
+        <v>0.001334558837739666</v>
       </c>
       <c r="CC4">
-        <v>0.001736363626322102</v>
+        <v>0.001346464810325911</v>
       </c>
       <c r="CD4">
-        <v>0.001786830321948998</v>
+        <v>0.001390067172221401</v>
       </c>
       <c r="CE4">
-        <v>0.001787643412891321</v>
+        <v>0.001390067172221401</v>
       </c>
       <c r="CF4">
-        <v>0.001818043907473729</v>
+        <v>0.001413579425235583</v>
       </c>
       <c r="CG4">
-        <v>0.001829695019080193</v>
+        <v>0.001418319956357367</v>
       </c>
       <c r="CH4">
-        <v>0.001887151870070941</v>
+        <v>0.001468920802023935</v>
       </c>
       <c r="CI4">
-        <v>0.001938359382736397</v>
+        <v>0.001513264863603028</v>
       </c>
       <c r="CJ4">
-        <v>0.001973352371557854</v>
+        <v>0.001541375082574728</v>
       </c>
       <c r="CK4">
-        <v>0.001975553960472451</v>
+        <v>0.001541375082574728</v>
       </c>
       <c r="CL4">
-        <v>0.001976768577635674</v>
+        <v>0.001541375082574728</v>
       </c>
       <c r="CM4">
-        <v>0.001976818385138267</v>
+        <v>0.001541375082574728</v>
       </c>
       <c r="CN4">
-        <v>0.003290836453535614</v>
+        <v>0.002850034273104837</v>
       </c>
       <c r="CO4">
-        <v>0.1231988126949927</v>
+        <v>0.122893950181126</v>
       </c>
       <c r="CP4">
-        <v>0.1647530978579788</v>
+        <v>0.1644908206554395</v>
       </c>
       <c r="CQ4">
-        <v>0.2014445567678448</v>
+        <v>0.2012190710716029</v>
       </c>
       <c r="CR4">
-        <v>0.2030135310495131</v>
+        <v>0.2027829902424962</v>
       </c>
       <c r="CS4">
-        <v>0.2136336026023097</v>
+        <v>0.2134087905970342</v>
       </c>
       <c r="CT4">
-        <v>0.2169638390756554</v>
+        <v>0.2167360704120714</v>
       </c>
       <c r="CU4">
-        <v>0.223466764414146</v>
+        <v>0.2232398191863283</v>
       </c>
       <c r="CV4">
-        <v>0.2404338772973192</v>
+        <v>0.2402202230414853</v>
       </c>
       <c r="CW4">
-        <v>0.3425184676110323</v>
+        <v>0.3424195173827196</v>
       </c>
       <c r="CX4">
-        <v>0.3439303227845223</v>
+        <v>0.3438261302461739</v>
       </c>
       <c r="CY4">
-        <v>0.3568790974585327</v>
+        <v>0.3567834082508014</v>
       </c>
       <c r="CZ4">
-        <v>0.3571784645941153</v>
+        <v>0.3570762076046053</v>
       </c>
       <c r="DA4">
-        <v>0.3591481606966421</v>
+        <v>0.3590413260356034</v>
       </c>
       <c r="DB4">
-        <v>0.3596140949708949</v>
+        <v>0.359500890984176</v>
       </c>
       <c r="DC4">
-        <v>0.3599458453881632</v>
+        <v>0.3598261122026646</v>
       </c>
       <c r="DD4">
-        <v>0.3604058939721097</v>
+        <v>0.3602797844484364</v>
       </c>
       <c r="DE4">
-        <v>0.3822586401095902</v>
+        <v>0.3821516425362885</v>
       </c>
       <c r="DF4">
-        <v>0.408733901487682</v>
+        <v>0.4086515233516863</v>
       </c>
       <c r="DG4">
-        <v>0.4095067109279084</v>
+        <v>0.4094183290920614</v>
       </c>
       <c r="DH4">
-        <v>0.4098624388264247</v>
+        <v>0.4097675563597222</v>
       </c>
       <c r="DI4">
-        <v>0.4181643122585543</v>
+        <v>0.4180723965808802</v>
       </c>
       <c r="DJ4">
-        <v>0.424116673168387</v>
+        <v>0.4240249249575445</v>
       </c>
       <c r="DK4">
-        <v>0.4258334374577481</v>
+        <v>0.4257368102202523</v>
       </c>
       <c r="DL4">
-        <v>0.4388017631327761</v>
+        <v>0.4387136625199003</v>
       </c>
       <c r="DM4">
-        <v>0.4573136290963569</v>
+        <v>0.4572406599485653</v>
       </c>
       <c r="DN4">
-        <v>0.4577681909200177</v>
+        <v>0.4576888388968615</v>
       </c>
       <c r="DO4">
-        <v>0.4638191136349807</v>
+        <v>0.4637400465099301</v>
       </c>
       <c r="DP4">
-        <v>0.4702349555689385</v>
+        <v>0.4701566081242984</v>
       </c>
       <c r="DQ4">
-        <v>0.4968273099531253</v>
+        <v>0.4967737214560291</v>
       </c>
       <c r="DR4">
-        <v>0.4987893910552557</v>
+        <v>0.4987312158137531</v>
       </c>
       <c r="DS4">
-        <v>0.5007095257552027</v>
+        <v>0.5006467137923332</v>
       </c>
       <c r="DT4">
-        <v>0.5008262554712787</v>
+        <v>0.5007566581236267</v>
       </c>
       <c r="DU4">
-        <v>0.5034074161056334</v>
+        <v>0.5033339696146986</v>
       </c>
       <c r="DV4">
-        <v>0.5089862867960252</v>
+        <v>0.5089125627777149</v>
       </c>
       <c r="DW4">
-        <v>0.5099289847050945</v>
+        <v>0.5098494594002241</v>
       </c>
       <c r="DX4">
-        <v>0.5124832834380511</v>
+        <v>0.5123998769853367</v>
       </c>
       <c r="DY4">
-        <v>0.51950930610377</v>
+        <v>0.519427346330131</v>
       </c>
       <c r="DZ4">
-        <v>0.5348914679044432</v>
+        <v>0.534820910715855</v>
       </c>
       <c r="EA4">
-        <v>0.5580741031111471</v>
+        <v>0.5580242423667162</v>
       </c>
       <c r="EB4">
-        <v>0.5677190186131849</v>
+        <v>0.5676737248226855</v>
       </c>
       <c r="EC4">
-        <v>0.5854572965364988</v>
+        <v>0.5854262125210941</v>
       </c>
       <c r="ED4">
-        <v>0.5870178829177305</v>
+        <v>0.5869817337978028</v>
       </c>
       <c r="EE4">
-        <v>0.5876450288503747</v>
+        <v>0.5876027024800886</v>
       </c>
       <c r="EF4">
-        <v>0.5876751843239444</v>
+        <v>0.5876259694201602</v>
       </c>
       <c r="EG4">
-        <v>0.5886250573733872</v>
+        <v>0.5885700497318501</v>
       </c>
       <c r="EH4">
-        <v>0.6009517220150155</v>
+        <v>0.6009044764922884</v>
       </c>
       <c r="EI4">
-        <v>0.6291976494852741</v>
+        <v>0.6291771330565787</v>
       </c>
       <c r="EJ4">
-        <v>0.6421102561574019</v>
+        <v>0.6420981999670271</v>
       </c>
       <c r="EK4">
-        <v>0.6507457936068994</v>
+        <v>0.6507371017489079</v>
       </c>
       <c r="EL4">
-        <v>0.6725856907437111</v>
+        <v>0.6725960955271739</v>
       </c>
       <c r="EM4">
-        <v>0.6779403776224335</v>
+        <v>0.6779502377751478</v>
       </c>
       <c r="EN4">
-        <v>0.6796906015135363</v>
+        <v>0.6796956225049757</v>
       </c>
       <c r="EO4">
-        <v>0.6801344227566382</v>
+        <v>0.6801330480758687</v>
       </c>
       <c r="EP4">
-        <v>0.7011367348498517</v>
+        <v>0.7011534588714401</v>
       </c>
       <c r="EQ4">
-        <v>0.7315913294350761</v>
+        <v>0.7316374140629021</v>
       </c>
       <c r="ER4">
-        <v>0.7624841390431104</v>
+        <v>0.7625601063876239</v>
       </c>
       <c r="ES4">
-        <v>0.787981834370318</v>
+        <v>0.7880812564329375</v>
       </c>
       <c r="ET4">
-        <v>0.7951489715433823</v>
+        <v>0.7952500084156866</v>
       </c>
       <c r="EU4">
-        <v>0.7983965184124238</v>
+        <v>0.7984945001060488</v>
       </c>
       <c r="EV4">
-        <v>0.7990332590955674</v>
+        <v>0.7991250749704811</v>
       </c>
       <c r="EW4">
-        <v>0.7997357700721346</v>
+        <v>0.7998214984902271</v>
       </c>
       <c r="EX4">
-        <v>0.8050951133510994</v>
+        <v>0.8051803026863026</v>
       </c>
       <c r="EY4">
-        <v>0.8256326264201193</v>
+        <v>0.8257353606737726</v>
       </c>
       <c r="EZ4">
-        <v>0.8511604667488959</v>
+        <v>0.8512866916368597</v>
       </c>
       <c r="FA4">
-        <v>0.8594623401810255</v>
+        <v>0.8595915318580177</v>
       </c>
       <c r="FB4">
-        <v>0.8706803827649477</v>
+        <v>0.8708160156951217</v>
       </c>
       <c r="FC4">
-        <v>0.875616868021902</v>
+        <v>0.8757514580558057</v>
       </c>
       <c r="FD4">
-        <v>0.8760196487828675</v>
+        <v>0.8761477942469585</v>
       </c>
       <c r="FE4">
-        <v>0.8760201099185916</v>
+        <v>0.8761477942469585</v>
       </c>
       <c r="FF4">
-        <v>0.8783842214416484</v>
+        <v>0.8785077980239845</v>
       </c>
       <c r="FG4">
-        <v>0.8785242310489362</v>
+        <v>0.8786410499832715</v>
       </c>
       <c r="FH4">
-        <v>0.8836397483152094</v>
+        <v>0.8837557376606193</v>
       </c>
       <c r="FI4">
-        <v>0.9004033591877899</v>
+        <v>0.9005323970431027</v>
       </c>
       <c r="FJ4">
-        <v>0.9103547087057782</v>
+        <v>0.9104886786152442</v>
       </c>
       <c r="FK4">
-        <v>0.9212098822708124</v>
+        <v>0.9213498610938622</v>
       </c>
       <c r="FL4">
-        <v>0.9297512917154103</v>
+        <v>0.9298945227222121</v>
       </c>
       <c r="FM4">
-        <v>0.9300947691132889</v>
+        <v>0.9302314848933997</v>
       </c>
       <c r="FN4">
-        <v>0.9301127496192249</v>
+        <v>0.9302425623599957</v>
       </c>
       <c r="FO4">
-        <v>0.9304712825178872</v>
+        <v>0.9305945979698145</v>
       </c>
       <c r="FP4">
-        <v>0.933443264672585</v>
+        <v>0.9335631966247817</v>
       </c>
       <c r="FQ4">
-        <v>0.9354251197757446</v>
+        <v>0.9355404885432307</v>
       </c>
       <c r="FR4">
-        <v>0.9440902392267819</v>
+        <v>0.9442090075720703</v>
       </c>
       <c r="FS4">
-        <v>0.9512159692976908</v>
+        <v>0.9513363031182516</v>
       </c>
       <c r="FT4">
-        <v>0.9537895944316533</v>
+        <v>0.9539060701307738</v>
       </c>
       <c r="FU4">
-        <v>0.9561711623556188</v>
+        <v>0.9562835511071037</v>
       </c>
       <c r="FV4">
-        <v>0.9561828134672253</v>
+        <v>0.9562882916382255</v>
       </c>
       <c r="FW4">
-        <v>0.9562343401169074</v>
+        <v>0.9563329552170564</v>
       </c>
       <c r="FX4">
-        <v>0.9563895177749847</v>
+        <v>0.9564813932990781</v>
       </c>
       <c r="FY4">
-        <v>0.9577838990475651</v>
+        <v>0.9578705114423771</v>
       </c>
       <c r="FZ4">
-        <v>0.9598114191531018</v>
+        <v>0.9598935227706827</v>
       </c>
       <c r="GA4">
-        <v>0.9623519117853396</v>
+        <v>0.9624301178058245</v>
       </c>
       <c r="GB4">
-        <v>0.9678929935737643</v>
+        <v>0.967970877043359</v>
       </c>
       <c r="GC4">
-        <v>0.9701773709926709</v>
+        <v>0.9702510517171888</v>
       </c>
       <c r="GD4">
-        <v>0.9702052537901222</v>
+        <v>0.9702720432733666</v>
       </c>
       <c r="GE4">
-        <v>0.9702105933344002</v>
+        <v>0.9702720432733666</v>
       </c>
       <c r="GF4">
-        <v>0.9708313303967109</v>
+        <v>0.9708865954494825</v>
       </c>
       <c r="GG4">
-        <v>0.9709297985418364</v>
+        <v>0.9709782564521117</v>
       </c>
       <c r="GH4">
-        <v>0.9716408216288466</v>
+        <v>0.9716832022240385</v>
       </c>
       <c r="GI4">
-        <v>0.9734718857241572</v>
+        <v>0.9735095234749809</v>
       </c>
       <c r="GJ4">
-        <v>0.97439908794242</v>
+        <v>0.9744309059443723</v>
       </c>
       <c r="GK4">
-        <v>0.9748160778941252</v>
+        <v>0.9748414682557779</v>
       </c>
       <c r="GL4">
-        <v>0.9748475278257622</v>
+        <v>0.9748660311961964</v>
       </c>
       <c r="GM4">
-        <v>0.9770118096384176</v>
+        <v>0.9770259671760949</v>
       </c>
       <c r="GN4">
-        <v>0.9803443718118843</v>
+        <v>0.9803555754622041</v>
       </c>
       <c r="GO4">
-        <v>0.9887295302483491</v>
+        <v>0.9887437999174563</v>
       </c>
       <c r="GP4">
-        <v>0.993649641104451</v>
+        <v>0.9936628483680394</v>
       </c>
       <c r="GQ4">
-        <v>0.9983491788490716</v>
+        <v>0.9983610609057298</v>
       </c>
       <c r="GR4">
-        <v>0.9999349117316123</v>
+        <v>0.9999417586444984</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.109265224674264E-05</v>
+        <v>1.89110042236805E-05</v>
       </c>
       <c r="C5">
-        <v>5.200261560832856E-05</v>
+        <v>4.764334905961657E-05</v>
       </c>
       <c r="D5">
-        <v>8.210855596050899E-05</v>
+        <v>7.557134087637177E-05</v>
       </c>
       <c r="E5">
-        <v>0.0001377366136112481</v>
+        <v>0.0001290319254981057</v>
       </c>
       <c r="F5">
-        <v>0.0001385871335211975</v>
+        <v>0.0001290319254981057</v>
       </c>
       <c r="G5">
-        <v>0.0001579956737482394</v>
+        <v>0.0001462581264613835</v>
       </c>
       <c r="H5">
-        <v>0.000158648311755874</v>
+        <v>0.0001462581264613835</v>
       </c>
       <c r="I5">
-        <v>0.000198837708226011</v>
+        <v>0.000184273713132238</v>
       </c>
       <c r="J5">
-        <v>0.0002511644828381316</v>
+        <v>0.0002344316597097611</v>
       </c>
       <c r="K5">
-        <v>0.0002669662680229815</v>
+        <v>0.0002480496252448289</v>
       </c>
       <c r="L5">
-        <v>0.0002691556748485933</v>
+        <v>0.0002480496252448289</v>
       </c>
       <c r="M5">
-        <v>0.0002728437224917362</v>
+        <v>0.0002495488811767458</v>
       </c>
       <c r="N5">
-        <v>0.000273324642437362</v>
+        <v>0.0002495488811767458</v>
       </c>
       <c r="O5">
-        <v>0.0002735665783201922</v>
+        <v>0.0002495488811767458</v>
       </c>
       <c r="P5">
-        <v>0.0003097242187431656</v>
+        <v>0.0002835310569735325</v>
       </c>
       <c r="Q5">
-        <v>0.0004170417859985706</v>
+        <v>0.0003887023670647202</v>
       </c>
       <c r="R5">
-        <v>0.0004362319822230582</v>
+        <v>0.0004057101344065469</v>
       </c>
       <c r="S5">
-        <v>0.0004710271926300939</v>
+        <v>0.0004383293209804848</v>
       </c>
       <c r="T5">
-        <v>0.000610378604260232</v>
+        <v>0.0005755476236793081</v>
       </c>
       <c r="U5">
-        <v>0.0006106205401430622</v>
+        <v>0.0005755476236793081</v>
       </c>
       <c r="V5">
-        <v>0.000610656766585486</v>
+        <v>0.0005755476236793081</v>
       </c>
       <c r="W5">
-        <v>0.000647695037018761</v>
+        <v>0.0006104107909393754</v>
       </c>
       <c r="X5">
-        <v>0.0006533002640843311</v>
+        <v>0.0006138280131965111</v>
       </c>
       <c r="Y5">
-        <v>0.0006544765054980908</v>
+        <v>0.0006138280131965111</v>
       </c>
       <c r="Z5">
-        <v>0.0007145950862013602</v>
+        <v>0.0006717809639977586</v>
       </c>
       <c r="AA5">
-        <v>0.0007434589665390109</v>
+        <v>0.0006984663859987203</v>
       </c>
       <c r="AB5">
-        <v>0.0007543024456658584</v>
+        <v>0.0007071240103481223</v>
       </c>
       <c r="AC5">
-        <v>0.0007642084087817387</v>
+        <v>0.0007148437338848232</v>
       </c>
       <c r="AD5">
-        <v>0.0007656059637980873</v>
+        <v>0.0007148437338848232</v>
       </c>
       <c r="AE5">
-        <v>0.00079498719614179</v>
+        <v>0.0007420467202380225</v>
       </c>
       <c r="AF5">
-        <v>0.0008280862335289838</v>
+        <v>0.0007729690376010012</v>
       </c>
       <c r="AG5">
-        <v>0.0008539710748317857</v>
+        <v>0.0007966741978259844</v>
       </c>
       <c r="AH5">
-        <v>0.0009225270106337556</v>
+        <v>0.0008630679668229188</v>
       </c>
       <c r="AI5">
-        <v>0.001008609111640747</v>
+        <v>0.0009469950946073657</v>
       </c>
       <c r="AJ5">
-        <v>0.001022411822802212</v>
+        <v>0.0009586131656027675</v>
       </c>
       <c r="AK5">
-        <v>0.00104061301501513</v>
+        <v>0.0009746315229981349</v>
       </c>
       <c r="AL5">
-        <v>0.001060077482242826</v>
+        <v>0.0009919136739172023</v>
       </c>
       <c r="AM5">
-        <v>0.001060097759548063</v>
+        <v>0.0009919136739172023</v>
       </c>
       <c r="AN5">
-        <v>0.001093483359938609</v>
+        <v>0.001023122671902794</v>
       </c>
       <c r="AO5">
-        <v>0.001147325250568454</v>
+        <v>0.001074796356374643</v>
       </c>
       <c r="AP5">
-        <v>0.001152079285624067</v>
+        <v>0.001077362037251616</v>
       </c>
       <c r="AQ5">
-        <v>0.00115248561480882</v>
+        <v>0.001077362037251616</v>
       </c>
       <c r="AR5">
-        <v>0.001152966534754446</v>
+        <v>0.001077362037251616</v>
       </c>
       <c r="AS5">
-        <v>0.001176576048030631</v>
+        <v>0.00109879093554575</v>
       </c>
       <c r="AT5">
-        <v>0.001187737512161198</v>
+        <v>0.001107766675415236</v>
       </c>
       <c r="AU5">
-        <v>0.001190147611189392</v>
+        <v>0.001107987458200529</v>
       </c>
       <c r="AV5">
-        <v>0.001190515145453691</v>
+        <v>0.001107987458200529</v>
       </c>
       <c r="AW5">
-        <v>0.001217902412774068</v>
+        <v>0.001133195661111102</v>
       </c>
       <c r="AX5">
-        <v>0.00130398451378106</v>
+        <v>0.001217122788895549</v>
       </c>
       <c r="AY5">
-        <v>0.001393574624829088</v>
+        <v>0.001304559366577345</v>
       </c>
       <c r="AZ5">
-        <v>0.001514207286240254</v>
+        <v>0.001423051235980365</v>
       </c>
       <c r="BA5">
-        <v>0.001558395090757165</v>
+        <v>0.001465066871837271</v>
       </c>
       <c r="BB5">
-        <v>0.001558899509463065</v>
+        <v>0.001465066871837271</v>
       </c>
       <c r="BC5">
-        <v>0.001572045026616842</v>
+        <v>0.001476027479080905</v>
       </c>
       <c r="BD5">
-        <v>0.001585010957768518</v>
+        <v>0.001486808426611692</v>
       </c>
       <c r="BE5">
-        <v>0.001586972461791464</v>
+        <v>0.001486808426611692</v>
       </c>
       <c r="BF5">
-        <v>0.001640814352421308</v>
+        <v>0.00153848211108354</v>
       </c>
       <c r="BG5">
-        <v>0.001676397827837565</v>
+        <v>0.001571889886208632</v>
       </c>
       <c r="BH5">
-        <v>0.001902049480477247</v>
+        <v>0.001795443851693264</v>
       </c>
       <c r="BI5">
-        <v>0.002028317231954332</v>
+        <v>0.001919573124074626</v>
       </c>
       <c r="BJ5">
-        <v>0.002092534426705547</v>
+        <v>0.001981626371192468</v>
       </c>
       <c r="BK5">
-        <v>0.002098368922173799</v>
+        <v>0.001985272955955082</v>
       </c>
       <c r="BL5">
-        <v>0.002124253763476601</v>
+        <v>0.002008978116180065</v>
       </c>
       <c r="BM5">
-        <v>0.002127403888913451</v>
+        <v>0.002009939229116503</v>
       </c>
       <c r="BN5">
-        <v>0.002160862824304855</v>
+        <v>0.00204122159220317</v>
       </c>
       <c r="BO5">
-        <v>0.00231455826610279</v>
+        <v>0.002192789812550768</v>
       </c>
       <c r="BP5">
-        <v>0.002487103378121229</v>
+        <v>0.002363215439931577</v>
       </c>
       <c r="BQ5">
-        <v>0.002690114920496066</v>
+        <v>0.002564120002559465</v>
       </c>
       <c r="BR5">
-        <v>0.002761102641326483</v>
+        <v>0.002632946554706569</v>
       </c>
       <c r="BS5">
-        <v>0.002797636396753856</v>
+        <v>0.002667304999883473</v>
       </c>
       <c r="BT5">
-        <v>0.00280122961279589</v>
+        <v>0.002668709385290823</v>
       </c>
       <c r="BU5">
-        <v>0.002804643401635824</v>
+        <v>0.002669934269850507</v>
       </c>
       <c r="BV5">
-        <v>0.002806938363962671</v>
+        <v>0.002670039868676804</v>
       </c>
       <c r="BW5">
-        <v>0.002824732854170832</v>
+        <v>0.002685651357137319</v>
       </c>
       <c r="BX5">
-        <v>0.00282643040579069</v>
+        <v>0.002685651357137319</v>
       </c>
       <c r="BY5">
-        <v>0.002829105698121985</v>
+        <v>0.002686137442073821</v>
       </c>
       <c r="BZ5">
-        <v>0.002832980150567309</v>
+        <v>0.002687823179317429</v>
       </c>
       <c r="CA5">
-        <v>0.002843349574688611</v>
+        <v>0.002696006554086275</v>
       </c>
       <c r="CB5">
-        <v>0.002858447622865228</v>
+        <v>0.002708920493765541</v>
       </c>
       <c r="CC5">
-        <v>0.002861473867400629</v>
+        <v>0.002709757674953839</v>
       </c>
       <c r="CD5">
-        <v>0.002862614077313968</v>
+        <v>0.002709757674953839</v>
       </c>
       <c r="CE5">
-        <v>0.00286726036106832</v>
+        <v>0.002712215560303227</v>
       </c>
       <c r="CF5">
-        <v>0.002907530214539399</v>
+        <v>0.002750311636998451</v>
       </c>
       <c r="CG5">
-        <v>0.002919468994679059</v>
+        <v>0.002760065011924966</v>
       </c>
       <c r="CH5">
-        <v>0.002921248803399879</v>
+        <v>0.002760065011924966</v>
       </c>
       <c r="CI5">
-        <v>0.0029217891390362</v>
+        <v>0.002760065011924966</v>
       </c>
       <c r="CJ5">
-        <v>0.002921809416341437</v>
+        <v>0.002760065011924966</v>
       </c>
       <c r="CK5">
-        <v>0.002925223205181372</v>
+        <v>0.00276128989648465</v>
       </c>
       <c r="CL5">
-        <v>0.002985826475890312</v>
+        <v>0.002819727736231695</v>
       </c>
       <c r="CM5">
-        <v>0.005647448207026063</v>
+        <v>0.005480251619680953</v>
       </c>
       <c r="CN5">
-        <v>0.06390300588850178</v>
+        <v>0.06375752988291895</v>
       </c>
       <c r="CO5">
-        <v>0.1461193868502721</v>
+        <v>0.146005466102594</v>
       </c>
       <c r="CP5">
-        <v>0.1619650120356348</v>
+        <v>0.1618554047904028</v>
       </c>
       <c r="CQ5">
-        <v>0.1631669909496956</v>
+        <v>0.1630556867490494</v>
       </c>
       <c r="CR5">
-        <v>0.1682939370096709</v>
+        <v>0.1681825468492051</v>
       </c>
       <c r="CS5">
-        <v>0.1692939511213691</v>
+        <v>0.1691807811094049</v>
       </c>
       <c r="CT5">
-        <v>0.1741854201785897</v>
+        <v>0.1740720675557003</v>
       </c>
       <c r="CU5">
-        <v>0.2874190915032014</v>
+        <v>0.2873500251283822</v>
       </c>
       <c r="CV5">
-        <v>0.2986976086351379</v>
+        <v>0.2986309812016077</v>
       </c>
       <c r="CW5">
-        <v>0.2992669020917976</v>
+        <v>0.2991983180182629</v>
       </c>
       <c r="CX5">
-        <v>0.3118254102387075</v>
+        <v>0.3117597904764355</v>
       </c>
       <c r="CY5">
-        <v>0.3143814678686083</v>
+        <v>0.3143147069300574</v>
       </c>
       <c r="CZ5">
-        <v>0.3148041691435531</v>
+        <v>0.3147353913965046</v>
       </c>
       <c r="DA5">
-        <v>0.3149097701847884</v>
+        <v>0.3148388454760307</v>
       </c>
       <c r="DB5">
-        <v>0.3156021841928883</v>
+        <v>0.3155293533787317</v>
       </c>
       <c r="DC5">
-        <v>0.3187435096296356</v>
+        <v>0.3186697778613021</v>
       </c>
       <c r="DD5">
-        <v>0.3561924800677151</v>
+        <v>0.3561319288554204</v>
       </c>
       <c r="DE5">
-        <v>0.3692656152206451</v>
+        <v>0.3692082395473276</v>
       </c>
       <c r="DF5">
-        <v>0.3723952958572562</v>
+        <v>0.3723370144501749</v>
       </c>
       <c r="DG5">
-        <v>0.3761050035006525</v>
+        <v>0.3760460544308327</v>
       </c>
       <c r="DH5">
-        <v>0.383217176983851</v>
+        <v>0.3831589567871808</v>
       </c>
       <c r="DI5">
-        <v>0.387640997035601</v>
+        <v>0.3875824022823258</v>
       </c>
       <c r="DJ5">
-        <v>0.3912620842779606</v>
+        <v>0.3912027854878652</v>
       </c>
       <c r="DK5">
-        <v>0.4127086145288429</v>
+        <v>0.4126559281224457</v>
       </c>
       <c r="DL5">
-        <v>0.4283689267120379</v>
+        <v>0.4283204777467035</v>
       </c>
       <c r="DM5">
-        <v>0.4343288877817577</v>
+        <v>0.4342806947660928</v>
       </c>
       <c r="DN5">
-        <v>0.4368885103117003</v>
+        <v>0.436839177582963</v>
       </c>
       <c r="DO5">
-        <v>0.4546954655200067</v>
+        <v>0.4546512513180404</v>
       </c>
       <c r="DP5">
-        <v>0.4785298707988225</v>
+        <v>0.4784932490794972</v>
       </c>
       <c r="DQ5">
-        <v>0.478532391584352</v>
+        <v>0.4784935805942149</v>
       </c>
       <c r="DR5">
-        <v>0.4808363533113038</v>
+        <v>0.4807962976725849</v>
       </c>
       <c r="DS5">
-        <v>0.4808451161724063</v>
+        <v>0.480802873824924</v>
       </c>
       <c r="DT5">
-        <v>0.4839822351091045</v>
+        <v>0.483939090080895</v>
       </c>
       <c r="DU5">
-        <v>0.4875130282504078</v>
+        <v>0.4874691421243293</v>
       </c>
       <c r="DV5">
-        <v>0.4893319452716856</v>
+        <v>0.489286615411312</v>
       </c>
       <c r="DW5">
-        <v>0.4917535498000136</v>
+        <v>0.4917070235773311</v>
       </c>
       <c r="DX5">
-        <v>0.5060674489674581</v>
+        <v>0.5060246075530759</v>
       </c>
       <c r="DY5">
-        <v>0.5271984212146491</v>
+        <v>0.5271620626637588</v>
       </c>
       <c r="DZ5">
-        <v>0.5437613974084035</v>
+        <v>0.5437296467953701</v>
       </c>
       <c r="EA5">
-        <v>0.5551919475421184</v>
+        <v>0.5551626982720419</v>
       </c>
       <c r="EB5">
-        <v>0.5658790596671367</v>
+        <v>0.5658520065972444</v>
       </c>
       <c r="EC5">
-        <v>0.5661594109304162</v>
+        <v>0.5661302826247242</v>
       </c>
       <c r="ED5">
-        <v>0.5662406226673662</v>
+        <v>0.5662093373894197</v>
       </c>
       <c r="EE5">
-        <v>0.5662814221178435</v>
+        <v>0.5662479632804932</v>
       </c>
       <c r="EF5">
-        <v>0.5703955021659701</v>
+        <v>0.5703615416397961</v>
       </c>
       <c r="EG5">
-        <v>0.5811049632912498</v>
+        <v>0.5810732081383664</v>
       </c>
       <c r="EH5">
-        <v>0.6110002396409659</v>
+        <v>0.6109785646441822</v>
       </c>
       <c r="EI5">
-        <v>0.6197628047434708</v>
+        <v>0.6197425360200618</v>
       </c>
       <c r="EJ5">
-        <v>0.6384830649624611</v>
+        <v>0.6384682896301962</v>
       </c>
       <c r="EK5">
-        <v>0.6533886091368267</v>
+        <v>0.6533777614524743</v>
       </c>
       <c r="EL5">
-        <v>0.6554350701607663</v>
+        <v>0.6554228721371389</v>
       </c>
       <c r="EM5">
-        <v>0.6561057686686121</v>
+        <v>0.6560916556264984</v>
       </c>
       <c r="EN5">
-        <v>0.6605553672206638</v>
+        <v>0.6605408902026833</v>
       </c>
       <c r="EO5">
-        <v>0.6854794295122264</v>
+        <v>0.6854729922246172</v>
       </c>
       <c r="EP5">
-        <v>0.7205683039226973</v>
+        <v>0.7205740784940241</v>
       </c>
       <c r="EQ5">
-        <v>0.7511383212803066</v>
+        <v>0.7511544529539471</v>
       </c>
       <c r="ER5">
-        <v>0.7710040635126968</v>
+        <v>0.7710261587384811</v>
       </c>
       <c r="ES5">
-        <v>0.7775049409887443</v>
+        <v>0.7775275141823489</v>
       </c>
       <c r="ET5">
-        <v>0.7802254746205692</v>
+        <v>0.7802469741467694</v>
       </c>
       <c r="EU5">
-        <v>0.7803420310219327</v>
+        <v>0.7803613880830312</v>
       </c>
       <c r="EV5">
-        <v>0.7825918040482506</v>
+        <v>0.7826098942191142</v>
       </c>
       <c r="EW5">
-        <v>0.7952577421964172</v>
+        <v>0.7952788407729913</v>
       </c>
       <c r="EX5">
-        <v>0.8214025725022605</v>
+        <v>0.8214322118712071</v>
       </c>
       <c r="EY5">
-        <v>0.8463607607942223</v>
+        <v>0.8463984539004947</v>
       </c>
       <c r="EZ5">
-        <v>0.8537437938805893</v>
+        <v>0.8537823270338406</v>
       </c>
       <c r="FA5">
-        <v>0.8692623120621255</v>
+        <v>0.8693050244573507</v>
       </c>
       <c r="FB5">
-        <v>0.8698673794192036</v>
+        <v>0.8699081498577564</v>
       </c>
       <c r="FC5">
-        <v>0.8705991905277644</v>
+        <v>0.8706380710313861</v>
       </c>
       <c r="FD5">
-        <v>0.8711221368338818</v>
+        <v>0.871159041674396</v>
       </c>
       <c r="FE5">
-        <v>0.8735741378625654</v>
+        <v>0.8736098588169586</v>
       </c>
       <c r="FF5">
-        <v>0.8737354007744519</v>
+        <v>0.8737689976134491</v>
       </c>
       <c r="FG5">
-        <v>0.8865718429246131</v>
+        <v>0.8866085181523768</v>
       </c>
       <c r="FH5">
-        <v>0.8976472370541735</v>
+        <v>0.897686267851761</v>
       </c>
       <c r="FI5">
-        <v>0.9085895331821768</v>
+        <v>0.9086308649197565</v>
       </c>
       <c r="FJ5">
-        <v>0.9227718718480824</v>
+        <v>0.9228168343951948</v>
       </c>
       <c r="FK5">
-        <v>0.9295694855276011</v>
+        <v>0.9296150478373664</v>
       </c>
       <c r="FL5">
-        <v>0.9298484457408643</v>
+        <v>0.9298919322438759</v>
       </c>
       <c r="FM5">
-        <v>0.92985063514769</v>
+        <v>0.9298919322438759</v>
       </c>
       <c r="FN5">
-        <v>0.9308041115088438</v>
+        <v>0.9308436096521966</v>
       </c>
       <c r="FO5">
-        <v>0.9328477510327504</v>
+        <v>0.9328858976787486</v>
       </c>
       <c r="FP5">
-        <v>0.9353842795624229</v>
+        <v>0.9354212770164585</v>
       </c>
       <c r="FQ5">
-        <v>0.9465131186926085</v>
+        <v>0.9465524936528706</v>
       </c>
       <c r="FR5">
-        <v>0.9519137163557848</v>
+        <v>0.9519531176760281</v>
       </c>
       <c r="FS5">
-        <v>0.9543764277845938</v>
+        <v>0.9544146496147803</v>
       </c>
       <c r="FT5">
-        <v>0.9568910098140094</v>
+        <v>0.9569280734443325</v>
       </c>
       <c r="FU5">
-        <v>0.957217701597831</v>
+        <v>0.9572527090127364</v>
       </c>
       <c r="FV5">
-        <v>0.9572248255512144</v>
+        <v>0.9572576455846697</v>
       </c>
       <c r="FW5">
-        <v>0.9572491476814988</v>
+        <v>0.9572797873924646</v>
       </c>
       <c r="FX5">
-        <v>0.9595811431087786</v>
+        <v>0.9596105496775436</v>
       </c>
       <c r="FY5">
-        <v>0.9610542899260115</v>
+        <v>0.9610821108397327</v>
       </c>
       <c r="FZ5">
-        <v>0.9636748838566673</v>
+        <v>0.9637015900829162</v>
       </c>
       <c r="GA5">
-        <v>0.9679486949066626</v>
+        <v>0.9679749650053856</v>
       </c>
       <c r="GB5">
-        <v>0.9684170309821412</v>
+        <v>0.9684413030030872</v>
       </c>
       <c r="GC5">
-        <v>0.9685545204637496</v>
+        <v>0.9685766586115384</v>
       </c>
       <c r="GD5">
-        <v>0.9686035901043236</v>
+        <v>0.9686235580871931</v>
       </c>
       <c r="GE5">
-        <v>0.9691092713102391</v>
+        <v>0.9691272565435721</v>
       </c>
       <c r="GF5">
-        <v>0.9691150752057069</v>
+        <v>0.9691308725157747</v>
       </c>
       <c r="GG5">
-        <v>0.9709089002266912</v>
+        <v>0.9709232435034981</v>
       </c>
       <c r="GH5">
-        <v>0.9725883472463375</v>
+        <v>0.9726011895436418</v>
       </c>
       <c r="GI5">
-        <v>0.9734550287064759</v>
+        <v>0.9734660364261387</v>
       </c>
       <c r="GJ5">
-        <v>0.9738405341509856</v>
+        <v>0.9738495097951901</v>
       </c>
       <c r="GK5">
-        <v>0.9743295204167057</v>
+        <v>0.9743365064589661</v>
       </c>
       <c r="GL5">
-        <v>0.9768108429457323</v>
+        <v>0.9768166571368281</v>
       </c>
       <c r="GM5">
-        <v>0.9820551770070807</v>
+        <v>0.9820609534200477</v>
       </c>
       <c r="GN5">
-        <v>0.9904746651055721</v>
+        <v>0.9904817069765844</v>
       </c>
       <c r="GO5">
-        <v>0.9952827031618168</v>
+        <v>0.995289528177802</v>
       </c>
       <c r="GP5">
-        <v>0.9992552988082883</v>
+        <v>0.9992615640634357</v>
       </c>
       <c r="GQ5">
-        <v>0.9998919721157362</v>
+        <v>0.9998963083868158</v>
       </c>
       <c r="GR5">
-        <v>0.9999814421967829</v>
+        <v>0.9999836248852301</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>9.604078504586718E-05</v>
+        <v>8.647000883636804E-05</v>
       </c>
       <c r="C6">
-        <v>0.0001546744870213277</v>
+        <v>0.0001354654790143412</v>
       </c>
       <c r="D6">
-        <v>0.0001990769047308896</v>
+        <v>0.0001702040018816341</v>
       </c>
       <c r="E6">
-        <v>0.0002000180944823396</v>
+        <v>0.0001702040018816341</v>
       </c>
       <c r="F6">
-        <v>0.0002000216004254587</v>
+        <v>0.0001702040018816341</v>
       </c>
       <c r="G6">
-        <v>0.0002145898046739778</v>
+        <v>0.0001750545117332011</v>
       </c>
       <c r="H6">
-        <v>0.0002547608226018106</v>
+        <v>0.0002055540044039649</v>
       </c>
       <c r="I6">
-        <v>0.0002644872481000863</v>
+        <v>0.0002055540044039649</v>
       </c>
       <c r="J6">
-        <v>0.0003227347820954667</v>
+        <v>0.0002541626102313843</v>
       </c>
       <c r="K6">
-        <v>0.0003764902453225645</v>
+        <v>0.0002982710448119462</v>
       </c>
       <c r="L6">
-        <v>0.0004249200858243773</v>
+        <v>0.0003370442530578835</v>
       </c>
       <c r="M6">
-        <v>0.0004284027191447304</v>
+        <v>0.0003370442530578835</v>
       </c>
       <c r="N6">
-        <v>0.0004435293173644455</v>
+        <v>0.000342454163823465</v>
       </c>
       <c r="O6">
-        <v>0.0005160591536230929</v>
+        <v>0.0004053708269588624</v>
       </c>
       <c r="P6">
-        <v>0.0005930638896509087</v>
+        <v>0.0004727704593778182</v>
       </c>
       <c r="Q6">
-        <v>0.000727892342695967</v>
+        <v>0.0005980980813878421</v>
       </c>
       <c r="R6">
-        <v>0.000761223087976646</v>
+        <v>0.0006217449664584019</v>
       </c>
       <c r="S6">
-        <v>0.0008061790416576545</v>
+        <v>0.0006570380234796076</v>
       </c>
       <c r="T6">
-        <v>0.0008327240472883667</v>
+        <v>0.0006738869322856225</v>
       </c>
       <c r="U6">
-        <v>0.0009183125728733993</v>
+        <v>0.0007498858332706946</v>
       </c>
       <c r="V6">
-        <v>0.0009569810208787402</v>
+        <v>0.0007788800464589233</v>
       </c>
       <c r="W6">
-        <v>0.0009589840013754192</v>
+        <v>0.0007788800464589233</v>
       </c>
       <c r="X6">
-        <v>0.0009781317723877075</v>
+        <v>0.0007883183813329483</v>
       </c>
       <c r="Y6">
-        <v>0.0009796563442090647</v>
+        <v>0.0007883183813329483</v>
       </c>
       <c r="Z6">
-        <v>0.0009925796065424358</v>
+        <v>0.0007915209829722123</v>
       </c>
       <c r="AA6">
-        <v>0.0009925831124855549</v>
+        <v>0.0007915209829722123</v>
       </c>
       <c r="AB6">
-        <v>0.001001148080043743</v>
+        <v>0.0007915209829722123</v>
       </c>
       <c r="AC6">
-        <v>0.001001625087019137</v>
+        <v>0.0007915209829722123</v>
       </c>
       <c r="AD6">
-        <v>0.001006140587786211</v>
+        <v>0.0007915209829722123</v>
       </c>
       <c r="AE6">
-        <v>0.001048094517622075</v>
+        <v>0.0008238066026472192</v>
       </c>
       <c r="AF6">
-        <v>0.001056659485180263</v>
+        <v>0.0008238066026472192</v>
       </c>
       <c r="AG6">
-        <v>0.001088754073524707</v>
+        <v>0.0008462151016397313</v>
       </c>
       <c r="AH6">
-        <v>0.001108870458487031</v>
+        <v>0.0008566237971496642</v>
       </c>
       <c r="AI6">
-        <v>0.001112469963401355</v>
+        <v>0.0008566237971496642</v>
       </c>
       <c r="AJ6">
-        <v>0.001112486122208522</v>
+        <v>0.0008566237971496642</v>
       </c>
       <c r="AK6">
-        <v>0.001112735896155638</v>
+        <v>0.0008566237971496642</v>
       </c>
       <c r="AL6">
-        <v>0.001156665023889613</v>
+        <v>0.0008908881765652118</v>
       </c>
       <c r="AM6">
-        <v>0.00119139180209828</v>
+        <v>0.0009159336120073629</v>
       </c>
       <c r="AN6">
-        <v>0.001217149141769623</v>
+        <v>0.0009319934344687213</v>
       </c>
       <c r="AO6">
-        <v>0.001221193679060991</v>
+        <v>0.0009319934344687213</v>
       </c>
       <c r="AP6">
-        <v>0.001221615205419247</v>
+        <v>0.0009319934344687213</v>
       </c>
       <c r="AQ6">
-        <v>0.001234022739779221</v>
+        <v>0.0009346793781306739</v>
       </c>
       <c r="AR6">
-        <v>0.001259780079450564</v>
+        <v>0.0009507392005920323</v>
       </c>
       <c r="AS6">
-        <v>0.008225657220125299</v>
+        <v>0.007919433829864759</v>
       </c>
       <c r="AT6">
-        <v>0.02999313409727972</v>
+        <v>0.02971641968106423</v>
       </c>
       <c r="AU6">
-        <v>0.0521458269545633</v>
+        <v>0.05189931616614046</v>
       </c>
       <c r="AV6">
-        <v>0.0626444454130064</v>
+        <v>0.06240712264847167</v>
       </c>
       <c r="AW6">
-        <v>0.07221625141925785</v>
+        <v>0.07198644537270375</v>
       </c>
       <c r="AX6">
-        <v>0.07790197682596746</v>
+        <v>0.07767267979109092</v>
       </c>
       <c r="AY6">
-        <v>0.07816923496218131</v>
+        <v>0.07793067590457588</v>
       </c>
       <c r="AZ6">
-        <v>0.08916576239494045</v>
+        <v>0.08893728923242479</v>
       </c>
       <c r="BA6">
-        <v>0.1192499888430867</v>
+        <v>0.1190660221146267</v>
       </c>
       <c r="BB6">
-        <v>0.1698092912350541</v>
+        <v>0.1697067533139953</v>
       </c>
       <c r="BC6">
-        <v>0.1779435908154573</v>
+        <v>0.1778459773802875</v>
       </c>
       <c r="BD6">
-        <v>0.1808967370631233</v>
+        <v>0.1807947050238223</v>
       </c>
       <c r="BE6">
-        <v>0.1834950896290908</v>
+        <v>0.1833879991919498</v>
       </c>
       <c r="BF6">
-        <v>0.1856034310203349</v>
+        <v>0.1854903985561265</v>
       </c>
       <c r="BG6">
-        <v>0.1856053344753367</v>
+        <v>0.1854903985561265</v>
       </c>
       <c r="BH6">
-        <v>0.1857589390374133</v>
+        <v>0.1856345361458218</v>
       </c>
       <c r="BI6">
-        <v>0.1857797522043396</v>
+        <v>0.1856456428797914</v>
       </c>
       <c r="BJ6">
-        <v>0.2181895045325268</v>
+        <v>0.2181040952252475</v>
       </c>
       <c r="BK6">
-        <v>0.2359225616177912</v>
+        <v>0.2358593860805872</v>
       </c>
       <c r="BL6">
-        <v>0.2361888053340574</v>
+        <v>0.2361163659448373</v>
       </c>
       <c r="BM6">
-        <v>0.2367789183036172</v>
+        <v>0.2366977990905683</v>
       </c>
       <c r="BN6">
-        <v>0.2506114205900865</v>
+        <v>0.2505455013397203</v>
       </c>
       <c r="BO6">
-        <v>0.2540876620107693</v>
+        <v>0.2540182674453383</v>
       </c>
       <c r="BP6">
-        <v>0.2593102132413712</v>
+        <v>0.259240492453116</v>
       </c>
       <c r="BQ6">
-        <v>0.2726350555540273</v>
+        <v>0.2725796192734335</v>
       </c>
       <c r="BR6">
-        <v>0.2829373190225992</v>
+        <v>0.2828907166821155</v>
       </c>
       <c r="BS6">
-        <v>0.2829587985944912</v>
+        <v>0.282902491022768</v>
       </c>
       <c r="BT6">
-        <v>0.2887235387971249</v>
+        <v>0.2886678827231831</v>
       </c>
       <c r="BU6">
-        <v>0.3042742489949627</v>
+        <v>0.3042368913002449</v>
       </c>
       <c r="BV6">
-        <v>0.3175047163124872</v>
+        <v>0.3174814729405281</v>
       </c>
       <c r="BW6">
-        <v>0.3185509648585179</v>
+        <v>0.3185198642046388</v>
       </c>
       <c r="BX6">
-        <v>0.3188890573210778</v>
+        <v>0.3188488223788651</v>
       </c>
       <c r="BY6">
-        <v>0.3189295491389891</v>
+        <v>0.3188796432500127</v>
       </c>
       <c r="BZ6">
-        <v>0.3215167699055308</v>
+        <v>0.3214617855449206</v>
       </c>
       <c r="CA6">
-        <v>0.3295375674917889</v>
+        <v>0.329487302940757</v>
       </c>
       <c r="CB6">
-        <v>0.3369920877072577</v>
+        <v>0.3369455218069786</v>
       </c>
       <c r="CC6">
-        <v>0.3370589157638105</v>
+        <v>0.3370027264084809</v>
       </c>
       <c r="CD6">
-        <v>0.3415199855336923</v>
+        <v>0.3414620967883344</v>
       </c>
       <c r="CE6">
-        <v>0.3544722658655666</v>
+        <v>0.3544279897928748</v>
       </c>
       <c r="CF6">
-        <v>0.3712749819988214</v>
+        <v>0.3712512620274107</v>
       </c>
       <c r="CG6">
-        <v>0.3862237902277075</v>
+        <v>0.3862172832354336</v>
       </c>
       <c r="CH6">
-        <v>0.3963753097040553</v>
+        <v>0.396377364817688</v>
       </c>
       <c r="CI6">
-        <v>0.3991813309593105</v>
+        <v>0.3991787021606924</v>
       </c>
       <c r="CJ6">
-        <v>0.4011527612576169</v>
+        <v>0.4011439435423715</v>
       </c>
       <c r="CK6">
-        <v>0.4011545643855239</v>
+        <v>0.4011439435423715</v>
       </c>
       <c r="CL6">
-        <v>0.404180153729453</v>
+        <v>0.4041652449176334</v>
       </c>
       <c r="CM6">
-        <v>0.4128630302815586</v>
+        <v>0.41285403519561</v>
       </c>
       <c r="CN6">
-        <v>0.4351590531314487</v>
+        <v>0.4351805201379507</v>
       </c>
       <c r="CO6">
-        <v>0.448799865927806</v>
+        <v>0.448836187226433</v>
       </c>
       <c r="CP6">
-        <v>0.4596631503674383</v>
+        <v>0.4597093172862202</v>
       </c>
       <c r="CQ6">
-        <v>0.4773974184526403</v>
+        <v>0.477465821325274</v>
       </c>
       <c r="CR6">
-        <v>0.4832679571498166</v>
+        <v>0.4833372023049459</v>
       </c>
       <c r="CS6">
-        <v>0.4868363501657459</v>
+        <v>0.4869022861812921</v>
       </c>
       <c r="CT6">
-        <v>0.4900604627994345</v>
+        <v>0.4901224688401515</v>
       </c>
       <c r="CU6">
-        <v>0.510806450729281</v>
+        <v>0.510896123709543</v>
       </c>
       <c r="CV6">
-        <v>0.5505234986805313</v>
+        <v>0.5506750488060924</v>
       </c>
       <c r="CW6">
-        <v>0.5835887769749041</v>
+        <v>0.5837902092171083</v>
       </c>
       <c r="CX6">
-        <v>0.6089069696688997</v>
+        <v>0.6091443138335626</v>
       </c>
       <c r="CY6">
-        <v>0.6154535243312046</v>
+        <v>0.6156929298270212</v>
       </c>
       <c r="CZ6">
-        <v>0.6183624641811509</v>
+        <v>0.6185973713561541</v>
       </c>
       <c r="DA6">
-        <v>0.6186250049376081</v>
+        <v>0.6188506415831078</v>
       </c>
       <c r="DB6">
-        <v>0.619333700901051</v>
+        <v>0.6195508715615171</v>
       </c>
       <c r="DC6">
-        <v>0.6279127154585142</v>
+        <v>0.6281356125521959</v>
       </c>
       <c r="DD6">
-        <v>0.6497046363344078</v>
+        <v>0.649957086481602</v>
       </c>
       <c r="DE6">
-        <v>0.6734581221091166</v>
+        <v>0.6737436625680849</v>
       </c>
       <c r="DF6">
-        <v>0.6862329804501429</v>
+        <v>0.6865318136395704</v>
       </c>
       <c r="DG6">
-        <v>0.6988004278018684</v>
+        <v>0.6991121797008719</v>
       </c>
       <c r="DH6">
-        <v>0.7030368481833383</v>
+        <v>0.7033464955857043</v>
       </c>
       <c r="DI6">
-        <v>0.7053177948656788</v>
+        <v>0.7056218114973076</v>
       </c>
       <c r="DJ6">
-        <v>0.7053181223184619</v>
+        <v>0.7056218114973076</v>
       </c>
       <c r="DK6">
-        <v>0.7061911053734303</v>
+        <v>0.7064866248234979</v>
       </c>
       <c r="DL6">
-        <v>0.7067905895925067</v>
+        <v>0.7070774461177681</v>
       </c>
       <c r="DM6">
-        <v>0.7150120601684133</v>
+        <v>0.7153039983736103</v>
       </c>
       <c r="DN6">
-        <v>0.7240703897011518</v>
+        <v>0.7243689186805081</v>
       </c>
       <c r="DO6">
-        <v>0.7382275519708739</v>
+        <v>0.7385418663670107</v>
       </c>
       <c r="DP6">
-        <v>0.7502954063483701</v>
+        <v>0.7506217385461516</v>
       </c>
       <c r="DQ6">
-        <v>0.7571692489937923</v>
+        <v>0.7574982327158548</v>
       </c>
       <c r="DR6">
-        <v>0.7579344518143204</v>
+        <v>0.7582550714492509</v>
       </c>
       <c r="DS6">
-        <v>0.758040384518856</v>
+        <v>0.7583514512155154</v>
       </c>
       <c r="DT6">
-        <v>0.7589613801713477</v>
+        <v>0.7592643637195696</v>
       </c>
       <c r="DU6">
-        <v>0.7616207043341702</v>
+        <v>0.7619187394336466</v>
       </c>
       <c r="DV6">
-        <v>0.7646383275785102</v>
+        <v>0.7649320603441809</v>
       </c>
       <c r="DW6">
-        <v>0.7781320398824555</v>
+        <v>0.778440361676312</v>
       </c>
       <c r="DX6">
-        <v>0.7868496764327682</v>
+        <v>0.7871639746346382</v>
       </c>
       <c r="DY6">
-        <v>0.7908548722261656</v>
+        <v>0.7911666489678374</v>
       </c>
       <c r="DZ6">
-        <v>0.7938679480707401</v>
+        <v>0.7941754142783538</v>
       </c>
       <c r="EA6">
-        <v>0.793982230054845</v>
+        <v>0.7942801583803085</v>
       </c>
       <c r="EB6">
-        <v>0.7940541546411349</v>
+        <v>0.7943424687020376</v>
       </c>
       <c r="EC6">
-        <v>0.794200518403585</v>
+        <v>0.7944793524348895</v>
       </c>
       <c r="ED6">
-        <v>0.7948687809691135</v>
+        <v>0.7951390761024919</v>
       </c>
       <c r="EE6">
-        <v>0.7973194383426997</v>
+        <v>0.7975844087418861</v>
       </c>
       <c r="EF6">
-        <v>0.8001694982956833</v>
+        <v>0.8004298641968902</v>
       </c>
       <c r="EG6">
-        <v>0.8049071360512987</v>
+        <v>0.8051663012930536</v>
       </c>
       <c r="EH6">
-        <v>0.8069080913480822</v>
+        <v>0.807161120915162</v>
       </c>
       <c r="EI6">
-        <v>0.806909800110894</v>
+        <v>0.807161120915162</v>
       </c>
       <c r="EJ6">
-        <v>0.8069690696438366</v>
+        <v>0.8072107533628909</v>
       </c>
       <c r="EK6">
-        <v>0.8071933450122677</v>
+        <v>0.807425689198463</v>
       </c>
       <c r="EL6">
-        <v>0.8071984711424033</v>
+        <v>0.807425689198463</v>
       </c>
       <c r="EM6">
-        <v>0.8082883993861808</v>
+        <v>0.8085078389272131</v>
       </c>
       <c r="EN6">
-        <v>0.8088677789162942</v>
+        <v>0.80907851927806</v>
       </c>
       <c r="EO6">
-        <v>0.8102321436459153</v>
+        <v>0.8104356003795307</v>
       </c>
       <c r="EP6">
-        <v>0.8109057688111673</v>
+        <v>0.8111006963171458</v>
       </c>
       <c r="EQ6">
-        <v>0.8110092525758292</v>
+        <v>0.8111946227274029</v>
       </c>
       <c r="ER6">
-        <v>0.8126271673923713</v>
+        <v>0.8128057111385661</v>
       </c>
       <c r="ES6">
-        <v>0.8163064774025791</v>
+        <v>0.8164819120240129</v>
       </c>
       <c r="ET6">
-        <v>0.8238506400134238</v>
+        <v>0.8240299349362924</v>
       </c>
       <c r="EU6">
-        <v>0.8298407510044321</v>
+        <v>0.8300211038325802</v>
       </c>
       <c r="EV6">
-        <v>0.8337755068014631</v>
+        <v>0.8339532111461067</v>
       </c>
       <c r="EW6">
-        <v>0.8353430226206049</v>
+        <v>0.8355138096761726</v>
       </c>
       <c r="EX6">
-        <v>0.8358805493928773</v>
+        <v>0.8360425617967769</v>
       </c>
       <c r="EY6">
-        <v>0.8359661379184623</v>
+        <v>0.836118560697762</v>
       </c>
       <c r="EZ6">
-        <v>0.836301191851179</v>
+        <v>0.8364444748628134</v>
       </c>
       <c r="FA6">
-        <v>0.8387436569251878</v>
+        <v>0.8388816004295887</v>
       </c>
       <c r="FB6">
-        <v>0.8431564606975593</v>
+        <v>0.8432926177746392</v>
       </c>
       <c r="FC6">
-        <v>0.8519701612429166</v>
+        <v>0.8521124679586588</v>
       </c>
       <c r="FD6">
-        <v>0.8609734032784966</v>
+        <v>0.8611222014300055</v>
       </c>
       <c r="FE6">
-        <v>0.8653958390503713</v>
+        <v>0.865542868143788</v>
       </c>
       <c r="FF6">
-        <v>0.8665029216932639</v>
+        <v>0.8666422032059038</v>
       </c>
       <c r="FG6">
-        <v>0.8666027650781136</v>
+        <v>0.8667324826717108</v>
       </c>
       <c r="FH6">
-        <v>0.8666382819942815</v>
+        <v>0.8667583196699552</v>
       </c>
       <c r="FI6">
-        <v>0.8672304084137374</v>
+        <v>0.867341769896404</v>
       </c>
       <c r="FJ6">
-        <v>0.8698218431800618</v>
+        <v>0.8699281337901321</v>
       </c>
       <c r="FK6">
-        <v>0.8742779919501975</v>
+        <v>0.8743825742962802</v>
       </c>
       <c r="FL6">
-        <v>0.8815937385728247</v>
+        <v>0.8817017693214844</v>
       </c>
       <c r="FM6">
-        <v>0.8872178752827113</v>
+        <v>0.8873263039811474</v>
       </c>
       <c r="FN6">
-        <v>0.8904578071155839</v>
+        <v>0.8905623343656969</v>
       </c>
       <c r="FO6">
-        <v>0.8918796912422379</v>
+        <v>0.891977038587999</v>
       </c>
       <c r="FP6">
-        <v>0.8919987947620941</v>
+        <v>0.8920866129203024</v>
       </c>
       <c r="FQ6">
-        <v>0.8925365903343526</v>
+        <v>0.8926156343256156</v>
       </c>
       <c r="FR6">
-        <v>0.8927457989235609</v>
+        <v>0.8928154762122856</v>
       </c>
       <c r="FS6">
-        <v>0.8946138287272011</v>
+        <v>0.8946771306388587</v>
       </c>
       <c r="FT6">
-        <v>0.8962380452434181</v>
+        <v>0.89629453211345</v>
       </c>
       <c r="FU6">
-        <v>0.8983669314336025</v>
+        <v>0.8984175133246706</v>
       </c>
       <c r="FV6">
-        <v>0.9017096705611718</v>
+        <v>0.9017565363946489</v>
       </c>
       <c r="FW6">
-        <v>0.9055804821615012</v>
+        <v>0.905624584201938</v>
       </c>
       <c r="FX6">
-        <v>0.9093782219656</v>
+        <v>0.909419428443808</v>
       </c>
       <c r="FY6">
-        <v>0.9113203463654181</v>
+        <v>0.911355311080146</v>
       </c>
       <c r="FZ6">
-        <v>0.912224182218795</v>
+        <v>0.9122510328410972</v>
       </c>
       <c r="GA6">
-        <v>0.9123103463093504</v>
+        <v>0.9123276083449596</v>
       </c>
       <c r="GB6">
-        <v>0.9132363753115824</v>
+        <v>0.9132455632753125</v>
       </c>
       <c r="GC6">
-        <v>0.9157008269844571</v>
+        <v>0.9157047150890318</v>
       </c>
       <c r="GD6">
-        <v>0.9228021336181459</v>
+        <v>0.9228090834291334</v>
       </c>
       <c r="GE6">
-        <v>0.9337129420553267</v>
+        <v>0.9337298231857254</v>
       </c>
       <c r="GF6">
-        <v>0.9450362984712268</v>
+        <v>0.9450638548621354</v>
       </c>
       <c r="GG6">
-        <v>0.953222963048929</v>
+        <v>0.9532555383546792</v>
       </c>
       <c r="GH6">
-        <v>0.9576198828221199</v>
+        <v>0.9576506430571902</v>
       </c>
       <c r="GI6">
-        <v>0.9583625974838079</v>
+        <v>0.9583849530792131</v>
       </c>
       <c r="GJ6">
-        <v>0.9589656352527011</v>
+        <v>0.9589793343313591</v>
       </c>
       <c r="GK6">
-        <v>0.9642421873805174</v>
+        <v>0.9642556576152959</v>
       </c>
       <c r="GL6">
-        <v>0.9756927077898579</v>
+        <v>0.9757170825979192</v>
       </c>
       <c r="GM6">
-        <v>0.9860770882541938</v>
+        <v>0.9861104450826158</v>
       </c>
       <c r="GN6">
-        <v>0.9927262235112072</v>
+        <v>0.9927618266527105</v>
       </c>
       <c r="GO6">
-        <v>0.9956150988621885</v>
+        <v>0.995646167500892</v>
       </c>
       <c r="GP6">
-        <v>0.9976364801579183</v>
+        <v>0.9976614499558204</v>
       </c>
       <c r="GQ6">
-        <v>0.9987073546026787</v>
+        <v>0.9987245115261457</v>
       </c>
       <c r="GR6">
-        <v>0.9988226480607314</v>
+        <v>0.9988302689260229</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>129</v>
       </c>
       <c r="E2">
-        <v>0.001508937016090578</v>
+        <v>0.01021026693757221</v>
       </c>
       <c r="F2">
-        <v>0.5008547351541298</v>
+        <v>0.5008108324221349</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>120</v>
       </c>
       <c r="E3">
-        <v>0.002599028523474619</v>
+        <v>0.002012957148406187</v>
       </c>
       <c r="F3">
-        <v>0.5032293573268382</v>
+        <v>0.5031629826438982</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>122</v>
       </c>
       <c r="E4">
-        <v>0.001975553960472451</v>
+        <v>0.001541375082574728</v>
       </c>
       <c r="F4">
-        <v>0.5007095257552027</v>
+        <v>0.5006467137923332</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.002925223205181372</v>
+        <v>0.005480251619680953</v>
       </c>
       <c r="F5">
-        <v>0.5060674489674581</v>
+        <v>0.5060246075530759</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>98</v>
       </c>
       <c r="E6">
-        <v>0.0626444454130064</v>
+        <v>0.07767267979109092</v>
       </c>
       <c r="F6">
-        <v>0.510806450729281</v>
+        <v>0.510896123709543</v>
       </c>
       <c r="G6">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>147</v>
       </c>
       <c r="E2">
-        <v>0.001508937016090578</v>
+        <v>0.01021026693757221</v>
       </c>
       <c r="F2">
-        <v>0.7295761336331565</v>
+        <v>0.7295791892894283</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>146</v>
       </c>
       <c r="E3">
-        <v>0.002599028523474619</v>
+        <v>0.002012957148406187</v>
       </c>
       <c r="F3">
-        <v>0.718108902741242</v>
+        <v>0.7181517238062217</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>145</v>
       </c>
       <c r="E4">
-        <v>0.001975553960472451</v>
+        <v>0.001541375082574728</v>
       </c>
       <c r="F4">
-        <v>0.7011367348498517</v>
+        <v>0.7011534588714401</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.002925223205181372</v>
+        <v>0.005480251619680953</v>
       </c>
       <c r="F5">
-        <v>0.7205683039226973</v>
+        <v>0.7205740784940241</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>111</v>
       </c>
       <c r="E6">
-        <v>0.0626444454130064</v>
+        <v>0.07767267979109092</v>
       </c>
       <c r="F6">
-        <v>0.7030368481833383</v>
+        <v>0.7033464955857043</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.001508937016090578</v>
+        <v>0.01021026693757221</v>
       </c>
       <c r="F2">
-        <v>0.8092978490846492</v>
+        <v>0.8093159086980178</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>154</v>
       </c>
       <c r="E3">
-        <v>0.002599028523474619</v>
+        <v>0.002012957148406187</v>
       </c>
       <c r="F3">
-        <v>0.8193040782716592</v>
+        <v>0.8194353257239773</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>153</v>
       </c>
       <c r="E4">
-        <v>0.001975553960472451</v>
+        <v>0.001541375082574728</v>
       </c>
       <c r="F4">
-        <v>0.8050951133510994</v>
+        <v>0.8051803026863026</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>153</v>
       </c>
       <c r="E5">
-        <v>0.002925223205181372</v>
+        <v>0.005480251619680953</v>
       </c>
       <c r="F5">
-        <v>0.8214025725022605</v>
+        <v>0.8214322118712071</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>135</v>
       </c>
       <c r="E6">
-        <v>0.0626444454130064</v>
+        <v>0.07767267979109092</v>
       </c>
       <c r="F6">
-        <v>0.8001694982956833</v>
+        <v>0.8004298641968902</v>
       </c>
       <c r="G6">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>166</v>
       </c>
       <c r="E2">
-        <v>0.001508937016090578</v>
+        <v>0.01021026693757221</v>
       </c>
       <c r="F2">
-        <v>0.9082816681759783</v>
+        <v>0.9083121428779963</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>166</v>
       </c>
       <c r="E3">
-        <v>0.002599028523474619</v>
+        <v>0.002012957148406187</v>
       </c>
       <c r="F3">
-        <v>0.9140656896306036</v>
+        <v>0.9142362613277943</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>164</v>
       </c>
       <c r="E4">
-        <v>0.001975553960472451</v>
+        <v>0.001541375082574728</v>
       </c>
       <c r="F4">
-        <v>0.9004033591877899</v>
+        <v>0.9005323970431027</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>164</v>
       </c>
       <c r="E5">
-        <v>0.002925223205181372</v>
+        <v>0.005480251619680953</v>
       </c>
       <c r="F5">
-        <v>0.9085895331821768</v>
+        <v>0.9086308649197565</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>177</v>
       </c>
       <c r="E6">
-        <v>0.0626444454130064</v>
+        <v>0.07767267979109092</v>
       </c>
       <c r="F6">
-        <v>0.9017096705611718</v>
+        <v>0.9017565363946489</v>
       </c>
       <c r="G6">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6">
         <v>46</v>

--- a/on_trucks/Processed_Stand_Alone/46_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/46_225-80R17.xlsx
@@ -1994,7 +1994,7 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.279852922075923E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2006,94 +2006,94 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.053196108841216E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.117586684406906E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.840372508758617E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.21239211740598E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.615626480059342E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.104884230072721E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.625232950751535E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.1283581670793E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.399583828692841E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.171155760357074E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.409026437163627E-07</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.288675431642551E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.0306335986711E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.117586684406906E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.027536850740507E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>2.80041958987172E-07</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>7.92864302921172E-06</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>7.92864302921172E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>5.795366850911927E-07</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>2.427076294121473E-06</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>8.195155111950833E-06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.735449549567938E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.055503918621681E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.094227908589145E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.671831581476607E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.213855919239054E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.070052754577708E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>7.705791359249326E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -2105,133 +2105,133 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>4.501273116527716E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>6.404604020717081E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>7.805038294897459E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.444550022251248E-07</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.240779623708185E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.80041958987172E-07</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.110345278439425E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>7.969277373741227E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>2.454014403675815E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>2.796351463762545E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>5.236173557341276E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>4.72976728837741E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>6.16523512992945E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>2.569922831078976E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.288675431642551E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>3.667938947140243E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>5.319501573373423E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>4.192049365932982E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>2.454014403675815E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>4.012805380133325E-06</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>2.003711049877541E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>8.026104844685813E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>6.312970682782463E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1.96431604285265E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>1.055503918621681E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>5.846661058532055E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>6.523428967695139E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>5.117586684406906E-06</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>2.076327284491126E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>9.895745455699339E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0001009478672023358</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>4.72976728837741E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>4.809125102869213E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1.455553742174458E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2.279852922075923E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>2.279852922075923E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
         <v>0</v>
       </c>
       <c r="CC2">
-        <v>3.742414228024882E-06</v>
+        <v>0</v>
       </c>
       <c r="CD2">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="CF2">
-        <v>5.00919472042741E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
         <v>0</v>
@@ -2249,349 +2249,349 @@
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>1.704189714380008E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>8.689377579851255E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>1.070052754577708E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>1.110345278439425E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.008848494201491251</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.0556786779546316</v>
+        <v>0.229422025370109</v>
       </c>
       <c r="CP2">
-        <v>0.08538905616114399</v>
+        <v>0.4949547503363898</v>
       </c>
       <c r="CQ2">
-        <v>0.02522258349916409</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.003459335848235891</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.01765257817440962</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>1.213855919239054E-05</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.003650902474111236</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.0437442709310007</v>
+        <v>0.1227597810925586</v>
       </c>
       <c r="CW2">
-        <v>0.04624248283705388</v>
+        <v>0.1450872321383384</v>
       </c>
       <c r="CX2">
-        <v>0.001724725905061529</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.0292159392132753</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0009137582213770119</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.0005298844081970939</v>
+        <v>0</v>
       </c>
       <c r="DB2">
         <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0003820494602561333</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.0001620424244920278</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.0212240209469614</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.0198551357100616</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.001611275955537718</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>8.676961606827645E-05</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.004009329904338547</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.004768558423326454</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.002721088535926788</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.01602222663600672</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.01527843406613902</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.0008179569521004837</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.002724824454761842</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.01561302818285128</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.02876971769042421</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.00104205831322249</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0008014686414809811</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>2.667546993864093E-05</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001788531629433627</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.004268592427875167</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.002178538207571019</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.002287766466775199</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.01101169284286668</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.01971244833929214</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.02342107453963944</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.01521580095571713</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.009281682123286823</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>5.920581163431291E-05</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>3.546432053394986E-05</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>6.444550022251248E-07</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.001158004443935482</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.009115568482694807</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.02433343561670368</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.01617073806275478</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0197541660662718</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.01951330803979708</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.002335201211947535</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0004407513629030601</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.00425839722881788</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.02288511133663714</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.03087879322553611</v>
+        <v>0.007776211062604341</v>
       </c>
       <c r="ER2">
-        <v>0.02991100958348004</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.02444548317116112</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.008691363732092613</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.004397454117973203</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.0007792617421143821</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.002048945859539839</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.0108953117586086</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.02847889902709972</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.02552124493110285</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.007175818121894215</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.01252583135633895</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.001550229705301136</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.000529585552696646</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.0001517470800819392</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.003046398375150664</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0001711856922018628</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.009108736070751513</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01253043598184041</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.010523381461668</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.01616163985095036</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.008237671571995184</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0004327607921124251</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>7.264687653063832E-05</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.001292190113477645</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.003033250933907866</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.001966839874902996</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.01156416787479079</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.008142136346636126</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.004242851741028896</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.004782191736089143</v>
+        <v>0</v>
       </c>
       <c r="FV2">
         <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0001445002618470464</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>3.791391527741973E-05</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.001968665319312091</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.00154297784528642</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.002540390946983545</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.005454175656432842</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.001570790163449435</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>2.952266304025972E-05</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>2.735097140072931E-05</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0005433148493430769</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0001579341041937042</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.0007342517929311861</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0009317514732632214</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.001300779745745915</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0006191149078939849</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0002276303680140598</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.002641599775209013</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.004741350318459741</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.01008159350393151</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.006812883600596554</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.004749116059882257</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0009219106993232868</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0001416303187143275</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.62320068019227E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002967544539095746</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.000275314011560462</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001861521682405421</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.362735875611533E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.994843877333659E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.728188303082799E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.927332127434376E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2815,31 +2815,31 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>3.14282671751894E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>8.237176992931731E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>7.618564707463464E-07</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>2.395591129566296E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>3.414057164693818E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>3.313304187588511E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>4.567150710007199E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>7.625416900324444E-06</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -2851,25 +2851,25 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.105361476344454E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.018081650020449E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.625416900324444E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.773434726270463E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>7.921253140357923E-06</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -2878,19 +2878,19 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.125296310713511E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>9.89962375214615E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>9.514652913295866E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.737007952790745E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>1.460201797856776E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>1.828745002636841E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>5.427219207288799E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -2923,25 +2923,25 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>3.515982957560114E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>2.627745246674082E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>5.604277827478789E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>7.277220531518766E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>1.837539868799075E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>8.769332854304976E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="BL3">
-        <v>5.769143130233632E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1.703001303902801E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>5.427219207288799E-06</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -2974,19 +2974,19 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>4.747591955619031E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>5.168455924870833E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>4.017888105258118E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>8.921016625405015E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>4.230714551168015E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="CA3">
-        <v>7.921253140357923E-06</v>
+        <v>0</v>
       </c>
       <c r="CB3">
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>2.61778597849447E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>3.318671454866039E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
         <v>0</v>
@@ -3019,352 +3019,352 @@
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>1.175623046609122E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>3.696333855591759E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>2.395591129566296E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>4.814664616892115E-07</v>
+        <v>0</v>
       </c>
       <c r="CM3">
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.001242810990192551</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.08961091876581161</v>
+        <v>0.3345708654244673</v>
       </c>
       <c r="CP3">
-        <v>0.05347479143576287</v>
+        <v>0.1316197857808999</v>
       </c>
       <c r="CQ3">
-        <v>0.04108388123849054</v>
+        <v>0.06202880334566283</v>
       </c>
       <c r="CR3">
-        <v>0.01322378857427043</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.009696206369672158</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.006577332077755102</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.007888194033252369</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01687725039962747</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.06601630764364433</v>
+        <v>0.2020566157020824</v>
       </c>
       <c r="CX3">
-        <v>0.001451177951662212</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.06280139617775145</v>
+        <v>0.1840007308807201</v>
       </c>
       <c r="CZ3">
-        <v>0.002577762895934269</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.001194323587407447</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.002079378499282362</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.01309073122890387</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.000118826032924873</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.003284810538027228</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.04530274863767476</v>
+        <v>0.08572319886616737</v>
       </c>
       <c r="DG3">
-        <v>0.001970594704065451</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.000198513530171567</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0001110131307727541</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.008230612363797872</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>4.518442145961504E-05</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.005628298558655875</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.01144557791804253</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>7.618564707463464E-07</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.001904216176640157</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.01066379289457552</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.02335882286279206</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.005167054129077515</v>
+        <v>0</v>
       </c>
       <c r="DS3">
         <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0008633110178461657</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>5.480740032024641E-05</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.002239325568243023</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.0007023031360781355</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.003002600956750935</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.003657724983103245</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.01438060219622255</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.03003824550856896</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.01431506414168568</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.003981222607216157</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>8.731379358355286E-05</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0004352428106778575</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0007704085342974612</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>2.963045449962377E-05</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.003538459165803178</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.01696835421510335</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.01809541724030693</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.02106675383361473</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.02512340325437265</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.001643819025344129</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.001043897370486176</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.004364572999112708</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.01642474123886078</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.02699446558114767</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.02522672903407739</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.02520240730522923</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.009998125546008041</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.007011780136227973</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.002390957855245263</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0006350840856826194</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.006407970129859083</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.02441054782542604</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0261110395299701</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.009096300440501666</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.01021651227448041</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.002762620555632146</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.001059578485138285</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.0001711442432244426</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.003186351207528025</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.000441150670998653</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.006027760067601145</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.01221199784306086</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.008423903098682774</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0150925771869986</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.008303780882479605</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.0007973774372287516</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0003771705913692083</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0012043958401441</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.002397651789595494</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001790154259762534</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.009563542667310193</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.008372224683470174</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.004119565586514503</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.005543588587341497</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0002952244947650881</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.0001182711665665528</v>
+        <v>0</v>
       </c>
       <c r="FX3">
         <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001014814264063976</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0008932996734570556</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001532557683125079</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.004060393730981545</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.002464404628447793</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0006641588785248247</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0009656981943694635</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>3.345417443673485E-05</v>
+        <v>0</v>
       </c>
       <c r="GG3">
         <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0002450511179897112</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0002985800860274032</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.001744740477648853</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0007174204397611579</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>2.763275431352898E-05</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.002001126977660765</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.003789042887142159</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.01018335210829775</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0054753233780754</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.004818927474147461</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.001938828214413523</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>1.198354277424261E-05</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,16 +3540,16 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.94441956915066E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.633827217582478E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6.349868715835824E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8.627882889993417E-07</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3558,31 +3558,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.054991541104626E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.999252857488483E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.336902903236328E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.417071281331425E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.321699981643702E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>3.472630215463903E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3591,28 +3591,28 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>3.072908513775176E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>7.268252668245505E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>4.901875184484557E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3.774982389409236E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>7.061380473325243E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1.041422878847973E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.041422878847973E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>9.33061469862184E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>6.102804689331546E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1.825936164157427E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -3660,46 +3660,46 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3.317915041686969E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>4.820376143925725E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>8.64511289511611E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>4.556660650807151E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>3.333211796082344E-07</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>2.650891628985523E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>2.937730991409737E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>3.957036699005523E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>2.588617818030552E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>2.540184878850942E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>6.165659141297057E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>2.774696967517217E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>3.676265107727845E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0001083442670855182</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>8.486452075696463E-06</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>4.79134154036036E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1.645293534576421E-06</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -3741,64 +3741,64 @@
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1.466116799530432E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.208131125367499E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>1.339832460784669E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>2.625178628400795E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>3.482139882749826E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>3.427486340541175E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>5.142446784467492E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001176360450652515</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>6.54708541992816E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>5.936381281793825E-06</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>1.190597258624502E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>4.360236189548922E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>2.351225301418202E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>4.7405311217848E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>5.060084566656764E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>4.434406157909265E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>2.811021897170014E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
@@ -3810,334 +3810,334 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.001308659190530109</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1200439159080211</v>
+        <v>0.4951269230068325</v>
       </c>
       <c r="CP4">
-        <v>0.04159687047431352</v>
+        <v>0.06362992361132581</v>
       </c>
       <c r="CQ4">
-        <v>0.03672825041616343</v>
+        <v>0.03685013943113207</v>
       </c>
       <c r="CR4">
-        <v>0.001563919170893323</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.01062580035453801</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.003327279815037194</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.006503748774256825</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.016980403855157</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.1021992943412343</v>
+        <v>0.3969728036407473</v>
       </c>
       <c r="CX4">
-        <v>0.001406612863454297</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.01295727800462755</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.0002927993538039647</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.001965118430998046</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.0004595649485726229</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.0003252212184885516</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.0004536722457718125</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.02187185808785216</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.02649988081539777</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.0007668057403751303</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0003492272676607599</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.008304840221158072</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.005952528376664278</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.001711885262707837</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01297685229964795</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.01852699742866499</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0004481789482961768</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.006051207613068661</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.006416561614368334</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.02661711333173065</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.001957494357724026</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.00191549797858005</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0001099443312934773</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.002577311491071905</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.005578593163016393</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.0009368966225091468</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.002550417585112692</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.007027469344794238</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.01539356438572399</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.02320333165086123</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.009649482455969277</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.01775248769840851</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.001555521276708798</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0006209686822857917</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>2.326694007161159E-05</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0009440803116898896</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.01233442676043832</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.02827265656429037</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.01292106691044833</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.008638901781880705</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.02185899377826609</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.005354142247973924</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.001745384729827919</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0004374255708929619</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.02102041079557133</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.03048395519146193</v>
+        <v>0.002503471077952243</v>
       </c>
       <c r="ER4">
-        <v>0.03092269232472195</v>
+        <v>0.004916739232009915</v>
       </c>
       <c r="ES4">
-        <v>0.02552115004531355</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.007168751982749167</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.003244491690362282</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.0006305748644323326</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0006964235197460019</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.005358804196075454</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.02055505798747001</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.02555133096308707</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.008304840221158072</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.01122448383710392</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.00493544236068401</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0003963361911528463</v>
+        <v>0</v>
       </c>
       <c r="FE4">
         <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.002360003777025911</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0001332519592870613</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.005114687677347762</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.01677665938248337</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.009956281572141469</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01086118247861796</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.008544661628349907</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0003369621711875635</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>1.107746659599977E-05</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.00035203560981882</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.002968598654967202</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.001977291918448975</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.008668519028839614</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.007127295546181248</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.002569767012522151</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.002377480976329997</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>4.7405311217848E-06</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>4.466357883089188E-05</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0001484380820216653</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.001389118143298957</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.002023011328305594</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.002536595035141784</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.005540759237534497</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.002280174673829838</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>2.099155617770374E-05</v>
+        <v>0</v>
       </c>
       <c r="GE4">
         <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0006145521761159068</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>9.166100262917553E-05</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0007049457719267668</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.001826321250942362</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0009213824693914173</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0004105623114055688</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>2.456294041857709E-05</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.002159935979898455</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.003329608286109209</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.008388224455252205</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.004919048450583141</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.004698212537690442</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.00158069773876857</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>5.824135550144711E-05</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,40 +4313,40 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.89110042236805E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.873234483593606E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.79279918167552E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5.346058462173389E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.722620096327783E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.801558667085446E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.015794657752312E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.361796553506783E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.499255931916914E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -4355,19 +4355,19 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>3.398217579678669E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001051713100911878</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.700776734182668E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3.261918657393787E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001372183026988233</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -4376,64 +4376,64 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>3.486316726006728E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>3.417222257135678E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>5.795295080124758E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>2.668542200096163E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>8.657624349401976E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>7.719723536700883E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>2.720298635319939E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>3.092231736297863E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.370516022498314E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>6.639376899693452E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>8.392712778444691E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1.161807099540171E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.601835739536749E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1.728215091906732E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>3.120899798559207E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>5.167368447184859E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.565680876972919E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -4442,127 +4442,127 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.142889829413444E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>8.97573986948564E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>2.207827852930432E-07</v>
+        <v>0</v>
       </c>
       <c r="AV5">
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>2.520820291057277E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>8.392712778444691E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>8.743657768179645E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0001184918694030197</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>4.201563585690628E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.096060724363397E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.078094753078668E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>5.167368447184859E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>3.3407775125092E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0002235539654846312</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0001241292723813623</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>6.205324711784173E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>3.64658476261471E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>2.370516022498314E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>9.611129364374124E-07</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>3.128236308666708E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0001515682203475983</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0001704256273808088</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0002009045626278883</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>6.882655214710403E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>3.435844517690296E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>1.404385407350139E-06</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1.224884559683878E-06</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1.055988262974399E-07</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>1.5611488460515E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>4.86084936502073E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.685737243608005E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>8.183374768845466E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>1.291393967926609E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>8.371811882985617E-07</v>
+        <v>0</v>
       </c>
       <c r="CD5">
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>2.457885349387683E-06</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>3.80960766952247E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>9.753374926514602E-06</v>
+        <v>0</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -4574,343 +4574,343 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>1.224884559683878E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>5.843783974704487E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.002660523883449257</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.058277278263238</v>
+        <v>0.1598043256209966</v>
       </c>
       <c r="CO5">
-        <v>0.08224793621967508</v>
+        <v>0.2953190179444</v>
       </c>
       <c r="CP5">
-        <v>0.01584993868780876</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.001200281958646587</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.005126860100155698</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.0009982342601998254</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.00489128644629548</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.1132779575726819</v>
+        <v>0.4707428133230384</v>
       </c>
       <c r="CV5">
-        <v>0.01128095607322547</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.0005673368166552422</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.01256147245817259</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.002554916453621862</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.0004206844664472192</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0001034540795261387</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.0006905079027009265</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.003140424482570468</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.03746215099411831</v>
+        <v>0.04212897550446998</v>
       </c>
       <c r="DE5">
-        <v>0.01307631069190719</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.003128774902847304</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.003709039980657792</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.007112902356348104</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.004423445495144935</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.003620383205539398</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.02145314263458046</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.01566454962425776</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.005960217019389291</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.002558482816870274</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.01781207373507732</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.02384199776145683</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>3.315147176601062E-07</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.002302717078370012</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>6.576152339195725E-06</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.003136216255971</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.00353005204343431</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.001817473286982603</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.002420408166019111</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01431758397574476</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.02113745511068292</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.01656758413161126</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0114330514766718</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.01068930832520251</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.0002782760274797682</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>7.905476469544347E-05</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>3.862589107354364E-05</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.004113578359302948</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.01071166649857028</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.02990535650581585</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.008763971375879566</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.01872575361013436</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.01490947182227808</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002045110684664624</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.0006687834893594895</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.004449234576184849</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.02493210202193391</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.03510108626940684</v>
+        <v>0.02878103318655817</v>
       </c>
       <c r="EQ5">
-        <v>0.03058037445992303</v>
+        <v>0.003223834420536776</v>
       </c>
       <c r="ER5">
-        <v>0.01987170578453402</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.006501355443867753</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.002719459964420425</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0001144139362618456</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.00224850613608293</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01266894655387707</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0261533710982158</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.02496624202928764</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.007383873133345927</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.01552269742351011</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.0006031254004057999</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.0007299211736297067</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.0005209706430098011</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.002450817142562731</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.000159138796490396</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.01283952053892776</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.01107774969938408</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.01094459706799551</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.01418596947543824</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.006798213442171605</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0002768844065095577</v>
+        <v>0</v>
       </c>
       <c r="FM5">
         <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0009516774083207318</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.002042288026552084</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.002535379337709898</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.01113121663641215</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.005400624023157496</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.002461531938752187</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.00251342382955223</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0003246355684038605</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>4.936571933344432E-06</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>2.214180779481988E-05</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.002330762285079037</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.001471561162189192</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.002619479243183557</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.004273374922469399</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0004663379977015678</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0001353556084512664</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>4.689947565470541E-05</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0005036984563789961</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>3.615972202542505E-06</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.001792370987723395</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0016779460401437</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0008648468824968417</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0003834733690514503</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0004869966637759942</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.002480150677861984</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.005244296283219619</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.008420753556536691</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.004807821201217566</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.00397203588563367</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0006347443233801172</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>8.731649841429755E-05</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>1.637511476987432E-05</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,13 +5086,13 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>8.647000883636804E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.899547017797314E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.473852286729292E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5101,64 +5101,64 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.850509851567014E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3.049949267076379E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.860860582741936E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4.410843458056184E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>3.877320824593735E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.409910765581454E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>6.29166631353975E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.739963241895571E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001253276220100239</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2.364688507055984E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>3.529305702120557E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.684890880601486E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>7.59989009850721E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>2.899421318822875E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>9.438334874024916E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.202601639263984E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -5173,16 +5173,16 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>3.228561967500686E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.240849899251219E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1.040869550993286E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -5194,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>3.426437941554758E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.504543544215108E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.60598224613584E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -5209,481 +5209,481 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>2.685943661952557E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.60598224613584E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.006968694629272727</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.02179698585119947</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.02218289648507624</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.01050780648233121</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.009579322724232075</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.005686234418387172</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0002579961134849479</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.01100661332784891</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.03012873288220191</v>
+        <v>0.002350356369668123</v>
       </c>
       <c r="BB6">
-        <v>0.05064073119936863</v>
+        <v>0.5737115644363022</v>
       </c>
       <c r="BC6">
-        <v>0.00813922406629217</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.002948727643534768</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.002593294168127503</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.002102399364176688</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0001441375896952706</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1.110673396963839E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.03245845234545606</v>
+        <v>0.06724463465493977</v>
       </c>
       <c r="BK6">
-        <v>0.01775529085533968</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.000256979864250188</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0005814331457309861</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01384770224915196</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.003472766105618109</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.005222225007777628</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01333912682031754</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.01031109740868195</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1.177434065256083E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.005765391700415038</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.01556900857706186</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.01324458164028317</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.001038391264110704</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0003289581742262888</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>3.082087114763824E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.00258214229490783</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.008025517395836422</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.007458218866221635</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>5.720460150237629E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.004459370379853464</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01296589300454042</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0168232722345359</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01496602120802294</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01016008158225438</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.002801337343004365</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.001965241381679164</v>
+        <v>0</v>
       </c>
       <c r="CK6">
         <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.003021301375261899</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.008688790277976569</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.02232648494234063</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.01365566708848231</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.01087313005978725</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.01775650403905382</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.005871380979671901</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.003565083876346113</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.003220182658859435</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.02077365486939147</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.03977892509654946</v>
+        <v>0.2711562228878184</v>
       </c>
       <c r="CW6">
-        <v>0.03311516041101592</v>
+        <v>0.08553722165127156</v>
       </c>
       <c r="CX6">
-        <v>0.02535410461645427</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.006548615993458553</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.002904441529132952</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.0002532702269536574</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0007002299784092995</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.008584740990678769</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.0218214739294062</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.02378657608648298</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.0127881510714855</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.01258036606130157</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.004234315884832395</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.002275315911603301</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
         <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0008648133261902235</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0005908212942702931</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.008226552255842115</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.009064920306897836</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01417294768650252</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01207987217914092</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.006876494169703208</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0007568387333960757</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>9.637976626455979E-05</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.000912912504054258</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.002654375714076999</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.00301332091053425</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01350830133213109</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.008723612958326183</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.004002674333199278</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.003008765310516361</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0001047441019547041</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>6.231032172913733E-05</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0001368837328519024</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.0006597236676023935</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.002445332639394126</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.002845455455004149</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.004736437096163355</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.00199481962210846</v>
+        <v>0</v>
       </c>
       <c r="EI6">
         <v>0</v>
       </c>
       <c r="EJ6">
-        <v>4.963244772887575E-05</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.00021493583557209</v>
+        <v>0</v>
       </c>
       <c r="EL6">
         <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.001082149728750146</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0005706803508468736</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.001357081101470704</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0006650959376151334</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>9.39264102572128E-05</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.001611088411163236</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.003676200885446747</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.007548022912279522</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.005991168896287783</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.003932107313526472</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.001560598530065994</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.0005287521206043801</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>7.59989009850721E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0003259141650512972</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.002437125566775365</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.004411017345050403</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.008819850184019658</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.009009733471346648</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.004420666713782493</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.001099335062115779</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>9.02794658069503E-05</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>2.583699824439742E-05</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0005834502264487631</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.00258636389372812</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.004454440506148043</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.007319195025204226</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.005624534659663116</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.003236030384549498</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.001414704222302164</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0001095743323034427</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0005290214053131825</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0001998418866699627</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.001861654426573003</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.00161740147459129</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.00212298121122061</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.003339023069978346</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.003868047807289079</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.003794844241869895</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001935882636338033</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0008957217609511714</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>7.657550386238583E-05</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0009179549303528116</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.002459151813719404</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.007104368340101493</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.01092073975659205</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.01133403167641001</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.008191683492543822</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.004395104702510896</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0007343100220229181</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0005943812521459078</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.005276323283936759</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.01146142498262342</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0103933624846966</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.006651381570094673</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.002884340848181433</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.002015282454928403</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.001063061570325363</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0001057573998771421</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.001169731073976857</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>2.279852922075923E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.279852922075923E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.279852922075923E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.279852922075923E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.333049030917139E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.450635715324045E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.329100822408266E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.541492939814246E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.157119419873588E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.86760784288086E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.830131137956014E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001195848930503531</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001635807313372816</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001852922889408523</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001856331915845686</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001985199459009942</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0002488262818877052</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0002539438685721121</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002539438685721121</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002559714054228526</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0002562514473818398</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002641800904110515</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002721087334402632</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0002726882701253544</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0002751153464194759</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0002833105015314267</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0003006649970271061</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0003112200362133229</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0003143142641219121</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0003143142641219121</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0003159860957033887</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0003281246548957793</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0003388251824415563</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0003465309738008057</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0003465309738008057</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0003465309738008057</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0003465309738008057</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0003510322469173334</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0003574368509380505</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0003574368509380505</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0003582173547675402</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0003588618097697654</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0003712696060068472</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0003715496479658344</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0003715496479658344</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0003826531007502286</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0003906223781239699</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0003906223781239699</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0003930763925276457</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0004210399071652712</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0004734016427386839</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.000520699315622458</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0005823516669217525</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0006080508952325422</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0006209376495489678</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0006576170390203703</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0007108120547541045</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0007527325484134343</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0007551865628171101</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0007551865628171101</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0007591993681972434</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0007792364786960188</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.000859497527142877</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0009226272339707016</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0009422703943992282</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0009528254335854449</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0009586720946439769</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0009586720946439769</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0009651955236116721</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.000970313110296079</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0009910763831409903</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.001090033837697984</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.00119098170490032</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.001238279377784094</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.001286370628812786</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.00130092616623453</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.001303206019156606</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.001305485872078682</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001305485872078682</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.001309228286306707</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001309228286306707</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.001309228286306707</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.001314237481027134</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001314237481027134</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001314237481027134</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001331279378170934</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001339968755750785</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.001350669283296562</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001361772736080957</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001361772736080957</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01021026693757221</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.0658889448922038</v>
+        <v>0.229422025370109</v>
       </c>
       <c r="CP2">
-        <v>0.1512780010533478</v>
+        <v>0.7243767757064987</v>
       </c>
       <c r="CQ2">
-        <v>0.1765005845525119</v>
+        <v>0.7243767757064987</v>
       </c>
       <c r="CR2">
-        <v>0.1799599204007478</v>
+        <v>0.7243767757064987</v>
       </c>
       <c r="CS2">
-        <v>0.1976124985751574</v>
+        <v>0.7243767757064987</v>
       </c>
       <c r="CT2">
-        <v>0.1976246371343498</v>
+        <v>0.7243767757064987</v>
       </c>
       <c r="CU2">
-        <v>0.201275539608461</v>
+        <v>0.7243767757064987</v>
       </c>
       <c r="CV2">
-        <v>0.2450198105394617</v>
+        <v>0.8471365567990574</v>
       </c>
       <c r="CW2">
-        <v>0.2912622933765156</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="CX2">
-        <v>0.2929870192815771</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="CY2">
-        <v>0.3222029584948524</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="CZ2">
-        <v>0.3231167167162294</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DA2">
-        <v>0.3236466011244265</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DB2">
-        <v>0.3236466011244265</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DC2">
-        <v>0.3240286505846826</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DD2">
-        <v>0.3241906930091746</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DE2">
-        <v>0.345414713956136</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DF2">
-        <v>0.3652698496661976</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DG2">
-        <v>0.3668811256217354</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DH2">
-        <v>0.3669678952378037</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DI2">
-        <v>0.3709772251421422</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DJ2">
-        <v>0.3757457835654687</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DK2">
-        <v>0.3784668721013955</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DL2">
-        <v>0.3944890987374022</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DM2">
-        <v>0.4097675328035412</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DN2">
-        <v>0.4105854897556416</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DO2">
-        <v>0.4133103142104035</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DP2">
-        <v>0.4289233423932547</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DQ2">
-        <v>0.4576930600836789</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DR2">
-        <v>0.4587351183969015</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DS2">
-        <v>0.4595365870383825</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DT2">
-        <v>0.4595632625083211</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DU2">
-        <v>0.4613517941377547</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DV2">
-        <v>0.4656203865656299</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DW2">
-        <v>0.4677989247732009</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DX2">
-        <v>0.4700866912399761</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DY2">
-        <v>0.4810983840828428</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="DZ2">
-        <v>0.5008108324221349</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EA2">
-        <v>0.5242319069617744</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EB2">
-        <v>0.5394477079174915</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EC2">
-        <v>0.5487293900407784</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="ED2">
-        <v>0.5487885958524127</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EE2">
-        <v>0.5488240601729466</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EF2">
-        <v>0.5488247046279489</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EG2">
-        <v>0.5499827090718843</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EH2">
-        <v>0.5590982775545791</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EI2">
-        <v>0.5834317131712827</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EJ2">
-        <v>0.5996024512340375</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EK2">
-        <v>0.6193566173003093</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EL2">
-        <v>0.6388699253401064</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EM2">
-        <v>0.641205126552054</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EN2">
-        <v>0.6416458779149571</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EO2">
-        <v>0.645904275143775</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EP2">
-        <v>0.6687893864804122</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="EQ2">
-        <v>0.6996681797059483</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7295791892894283</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.7540246724605895</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.762716036192682</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7671134903106552</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7678927520527696</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7699416979123095</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.7808370096709181</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8093159086980178</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8348371536291207</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8420129717510149</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8545388031073539</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.856089032812655</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8566186183653517</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8567703654454336</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8598167638205843</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8599879495127861</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8690966855835376</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.881627121565378</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.892150503027046</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9083121428779963</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9165498144499915</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9169825752421039</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9170552221186345</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9183474122321122</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9213806631660201</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9233475030409231</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9349116709157138</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9430538072623499</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9472966590033788</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.952078850739468</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.952078850739468</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9522233510013151</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9522612649165925</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9542299302359045</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.955772908081191</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9583132990281745</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9637674746846073</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9653382648480567</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.965367787511097</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9653951384824977</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9659384533318408</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9660963874360345</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9668306392289657</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9677623907022289</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9690631704479749</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9696822853558689</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.969909915723883</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.972551515499092</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9772928658175518</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9873744593214833</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9941873429220798</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.998936458981962</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9998583696812853</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.62320068019227E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003729864607114973</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0006483004722719594</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0008344526405125015</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.000839815376388113</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000839815376388113</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.000839815376388113</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.000839815376388113</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0008468102202654466</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0008535384085685294</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0008535384085685294</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0008535384085685294</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0008535384085685294</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0009128117298428732</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0009128117298428732</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0009128117298428732</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0009159545565603921</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0009983263264897095</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0009990881829604558</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0009990881829604558</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001023044094256119</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001057184665903057</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001090317707778942</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001135989214879014</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001143614631779339</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001143614631779339</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.001143614631779339</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.001143614631779339</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.001154668246542783</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.001184849063042988</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.001192474479943312</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.001192474479943312</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.001220208827206017</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.001220208827206017</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.001228130080346375</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.001228130080346375</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.001228130080346375</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.00124938304345351</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.001259282667205656</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.001259282667205656</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.001268797320118952</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.001286167399646859</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.001286167399646859</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.001286167399646859</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.001286167399646859</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.001300769417625427</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.001319056867651796</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.001319056867651796</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.001319056867651796</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.001324484086859084</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.001324484086859084</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.001324484086859084</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001359643916434686</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.001385921368901426</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.001441964147176214</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.001514736352491402</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001514736352491402</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.001533111751179393</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.001620805079722443</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.001620805079722443</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.001620805079722443</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.001620805079722443</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.001678496511024779</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001695526524063807</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.001700953743271096</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001700953743271096</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.001700953743271096</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.001700953743271096</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.001700953743271096</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001748429662827286</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001800114222075994</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001804132110181253</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001893342276435303</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001935649421946983</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001935649421946983</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001935649421946983</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001935649421946983</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001943570675087341</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.001943570675087341</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.001969748534872286</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.001973067206327152</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.001973067206327152</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.001973067206327152</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.001973067206327152</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.001984823436793243</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.001988519770648834</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.001988519770648834</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.002012475681944498</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.002012957148406187</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.002012957148406187</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.003255768138598738</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.09286668690441034</v>
+        <v>0.3345708654244673</v>
       </c>
       <c r="CP3">
-        <v>0.1463414783401732</v>
+        <v>0.4661906512053672</v>
       </c>
       <c r="CQ3">
-        <v>0.1874253595786638</v>
+        <v>0.52821945455103</v>
       </c>
       <c r="CR3">
-        <v>0.2006491481529342</v>
+        <v>0.52821945455103</v>
       </c>
       <c r="CS3">
-        <v>0.2103453545226064</v>
+        <v>0.52821945455103</v>
       </c>
       <c r="CT3">
-        <v>0.2169226866003615</v>
+        <v>0.52821945455103</v>
       </c>
       <c r="CU3">
-        <v>0.2248108806336138</v>
+        <v>0.52821945455103</v>
       </c>
       <c r="CV3">
-        <v>0.2416881310332413</v>
+        <v>0.52821945455103</v>
       </c>
       <c r="CW3">
-        <v>0.3077044386768856</v>
+        <v>0.7302760702531125</v>
       </c>
       <c r="CX3">
-        <v>0.3091556166285478</v>
+        <v>0.7302760702531125</v>
       </c>
       <c r="CY3">
-        <v>0.3719570128062993</v>
+        <v>0.9142768011338326</v>
       </c>
       <c r="CZ3">
-        <v>0.3745347757022335</v>
+        <v>0.9142768011338326</v>
       </c>
       <c r="DA3">
-        <v>0.375729099289641</v>
+        <v>0.9142768011338326</v>
       </c>
       <c r="DB3">
-        <v>0.3778084777889233</v>
+        <v>0.9142768011338326</v>
       </c>
       <c r="DC3">
-        <v>0.3908992090178272</v>
+        <v>0.9142768011338326</v>
       </c>
       <c r="DD3">
-        <v>0.3910180350507521</v>
+        <v>0.9142768011338326</v>
       </c>
       <c r="DE3">
-        <v>0.3943028455887793</v>
+        <v>0.9142768011338326</v>
       </c>
       <c r="DF3">
-        <v>0.439605594226454</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.4415761889305195</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.4417747024606911</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.4418857155914638</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.4501163279552617</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.4501615123767213</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.4557898109353772</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.4672353888534197</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.4672361507098904</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.4691403668865306</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.4798041597811061</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.5031629826438982</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.5083300367729757</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.5083300367729757</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.5091933477908219</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.5092481551911422</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.5114874807593852</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.5121897838954633</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.5151923848522143</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.5188501098353175</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.53323071203154</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.563268957540109</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.5775840216817947</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.5815652442890108</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.5816525580825943</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.5820878008932722</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.5828582094275696</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.5828878398820693</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.5864262990478725</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.6033946532629758</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.6214900705032828</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.6425568243368975</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.6676802275912702</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.6693240466166144</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.6703679439871005</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.6747325169862133</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.691157258225074</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7181517238062217</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7433784528402991</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7685808601455284</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7785789856915364</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7855907658277643</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.7879817236830096</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.7886168077686921</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.7950247778985512</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8194353257239773</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8455463652539473</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.854642665694449</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8648591779689294</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8676217985245616</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8686813770096998</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8688525212529242</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8720388724604522</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8724800231314509</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8785077831990521</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8907197810421129</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8991436841407957</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9142362613277943</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.922540042210274</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9233374196475027</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9237145902388719</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.924918986079016</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9273166378686115</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9291067921283741</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9386703347956843</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9470425594791545</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.951162125065669</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9567057136530105</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9570009381477755</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9571192093143421</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9571192093143421</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9581340235784062</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9590273232518632</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9605598809349883</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9646202746659699</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9670846792944177</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9677488381729424</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9687145363673119</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9687479905417486</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9687479905417486</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9689930416597383</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9692916217457658</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9710363622234146</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9717537826631758</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9717814154174893</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9737825423951501</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9775715852822923</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9877549373905901</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9932302607686655</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.998049188242813</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9999880164572265</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.94441956915066E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.507802290908908E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>8.857671006744732E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8.943949835644665E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>8.943949835644665E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>8.943949835644665E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001199894137674929</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001229886666249814</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001763576956573446</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001763576956573446</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001905284084706589</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001905284084706589</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0002037454082870959</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0002037454082870959</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0002072180385025598</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002072180385025598</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0002072180385025598</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.000210290947016335</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.00028297347369879</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0003319922255436356</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0003697420494377279</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0004403558541709804</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0004413972770498283</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0004413972770498283</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0004424386999286763</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0004424386999286763</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0004424386999286763</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0004424386999286763</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0004424386999286763</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0004424386999286763</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0004424386999286763</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0004424386999286763</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0004517693146272982</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0005127973615206136</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0005127973615206136</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0005127973615206136</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0005310567231621879</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0005310567231621879</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0005310567231621879</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0005310567231621879</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0005642358735790576</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0005690562497229833</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0005690562497229833</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0005777013626180994</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0005777013626180994</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.000623267969126171</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0006236012903057792</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0006501102065956344</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0006794875165097318</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0006834445532087373</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0006834445532087373</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0007093307313890428</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0007347325801775523</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0007408982393188493</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0007408982393188493</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0007408982393188493</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0007686452089940214</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0007686452089940214</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0008054078600712998</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.000913752127156818</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.000913752127156818</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0009222385792325145</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0009701519946361181</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0009717972881706945</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0009717972881706945</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0009717972881706945</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0009717972881706945</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0009732634049702249</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0009853447162238998</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0009853447162238998</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0009987430408317465</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001024994827115754</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001024994827115754</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.001059816225943253</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.001094091089348664</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.001145515557193339</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.001263151602258591</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.001328622456457872</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.001334558837739666</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001346464810325911</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.001390067172221401</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.001390067172221401</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.001413579425235583</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.001418319956357367</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.001468920802023935</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.001513264863603028</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.001541375082574728</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.001541375082574728</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.001541375082574728</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001541375082574728</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.002850034273104837</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.122893950181126</v>
+        <v>0.4951269230068325</v>
       </c>
       <c r="CP4">
-        <v>0.1644908206554395</v>
+        <v>0.5587568466181584</v>
       </c>
       <c r="CQ4">
-        <v>0.2012190710716029</v>
+        <v>0.5956069860492904</v>
       </c>
       <c r="CR4">
-        <v>0.2027829902424962</v>
+        <v>0.5956069860492904</v>
       </c>
       <c r="CS4">
-        <v>0.2134087905970342</v>
+        <v>0.5956069860492904</v>
       </c>
       <c r="CT4">
-        <v>0.2167360704120714</v>
+        <v>0.5956069860492904</v>
       </c>
       <c r="CU4">
-        <v>0.2232398191863283</v>
+        <v>0.5956069860492904</v>
       </c>
       <c r="CV4">
-        <v>0.2402202230414853</v>
+        <v>0.5956069860492904</v>
       </c>
       <c r="CW4">
-        <v>0.3424195173827196</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="CX4">
-        <v>0.3438261302461739</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="CY4">
-        <v>0.3567834082508014</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="CZ4">
-        <v>0.3570762076046053</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DA4">
-        <v>0.3590413260356034</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DB4">
-        <v>0.359500890984176</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DC4">
-        <v>0.3598261122026646</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DD4">
-        <v>0.3602797844484364</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DE4">
-        <v>0.3821516425362885</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DF4">
-        <v>0.4086515233516863</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DG4">
-        <v>0.4094183290920614</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DH4">
-        <v>0.4097675563597222</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DI4">
-        <v>0.4180723965808802</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DJ4">
-        <v>0.4240249249575445</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DK4">
-        <v>0.4257368102202523</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DL4">
-        <v>0.4387136625199003</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DM4">
-        <v>0.4572406599485653</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DN4">
-        <v>0.4576888388968615</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DO4">
-        <v>0.4637400465099301</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DP4">
-        <v>0.4701566081242984</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DQ4">
-        <v>0.4967737214560291</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DR4">
-        <v>0.4987312158137531</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DS4">
-        <v>0.5006467137923332</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DT4">
-        <v>0.5007566581236267</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DU4">
-        <v>0.5033339696146986</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DV4">
-        <v>0.5089125627777149</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DW4">
-        <v>0.5098494594002241</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DX4">
-        <v>0.5123998769853367</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DY4">
-        <v>0.519427346330131</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="DZ4">
-        <v>0.534820910715855</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EA4">
-        <v>0.5580242423667162</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EB4">
-        <v>0.5676737248226855</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EC4">
-        <v>0.5854262125210941</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="ED4">
-        <v>0.5869817337978028</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EE4">
-        <v>0.5876027024800886</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EF4">
-        <v>0.5876259694201602</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EG4">
-        <v>0.5885700497318501</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EH4">
-        <v>0.6009044764922884</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EI4">
-        <v>0.6291771330565787</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EJ4">
-        <v>0.6420981999670271</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EK4">
-        <v>0.6507371017489079</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EL4">
-        <v>0.6725960955271739</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EM4">
-        <v>0.6779502377751478</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EN4">
-        <v>0.6796956225049757</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EO4">
-        <v>0.6801330480758687</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EP4">
-        <v>0.7011534588714401</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="EQ4">
-        <v>0.7316374140629021</v>
+        <v>0.9950832607679899</v>
       </c>
       <c r="ER4">
-        <v>0.7625601063876239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES4">
-        <v>0.7880812564329375</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET4">
-        <v>0.7952500084156866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU4">
-        <v>0.7984945001060488</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV4">
-        <v>0.7991250749704811</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW4">
-        <v>0.7998214984902271</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX4">
-        <v>0.8051803026863026</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY4">
-        <v>0.8257353606737726</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ4">
-        <v>0.8512866916368597</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4">
-        <v>0.8595915318580177</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB4">
-        <v>0.8708160156951217</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.8757514580558057</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.8761477942469585</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.8761477942469585</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.8785077980239845</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.8786410499832715</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.8837557376606193</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.9005323970431027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.9104886786152442</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.9213498610938622</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.9298945227222121</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.9302314848933997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.9302425623599957</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.9305945979698145</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.9335631966247817</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.9355404885432307</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.9442090075720703</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.9513363031182516</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.9539060701307738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.9562835511071037</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.9562882916382255</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.9563329552170564</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.9564813932990781</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.9578705114423771</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.9598935227706827</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.9624301178058245</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.967970877043359</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.9702510517171888</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9702720432733666</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.9702720432733666</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9708865954494825</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9709782564521117</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.9716832022240385</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9735095234749809</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9744309059443723</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9748414682557779</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.9748660311961964</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.9770259671760949</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.9803555754622041</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9887437999174563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9936628483680394</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9983610609057298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.9999417586444984</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
         <v>0.9999999999999999</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.89110042236805E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.764334905961657E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>7.557134087637177E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001290319254981057</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001290319254981057</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001462581264613835</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001462581264613835</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.000184273713132238</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002344316597097611</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002480496252448289</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002480496252448289</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002495488811767458</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002495488811767458</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0002495488811767458</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0002835310569735325</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0003887023670647202</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0004057101344065469</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0004383293209804848</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0005755476236793081</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0005755476236793081</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0005755476236793081</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0006104107909393754</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0006138280131965111</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0006138280131965111</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0006717809639977586</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0006984663859987203</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0007071240103481223</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0007148437338848232</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0007148437338848232</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0007420467202380225</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0007729690376010012</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0007966741978259844</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0008630679668229188</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0009469950946073657</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0009586131656027675</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0009746315229981349</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0009919136739172023</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0009919136739172023</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001023122671902794</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001074796356374643</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001077362037251616</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.001077362037251616</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001077362037251616</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.00109879093554575</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.001107766675415236</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.001107987458200529</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.001107987458200529</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.001133195661111102</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.001217122788895549</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.001304559366577345</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.001423051235980365</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001465066871837271</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001465066871837271</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001476027479080905</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001486808426611692</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.001486808426611692</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.00153848211108354</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001571889886208632</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.001795443851693264</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.001919573124074626</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.001981626371192468</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001985272955955082</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.002008978116180065</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.002009939229116503</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.00204122159220317</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.002192789812550768</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.002363215439931577</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.002564120002559465</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.002632946554706569</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.002667304999883473</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.002668709385290823</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.002669934269850507</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.002670039868676804</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.002685651357137319</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.002685651357137319</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.002686137442073821</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.002687823179317429</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.002696006554086275</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.002708920493765541</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.002709757674953839</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.002709757674953839</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.002712215560303227</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.002750311636998451</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.002760065011924966</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.002760065011924966</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.002760065011924966</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.002760065011924966</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.00276128989648465</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.002819727736231695</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.005480251619680953</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.06375752988291895</v>
+        <v>0.1598043256209966</v>
       </c>
       <c r="CO5">
-        <v>0.146005466102594</v>
+        <v>0.4551233435653966</v>
       </c>
       <c r="CP5">
-        <v>0.1618554047904028</v>
+        <v>0.4551233435653966</v>
       </c>
       <c r="CQ5">
-        <v>0.1630556867490494</v>
+        <v>0.4551233435653966</v>
       </c>
       <c r="CR5">
-        <v>0.1681825468492051</v>
+        <v>0.4551233435653966</v>
       </c>
       <c r="CS5">
-        <v>0.1691807811094049</v>
+        <v>0.4551233435653966</v>
       </c>
       <c r="CT5">
-        <v>0.1740720675557003</v>
+        <v>0.4551233435653966</v>
       </c>
       <c r="CU5">
-        <v>0.2873500251283822</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="CV5">
-        <v>0.2986309812016077</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="CW5">
-        <v>0.2991983180182629</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="CX5">
-        <v>0.3117597904764355</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="CY5">
-        <v>0.3143147069300574</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="CZ5">
-        <v>0.3147353913965046</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="DA5">
-        <v>0.3148388454760307</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="DB5">
-        <v>0.3155293533787317</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="DC5">
-        <v>0.3186697778613021</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="DD5">
-        <v>0.3561319288554204</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DE5">
-        <v>0.3692082395473276</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DF5">
-        <v>0.3723370144501749</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DG5">
-        <v>0.3760460544308327</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DH5">
-        <v>0.3831589567871808</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DI5">
-        <v>0.3875824022823258</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DJ5">
-        <v>0.3912027854878652</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DK5">
-        <v>0.4126559281224457</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DL5">
-        <v>0.4283204777467035</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DM5">
-        <v>0.4342806947660928</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DN5">
-        <v>0.436839177582963</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DO5">
-        <v>0.4546512513180404</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DP5">
-        <v>0.4784932490794972</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DQ5">
-        <v>0.4784935805942149</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DR5">
-        <v>0.4807962976725849</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DS5">
-        <v>0.480802873824924</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DT5">
-        <v>0.483939090080895</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DU5">
-        <v>0.4874691421243293</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DV5">
-        <v>0.489286615411312</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DW5">
-        <v>0.4917070235773311</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DX5">
-        <v>0.5060246075530759</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DY5">
-        <v>0.5271620626637588</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="DZ5">
-        <v>0.5437296467953701</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EA5">
-        <v>0.5551626982720419</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EB5">
-        <v>0.5658520065972444</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EC5">
-        <v>0.5661302826247242</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="ED5">
-        <v>0.5662093373894197</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EE5">
-        <v>0.5662479632804932</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EF5">
-        <v>0.5703615416397961</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EG5">
-        <v>0.5810732081383664</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EH5">
-        <v>0.6109785646441822</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EI5">
-        <v>0.6197425360200618</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EJ5">
-        <v>0.6384682896301962</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EK5">
-        <v>0.6533777614524743</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EL5">
-        <v>0.6554228721371389</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EM5">
-        <v>0.6560916556264984</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EN5">
-        <v>0.6605408902026833</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EO5">
-        <v>0.6854729922246172</v>
+        <v>0.967995132392905</v>
       </c>
       <c r="EP5">
-        <v>0.7205740784940241</v>
+        <v>0.9967761655794631</v>
       </c>
       <c r="EQ5">
-        <v>0.7511544529539471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.7710261587384811</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.7775275141823489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.7802469741467694</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.7803613880830312</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.7826098942191142</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.7952788407729913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.8214322118712071</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.8463984539004947</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.8537823270338406</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.8693050244573507</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.8699081498577564</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.8706380710313861</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.871159041674396</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8736098588169586</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.8737689976134491</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.8866085181523768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.897686267851761</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.9086308649197565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.9228168343951948</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.9296150478373664</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.9298919322438759</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.9298919322438759</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.9308436096521966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9328858976787486</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9354212770164585</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9465524936528706</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9519531176760281</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9544146496147803</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9569280734443325</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9572527090127364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9572576455846697</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9572797873924646</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9596105496775436</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9610821108397327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9637015900829162</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9679749650053856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9684413030030872</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9685766586115384</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9686235580871931</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9691272565435721</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9691308725157747</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9709232435034981</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9726011895436418</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9734660364261387</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9738495097951901</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9743365064589661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9768166571368281</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9820609534200477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9904817069765844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.995289528177802</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9992615640634357</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9998963083868158</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9999836248852301</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>8.647000883636804E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001354654790143412</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001702040018816341</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001702040018816341</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001702040018816341</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001750545117332011</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002055540044039649</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002055540044039649</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002541626102313843</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002982710448119462</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0003370442530578835</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0003370442530578835</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.000342454163823465</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0004053708269588624</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0004727704593778182</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0005980980813878421</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0006217449664584019</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0006570380234796076</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0006738869322856225</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0007498858332706946</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0007788800464589233</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0007788800464589233</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0007883183813329483</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0007883183813329483</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0007915209829722123</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0007915209829722123</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0007915209829722123</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0007915209829722123</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0007915209829722123</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0008238066026472192</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0008238066026472192</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0008462151016397313</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0008566237971496642</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0008566237971496642</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0008566237971496642</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0008566237971496642</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0008908881765652118</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0009159336120073629</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0009319934344687213</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0009319934344687213</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0009319934344687213</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0009346793781306739</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0009507392005920323</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.007919433829864759</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.02971641968106423</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.05189931616614046</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.06240712264847167</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.07198644537270375</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.07767267979109092</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.07793067590457588</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.08893728923242479</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.1190660221146267</v>
+        <v>0.002350356369668123</v>
       </c>
       <c r="BB6">
-        <v>0.1697067533139953</v>
+        <v>0.5760619208059703</v>
       </c>
       <c r="BC6">
-        <v>0.1778459773802875</v>
+        <v>0.5760619208059703</v>
       </c>
       <c r="BD6">
-        <v>0.1807947050238223</v>
+        <v>0.5760619208059703</v>
       </c>
       <c r="BE6">
-        <v>0.1833879991919498</v>
+        <v>0.5760619208059703</v>
       </c>
       <c r="BF6">
-        <v>0.1854903985561265</v>
+        <v>0.5760619208059703</v>
       </c>
       <c r="BG6">
-        <v>0.1854903985561265</v>
+        <v>0.5760619208059703</v>
       </c>
       <c r="BH6">
-        <v>0.1856345361458218</v>
+        <v>0.5760619208059703</v>
       </c>
       <c r="BI6">
-        <v>0.1856456428797914</v>
+        <v>0.5760619208059703</v>
       </c>
       <c r="BJ6">
-        <v>0.2181040952252475</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BK6">
-        <v>0.2358593860805872</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BL6">
-        <v>0.2361163659448373</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BM6">
-        <v>0.2366977990905683</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BN6">
-        <v>0.2505455013397203</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BO6">
-        <v>0.2540182674453383</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BP6">
-        <v>0.259240492453116</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BQ6">
-        <v>0.2725796192734335</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BR6">
-        <v>0.2828907166821155</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BS6">
-        <v>0.282902491022768</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BT6">
-        <v>0.2886678827231831</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BU6">
-        <v>0.3042368913002449</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BV6">
-        <v>0.3174814729405281</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BW6">
-        <v>0.3185198642046388</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BX6">
-        <v>0.3188488223788651</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BY6">
-        <v>0.3188796432500127</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="BZ6">
-        <v>0.3214617855449206</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CA6">
-        <v>0.329487302940757</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CB6">
-        <v>0.3369455218069786</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CC6">
-        <v>0.3370027264084809</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CD6">
-        <v>0.3414620967883344</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CE6">
-        <v>0.3544279897928748</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CF6">
-        <v>0.3712512620274107</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CG6">
-        <v>0.3862172832354336</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CH6">
-        <v>0.396377364817688</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CI6">
-        <v>0.3991787021606924</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CJ6">
-        <v>0.4011439435423715</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CK6">
-        <v>0.4011439435423715</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CL6">
-        <v>0.4041652449176334</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CM6">
-        <v>0.41285403519561</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CN6">
-        <v>0.4351805201379507</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CO6">
-        <v>0.448836187226433</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CP6">
-        <v>0.4597093172862202</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CQ6">
-        <v>0.477465821325274</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CR6">
-        <v>0.4833372023049459</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CS6">
-        <v>0.4869022861812921</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CT6">
-        <v>0.4901224688401515</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CU6">
-        <v>0.510896123709543</v>
+        <v>0.6433065554609101</v>
       </c>
       <c r="CV6">
-        <v>0.5506750488060924</v>
+        <v>0.9144627783487285</v>
       </c>
       <c r="CW6">
-        <v>0.5837902092171083</v>
+        <v>1</v>
       </c>
       <c r="CX6">
-        <v>0.6091443138335626</v>
+        <v>1</v>
       </c>
       <c r="CY6">
-        <v>0.6156929298270212</v>
+        <v>1</v>
       </c>
       <c r="CZ6">
-        <v>0.6185973713561541</v>
+        <v>1</v>
       </c>
       <c r="DA6">
-        <v>0.6188506415831078</v>
+        <v>1</v>
       </c>
       <c r="DB6">
-        <v>0.6195508715615171</v>
+        <v>1</v>
       </c>
       <c r="DC6">
-        <v>0.6281356125521959</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.649957086481602</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.6737436625680849</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.6865318136395704</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.6991121797008719</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.7033464955857043</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.7056218114973076</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.7056218114973076</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.7064866248234979</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.7070774461177681</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7153039983736103</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.7243689186805081</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.7385418663670107</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.7506217385461516</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7574982327158548</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7582550714492509</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7583514512155154</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7592643637195696</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7619187394336466</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7649320603441809</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.778440361676312</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7871639746346382</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7911666489678374</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7941754142783538</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.7942801583803085</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7943424687020376</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.7944793524348895</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.7951390761024919</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.7975844087418861</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8004298641968902</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8051663012930536</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.807161120915162</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.807161120915162</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8072107533628909</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.807425689198463</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.807425689198463</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8085078389272131</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.80907851927806</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8104356003795307</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8111006963171458</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8111946227274029</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8128057111385661</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8164819120240129</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8240299349362924</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8300211038325802</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8339532111461067</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8355138096761726</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8360425617967769</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.836118560697762</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8364444748628134</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8388816004295887</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8432926177746392</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8521124679586588</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8611222014300055</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.865542868143788</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8666422032059038</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8667324826717108</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8667583196699552</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.867341769896404</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8699281337901321</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8743825742962802</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8817017693214844</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8873263039811474</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.8905623343656969</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.891977038587999</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.8920866129203024</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.8926156343256156</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.8928154762122856</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.8946771306388587</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.89629453211345</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.8984175133246706</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9017565363946489</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.905624584201938</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.909419428443808</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.911355311080146</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9122510328410972</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9123276083449596</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9132455632753125</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9157047150890318</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9228090834291334</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9337298231857254</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9450638548621354</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9532555383546792</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9576506430571902</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9583849530792131</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9589793343313591</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9642556576152959</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9757170825979192</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9861104450826158</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9927618266527105</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.995646167500892</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9976614499558204</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9987245115261457</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9988302689260229</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.01021026693757221</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5008108324221349</v>
+        <v>0.7243767757064987</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.002012957148406187</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5031629826438982</v>
+        <v>0.52821945455103</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -10652,16 +10652,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001541375082574728</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5006467137923332</v>
+        <v>0.5587568466181584</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.005480251619680953</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5060246075530759</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>0.07767267979109092</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.510896123709543</v>
+        <v>0.5760619208059703</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.01021026693757221</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7295791892894283</v>
+        <v>0.7243767757064987</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.002012957148406187</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7181517238062217</v>
+        <v>0.7302760702531125</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -10911,16 +10911,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.001541375082574728</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7011534588714401</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.005480251619680953</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7205740784940241</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.07767267979109092</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7033464955857043</v>
+        <v>0.9144627783487285</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>0.01021026693757221</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8093159086980178</v>
+        <v>0.8471365567990574</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.002012957148406187</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8194353257239773</v>
+        <v>0.9142768011338326</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -11170,16 +11170,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.001541375082574728</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8051803026863026</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.005480251619680953</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8214322118712071</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.07767267979109092</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8004298641968902</v>
+        <v>0.9144627783487285</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.01021026693757221</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9083121428779963</v>
+        <v>0.9922237889373957</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.002012957148406187</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9142362613277943</v>
+        <v>0.9142768011338326</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -11429,16 +11429,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.001541375082574728</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9005323970431027</v>
+        <v>0.9925797896900377</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.005480251619680953</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9086308649197565</v>
+        <v>0.925866156888435</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.07767267979109092</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9017565363946489</v>
+        <v>0.9144627783487285</v>
       </c>
       <c r="G6">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>46</v>

--- a/on_trucks/Processed_Stand_Alone/46_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/46_225-80R17.xlsx
@@ -1097,22 +1097,22 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>0.01169908508675569</v>
       </c>
       <c r="AZ2">
-        <v>0.1738382940400709</v>
+        <v>0.1400648186970125</v>
       </c>
       <c r="BA2">
-        <v>0.2970045823505865</v>
+        <v>0.221503629922292</v>
       </c>
       <c r="BB2">
-        <v>0.04758059094249932</v>
+        <v>0.05658193235413762</v>
       </c>
       <c r="BC2">
         <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0161986458235215</v>
+        <v>0.03583186884663547</v>
       </c>
       <c r="BE2">
         <v>0</v>
@@ -1121,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.1243634403014078</v>
+        <v>0.1073515387135862</v>
       </c>
       <c r="BH2">
-        <v>0.1347199388199714</v>
+        <v>0.1141993615990322</v>
       </c>
       <c r="BI2">
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.06413530451066436</v>
+        <v>0.0675280785087365</v>
       </c>
       <c r="BK2">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.03100429209133639</v>
+        <v>0.04562151378935717</v>
       </c>
       <c r="BQ2">
-        <v>0.02532949008847759</v>
+        <v>0.04186927658718925</v>
       </c>
       <c r="BR2">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.000515615211693797</v>
       </c>
       <c r="BV2">
         <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.009439918410808565</v>
+        <v>0.03136292906256586</v>
       </c>
       <c r="BX2">
-        <v>0.006356478359430681</v>
+        <v>0.02932412692187335</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.007743559841851922</v>
+        <v>0.0302412794036969</v>
       </c>
       <c r="CB2">
-        <v>0.06228546441937304</v>
+        <v>0.06630494529543526</v>
       </c>
       <c r="CC2">
         <v>0</v>
@@ -1351,37 +1351,37 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.2686097638811406</v>
+        <v>0.2118252094171891</v>
       </c>
       <c r="BA3">
-        <v>0.1382044211170945</v>
+        <v>0.1213012370031788</v>
       </c>
       <c r="BB3">
-        <v>0.09348903485902769</v>
+        <v>0.0902609873760517</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>0.02046916279139346</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>0.01163227910265158</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>0.003819242365604936</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>0.007103059428075154</v>
       </c>
       <c r="BG3">
-        <v>0.006133963219135652</v>
+        <v>0.02962138528810934</v>
       </c>
       <c r="BH3">
-        <v>0.1834633030368969</v>
+        <v>0.1527187670794597</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.171861571953854</v>
+        <v>0.1446651493192087</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>0.02013584319265973</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.1087137667247801</v>
+        <v>0.1008295973594615</v>
       </c>
       <c r="BR3">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>0</v>
+        <v>0.007960845521898694</v>
       </c>
       <c r="BV3">
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>0</v>
+        <v>0.001441835309274592</v>
       </c>
       <c r="BX3">
-        <v>0</v>
+        <v>0.01601459877792157</v>
       </c>
       <c r="BY3">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="CA3">
-        <v>0</v>
+        <v>0.01405616296515074</v>
       </c>
       <c r="CB3">
-        <v>0.02952417520807048</v>
+        <v>0.04585825764291266</v>
       </c>
       <c r="CC3">
-        <v>0</v>
+        <v>0.0002863800597977742</v>
       </c>
       <c r="CD3">
         <v>0</v>
@@ -1602,37 +1602,37 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.3799520097286546</v>
+        <v>0.2903675464576127</v>
       </c>
       <c r="BA4">
-        <v>0.09637323550053427</v>
+        <v>0.09241357457135101</v>
       </c>
       <c r="BB4">
-        <v>0.07877362673720149</v>
+        <v>0.08012805543181413</v>
       </c>
       <c r="BC4">
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>0.01426090088068398</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>0.003859279275619818</v>
       </c>
       <c r="BG4">
-        <v>0.007386997827797995</v>
+        <v>0.0302961638501847</v>
       </c>
       <c r="BH4">
-        <v>0.3154453621870288</v>
+        <v>0.2453382697471496</v>
       </c>
       <c r="BI4">
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.02014417231108205</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -1650,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.02506915000869606</v>
+        <v>0.04263930294877737</v>
       </c>
       <c r="BQ4">
-        <v>0.04179902179572632</v>
+        <v>0.05431769664521981</v>
       </c>
       <c r="BR4">
         <v>0</v>
@@ -1662,31 +1662,31 @@
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.008404169445457601</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>0.00246832482367199</v>
       </c>
       <c r="BV4">
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>0.02019356626116316</v>
       </c>
       <c r="BX4">
-        <v>0.0129777897738772</v>
+        <v>0.03419885182367111</v>
       </c>
       <c r="BY4">
         <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0</v>
+        <v>0.002717332886129339</v>
       </c>
       <c r="CA4">
-        <v>0</v>
+        <v>0.003639270421213768</v>
       </c>
       <c r="CB4">
-        <v>0.04222280644048327</v>
+        <v>0.05461352221919793</v>
       </c>
       <c r="CC4">
         <v>0</v>
@@ -1850,37 +1850,37 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.1709088198268295</v>
+        <v>0.1447147678894728</v>
       </c>
       <c r="AZ5">
-        <v>0.2639804263000965</v>
+        <v>0.2095232333140662</v>
       </c>
       <c r="BA5">
-        <v>0.006174891377793518</v>
+        <v>0.03000574426030277</v>
       </c>
       <c r="BB5">
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.001014205139596615</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.000377294503731268</v>
       </c>
       <c r="BF5">
-        <v>0.3844616388505669</v>
+        <v>0.2934178043198112</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.0176527770475996</v>
       </c>
       <c r="BH5">
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.02111485564428598</v>
       </c>
       <c r="BJ5">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.09008928882341635</v>
+        <v>0.0884377788147112</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.02250680224545499</v>
       </c>
       <c r="BQ5">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.006383784528119938</v>
       </c>
       <c r="BT5">
         <v>0</v>
@@ -1919,22 +1919,22 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.02793062264187213</v>
+        <v>0.04515489243601162</v>
       </c>
       <c r="BW5">
-        <v>0.005455075593069409</v>
+        <v>0.0295045156024546</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>0.003267317389775488</v>
       </c>
       <c r="BY5">
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01379333311179459</v>
+        <v>0.03531068672789739</v>
       </c>
       <c r="CA5">
-        <v>0.03720590347456108</v>
+        <v>0.05161354013670835</v>
       </c>
       <c r="CB5">
         <v>0</v>
@@ -1960,37 +1960,37 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01554778938488094</v>
       </c>
       <c r="E6">
-        <v>0.0882952388758091</v>
+        <v>0.07627533438682918</v>
       </c>
       <c r="F6">
-        <v>0.09107437545895605</v>
+        <v>0.07785578658018966</v>
       </c>
       <c r="G6">
-        <v>0.006996179913500666</v>
+        <v>0.03004181105649005</v>
       </c>
       <c r="H6">
-        <v>0.0003097013548014579</v>
+        <v>0.02623931363047735</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01029562249631879</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01058833890216704</v>
+        <v>0.0320846165763644</v>
       </c>
       <c r="L6">
-        <v>0.1482963400187712</v>
+        <v>0.110397036961828</v>
       </c>
       <c r="M6">
-        <v>0.296013557199393</v>
+        <v>0.1944015444430192</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.02034155678524004</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1650738216956988</v>
+        <v>0.1199381325222844</v>
       </c>
       <c r="V6">
-        <v>0.05918896028462994</v>
+        <v>0.05972304180828268</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -2023,31 +2023,31 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.03104844925944746</v>
+        <v>0.04371996637768488</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.001230620024873953</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.008395325830816884</v>
       </c>
       <c r="AB6">
-        <v>0.02738594178883259</v>
+        <v>0.04163715475905694</v>
       </c>
       <c r="AC6">
-        <v>0.005579578931755818</v>
+        <v>0.0292362118850452</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.01061980195399432</v>
       </c>
       <c r="AF6">
-        <v>0.04344444192396744</v>
+        <v>0.05076937658455457</v>
       </c>
       <c r="AG6">
-        <v>0.0267050743922694</v>
+        <v>0.04124995595176859</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -2616,91 +2616,91 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>0.01169908508675569</v>
       </c>
       <c r="AZ2">
-        <v>0.1738382940400709</v>
+        <v>0.1517639037837682</v>
       </c>
       <c r="BA2">
-        <v>0.4708428763906574</v>
+        <v>0.3732675337060602</v>
       </c>
       <c r="BB2">
-        <v>0.5184234673331567</v>
+        <v>0.4298494660601978</v>
       </c>
       <c r="BC2">
-        <v>0.5184234673331567</v>
+        <v>0.4298494660601978</v>
       </c>
       <c r="BD2">
-        <v>0.5346221131566782</v>
+        <v>0.4656813349068333</v>
       </c>
       <c r="BE2">
-        <v>0.5346221131566782</v>
+        <v>0.4656813349068333</v>
       </c>
       <c r="BF2">
-        <v>0.5346221131566782</v>
+        <v>0.4656813349068333</v>
       </c>
       <c r="BG2">
-        <v>0.658985553458086</v>
+        <v>0.5730328736204194</v>
       </c>
       <c r="BH2">
-        <v>0.7937054922780573</v>
+        <v>0.6872322352194516</v>
       </c>
       <c r="BI2">
-        <v>0.7937054922780573</v>
+        <v>0.6872322352194516</v>
       </c>
       <c r="BJ2">
-        <v>0.8578407967887217</v>
+        <v>0.7547603137281882</v>
       </c>
       <c r="BK2">
-        <v>0.8578407967887217</v>
+        <v>0.7547603137281882</v>
       </c>
       <c r="BL2">
-        <v>0.8578407967887217</v>
+        <v>0.7547603137281882</v>
       </c>
       <c r="BM2">
-        <v>0.8578407967887217</v>
+        <v>0.7547603137281882</v>
       </c>
       <c r="BN2">
-        <v>0.8578407967887217</v>
+        <v>0.7547603137281882</v>
       </c>
       <c r="BO2">
-        <v>0.8578407967887217</v>
+        <v>0.7547603137281882</v>
       </c>
       <c r="BP2">
-        <v>0.8888450888800581</v>
+        <v>0.8003818275175454</v>
       </c>
       <c r="BQ2">
-        <v>0.9141745789685357</v>
+        <v>0.8422511041047347</v>
       </c>
       <c r="BR2">
-        <v>0.9141745789685357</v>
+        <v>0.8422511041047347</v>
       </c>
       <c r="BS2">
-        <v>0.9141745789685357</v>
+        <v>0.8422511041047347</v>
       </c>
       <c r="BT2">
-        <v>0.9141745789685357</v>
+        <v>0.8422511041047347</v>
       </c>
       <c r="BU2">
-        <v>0.9141745789685357</v>
+        <v>0.8427667193164284</v>
       </c>
       <c r="BV2">
-        <v>0.9141745789685357</v>
+        <v>0.8427667193164284</v>
       </c>
       <c r="BW2">
-        <v>0.9236144973793443</v>
+        <v>0.8741296483789943</v>
       </c>
       <c r="BX2">
-        <v>0.929970975738775</v>
+        <v>0.9034537753008677</v>
       </c>
       <c r="BY2">
-        <v>0.929970975738775</v>
+        <v>0.9034537753008677</v>
       </c>
       <c r="BZ2">
-        <v>0.929970975738775</v>
+        <v>0.9034537753008677</v>
       </c>
       <c r="CA2">
-        <v>0.9377145355806269</v>
+        <v>0.9336950547045646</v>
       </c>
       <c r="CB2">
         <v>0.9999999999999999</v>
@@ -2870,100 +2870,100 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.2686097638811406</v>
+        <v>0.2118252094171891</v>
       </c>
       <c r="BA3">
-        <v>0.4068141849982351</v>
+        <v>0.3331264464203679</v>
       </c>
       <c r="BB3">
-        <v>0.5003032198572628</v>
+        <v>0.4233874337964196</v>
       </c>
       <c r="BC3">
-        <v>0.5003032198572628</v>
+        <v>0.4438565965878131</v>
       </c>
       <c r="BD3">
-        <v>0.5003032198572628</v>
+        <v>0.4554888756904646</v>
       </c>
       <c r="BE3">
-        <v>0.5003032198572628</v>
+        <v>0.4593081180560696</v>
       </c>
       <c r="BF3">
-        <v>0.5003032198572628</v>
+        <v>0.4664111774841447</v>
       </c>
       <c r="BG3">
-        <v>0.5064371830763984</v>
+        <v>0.496032562772254</v>
       </c>
       <c r="BH3">
-        <v>0.6899004861132954</v>
+        <v>0.6487513298517138</v>
       </c>
       <c r="BI3">
-        <v>0.6899004861132954</v>
+        <v>0.6487513298517138</v>
       </c>
       <c r="BJ3">
-        <v>0.8617620580671493</v>
+        <v>0.7934164791709225</v>
       </c>
       <c r="BK3">
-        <v>0.8617620580671493</v>
+        <v>0.7934164791709225</v>
       </c>
       <c r="BL3">
-        <v>0.8617620580671493</v>
+        <v>0.7934164791709225</v>
       </c>
       <c r="BM3">
-        <v>0.8617620580671493</v>
+        <v>0.7934164791709225</v>
       </c>
       <c r="BN3">
-        <v>0.8617620580671493</v>
+        <v>0.8135523223635822</v>
       </c>
       <c r="BO3">
-        <v>0.8617620580671493</v>
+        <v>0.8135523223635822</v>
       </c>
       <c r="BP3">
-        <v>0.8617620580671493</v>
+        <v>0.8135523223635822</v>
       </c>
       <c r="BQ3">
-        <v>0.9704758247919294</v>
+        <v>0.9143819197230437</v>
       </c>
       <c r="BR3">
-        <v>0.9704758247919294</v>
+        <v>0.9143819197230437</v>
       </c>
       <c r="BS3">
-        <v>0.9704758247919294</v>
+        <v>0.9143819197230437</v>
       </c>
       <c r="BT3">
-        <v>0.9704758247919294</v>
+        <v>0.9143819197230437</v>
       </c>
       <c r="BU3">
-        <v>0.9704758247919294</v>
+        <v>0.9223427652449424</v>
       </c>
       <c r="BV3">
-        <v>0.9704758247919294</v>
+        <v>0.9223427652449424</v>
       </c>
       <c r="BW3">
-        <v>0.9704758247919294</v>
+        <v>0.923784600554217</v>
       </c>
       <c r="BX3">
-        <v>0.9704758247919294</v>
+        <v>0.9397991993321385</v>
       </c>
       <c r="BY3">
-        <v>0.9704758247919294</v>
+        <v>0.9397991993321385</v>
       </c>
       <c r="BZ3">
-        <v>0.9704758247919294</v>
+        <v>0.9397991993321385</v>
       </c>
       <c r="CA3">
-        <v>0.9704758247919294</v>
+        <v>0.9538553622972893</v>
       </c>
       <c r="CB3">
-        <v>0.9999999999999999</v>
+        <v>0.9997136199402019</v>
       </c>
       <c r="CC3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CD3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CE3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:83">
@@ -3121,100 +3121,100 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.3799520097286546</v>
+        <v>0.2903675464576127</v>
       </c>
       <c r="BA4">
-        <v>0.4763252452291888</v>
+        <v>0.3827811210289637</v>
       </c>
       <c r="BB4">
-        <v>0.5550988719663903</v>
+        <v>0.4629091764607778</v>
       </c>
       <c r="BC4">
-        <v>0.5550988719663903</v>
+        <v>0.4629091764607778</v>
       </c>
       <c r="BD4">
-        <v>0.5550988719663903</v>
+        <v>0.4771700773414618</v>
       </c>
       <c r="BE4">
-        <v>0.5550988719663903</v>
+        <v>0.4771700773414618</v>
       </c>
       <c r="BF4">
-        <v>0.5550988719663903</v>
+        <v>0.4810293566170816</v>
       </c>
       <c r="BG4">
-        <v>0.5624858697941882</v>
+        <v>0.5113255204672663</v>
       </c>
       <c r="BH4">
-        <v>0.877931231981217</v>
+        <v>0.7566637902144159</v>
       </c>
       <c r="BI4">
-        <v>0.877931231981217</v>
+        <v>0.7566637902144159</v>
       </c>
       <c r="BJ4">
-        <v>0.877931231981217</v>
+        <v>0.7768079625254979</v>
       </c>
       <c r="BK4">
-        <v>0.877931231981217</v>
+        <v>0.7768079625254979</v>
       </c>
       <c r="BL4">
-        <v>0.877931231981217</v>
+        <v>0.7768079625254979</v>
       </c>
       <c r="BM4">
-        <v>0.877931231981217</v>
+        <v>0.7768079625254979</v>
       </c>
       <c r="BN4">
-        <v>0.877931231981217</v>
+        <v>0.7768079625254979</v>
       </c>
       <c r="BO4">
-        <v>0.877931231981217</v>
+        <v>0.7768079625254979</v>
       </c>
       <c r="BP4">
-        <v>0.9030003819899131</v>
+        <v>0.8194472654742753</v>
       </c>
       <c r="BQ4">
-        <v>0.9447994037856394</v>
+        <v>0.8737649621194951</v>
       </c>
       <c r="BR4">
-        <v>0.9447994037856394</v>
+        <v>0.8737649621194951</v>
       </c>
       <c r="BS4">
-        <v>0.9447994037856394</v>
+        <v>0.8737649621194951</v>
       </c>
       <c r="BT4">
-        <v>0.9447994037856394</v>
+        <v>0.8821691315649527</v>
       </c>
       <c r="BU4">
-        <v>0.9447994037856394</v>
+        <v>0.8846374563886247</v>
       </c>
       <c r="BV4">
-        <v>0.9447994037856394</v>
+        <v>0.8846374563886247</v>
       </c>
       <c r="BW4">
-        <v>0.9447994037856394</v>
+        <v>0.9048310226497879</v>
       </c>
       <c r="BX4">
-        <v>0.9577771935595166</v>
+        <v>0.939029874473459</v>
       </c>
       <c r="BY4">
-        <v>0.9577771935595166</v>
+        <v>0.939029874473459</v>
       </c>
       <c r="BZ4">
-        <v>0.9577771935595166</v>
+        <v>0.9417472073595883</v>
       </c>
       <c r="CA4">
-        <v>0.9577771935595166</v>
+        <v>0.9453864777808021</v>
       </c>
       <c r="CB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CD4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:83">
@@ -3369,88 +3369,88 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.1709088198268295</v>
+        <v>0.1447147678894728</v>
       </c>
       <c r="AZ5">
-        <v>0.434889246126926</v>
+        <v>0.354238001203539</v>
       </c>
       <c r="BA5">
-        <v>0.4410641375047196</v>
+        <v>0.3842437454638418</v>
       </c>
       <c r="BB5">
-        <v>0.4410641375047196</v>
+        <v>0.3842437454638418</v>
       </c>
       <c r="BC5">
-        <v>0.4410641375047196</v>
+        <v>0.3852579506034384</v>
       </c>
       <c r="BD5">
-        <v>0.4410641375047196</v>
+        <v>0.3852579506034384</v>
       </c>
       <c r="BE5">
-        <v>0.4410641375047196</v>
+        <v>0.3856352451071696</v>
       </c>
       <c r="BF5">
-        <v>0.8255257763552866</v>
+        <v>0.6790530494269809</v>
       </c>
       <c r="BG5">
-        <v>0.8255257763552866</v>
+        <v>0.6967058264745805</v>
       </c>
       <c r="BH5">
-        <v>0.8255257763552866</v>
+        <v>0.6967058264745805</v>
       </c>
       <c r="BI5">
-        <v>0.8255257763552866</v>
+        <v>0.7178206821188664</v>
       </c>
       <c r="BJ5">
-        <v>0.8255257763552866</v>
+        <v>0.7178206821188664</v>
       </c>
       <c r="BK5">
-        <v>0.8255257763552866</v>
+        <v>0.7178206821188664</v>
       </c>
       <c r="BL5">
-        <v>0.8255257763552866</v>
+        <v>0.7178206821188664</v>
       </c>
       <c r="BM5">
-        <v>0.8255257763552866</v>
+        <v>0.7178206821188664</v>
       </c>
       <c r="BN5">
-        <v>0.8255257763552866</v>
+        <v>0.7178206821188664</v>
       </c>
       <c r="BO5">
-        <v>0.9156150651787029</v>
+        <v>0.8062584609335776</v>
       </c>
       <c r="BP5">
-        <v>0.9156150651787029</v>
+        <v>0.8287652631790325</v>
       </c>
       <c r="BQ5">
-        <v>0.9156150651787029</v>
+        <v>0.8287652631790325</v>
       </c>
       <c r="BR5">
-        <v>0.9156150651787029</v>
+        <v>0.8287652631790325</v>
       </c>
       <c r="BS5">
-        <v>0.9156150651787029</v>
+        <v>0.8351490477071525</v>
       </c>
       <c r="BT5">
-        <v>0.9156150651787029</v>
+        <v>0.8351490477071525</v>
       </c>
       <c r="BU5">
-        <v>0.9156150651787029</v>
+        <v>0.8351490477071525</v>
       </c>
       <c r="BV5">
-        <v>0.943545687820575</v>
+        <v>0.8803039401431642</v>
       </c>
       <c r="BW5">
-        <v>0.9490007634136445</v>
+        <v>0.9098084557456187</v>
       </c>
       <c r="BX5">
-        <v>0.9490007634136445</v>
+        <v>0.9130757731353942</v>
       </c>
       <c r="BY5">
-        <v>0.9490007634136445</v>
+        <v>0.9130757731353942</v>
       </c>
       <c r="BZ5">
-        <v>0.9627940965254391</v>
+        <v>0.9483864598632916</v>
       </c>
       <c r="CA5">
         <v>1</v>
@@ -3479,91 +3479,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01554778938488094</v>
       </c>
       <c r="E6">
-        <v>0.0882952388758091</v>
+        <v>0.09182312377171012</v>
       </c>
       <c r="F6">
-        <v>0.1793696143347652</v>
+        <v>0.1696789103518998</v>
       </c>
       <c r="G6">
-        <v>0.1863657942482658</v>
+        <v>0.1997207214083898</v>
       </c>
       <c r="H6">
-        <v>0.1866754956030673</v>
+        <v>0.2259600350388672</v>
       </c>
       <c r="I6">
-        <v>0.1866754956030673</v>
+        <v>0.236255657535186</v>
       </c>
       <c r="J6">
-        <v>0.1866754956030673</v>
+        <v>0.236255657535186</v>
       </c>
       <c r="K6">
-        <v>0.1972638345052343</v>
+        <v>0.2683402741115504</v>
       </c>
       <c r="L6">
-        <v>0.3455601745240056</v>
+        <v>0.3787373110733783</v>
       </c>
       <c r="M6">
-        <v>0.6415737317233986</v>
+        <v>0.5731388555163975</v>
       </c>
       <c r="N6">
-        <v>0.6415737317233986</v>
+        <v>0.5934804123016376</v>
       </c>
       <c r="O6">
-        <v>0.6415737317233986</v>
+        <v>0.5934804123016376</v>
       </c>
       <c r="P6">
-        <v>0.6415737317233986</v>
+        <v>0.5934804123016376</v>
       </c>
       <c r="Q6">
-        <v>0.6415737317233986</v>
+        <v>0.5934804123016376</v>
       </c>
       <c r="R6">
-        <v>0.6415737317233986</v>
+        <v>0.5934804123016376</v>
       </c>
       <c r="S6">
-        <v>0.6415737317233986</v>
+        <v>0.5934804123016376</v>
       </c>
       <c r="T6">
-        <v>0.6415737317233986</v>
+        <v>0.5934804123016376</v>
       </c>
       <c r="U6">
-        <v>0.8066475534190974</v>
+        <v>0.7134185448239221</v>
       </c>
       <c r="V6">
-        <v>0.8658365137037274</v>
+        <v>0.7731415866322048</v>
       </c>
       <c r="W6">
-        <v>0.8658365137037274</v>
+        <v>0.7731415866322048</v>
       </c>
       <c r="X6">
-        <v>0.8658365137037274</v>
+        <v>0.7731415866322048</v>
       </c>
       <c r="Y6">
-        <v>0.8968849629631749</v>
+        <v>0.8168615530098897</v>
       </c>
       <c r="Z6">
-        <v>0.8968849629631749</v>
+        <v>0.8180921730347637</v>
       </c>
       <c r="AA6">
-        <v>0.8968849629631749</v>
+        <v>0.8264874988655806</v>
       </c>
       <c r="AB6">
-        <v>0.9242709047520075</v>
+        <v>0.8681246536246375</v>
       </c>
       <c r="AC6">
-        <v>0.9298504836837633</v>
+        <v>0.8973608655096827</v>
       </c>
       <c r="AD6">
-        <v>0.9298504836837633</v>
+        <v>0.8973608655096827</v>
       </c>
       <c r="AE6">
-        <v>0.9298504836837633</v>
+        <v>0.9079806674636771</v>
       </c>
       <c r="AF6">
-        <v>0.9732949256077308</v>
+        <v>0.9587500440482317</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -3784,16 +3784,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5184234673331567</v>
+        <v>0.5730328736204194</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -3825,16 +3825,16 @@
         <v>49</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5003032198572628</v>
+        <v>0.6487513298517138</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -3866,16 +3866,16 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5550988719663903</v>
+        <v>0.5113255204672663</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8255257763552866</v>
+        <v>0.6790530494269809</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6415737317233986</v>
+        <v>0.5731388555163975</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -4043,16 +4043,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7937054922780573</v>
+        <v>0.7547603137281882</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8617620580671493</v>
+        <v>0.7934164791709225</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.877931231981217</v>
+        <v>0.7566637902144159</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -4166,16 +4166,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8255257763552866</v>
+        <v>0.7178206821188664</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8066475534190974</v>
+        <v>0.7134185448239221</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4302,16 +4302,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8578407967887217</v>
+        <v>0.8003818275175454</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -4343,16 +4343,16 @@
         <v>49</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8617620580671493</v>
+        <v>0.8135523223635822</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>46</v>
@@ -4384,16 +4384,16 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.877931231981217</v>
+        <v>0.8194472654742753</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -4425,16 +4425,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8255257763552866</v>
+        <v>0.8062584609335776</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -4466,16 +4466,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8066475534190974</v>
+        <v>0.8168615530098897</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>46</v>
@@ -4561,16 +4561,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9141745789685357</v>
+        <v>0.9034537753008677</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>46</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9704758247919294</v>
+        <v>0.9143819197230437</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -4643,16 +4643,16 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9030003819899131</v>
+        <v>0.9048310226497879</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>46</v>
@@ -4684,16 +4684,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9156150651787029</v>
+        <v>0.9098084557456187</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>46</v>
@@ -4725,16 +4725,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9242709047520075</v>
+        <v>0.9079806674636771</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>46</v>
